--- a/data/input/tom_demand_setup.xlsx
+++ b/data/input/tom_demand_setup.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac1445618/Library/CloudStorage/GoogleDrive-ruipedrosaraiva@gmail.com/My Drive/dev/python/ctt/tom_demand/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F04BA5-2935-7F4D-87E9-23811292BB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1923FE-2C35-6643-AEED-54DB84B7EC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="2" xr2:uid="{9D2BC160-0631-EE46-87AB-AABB69ACE5D9}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{9D2BC160-0631-EE46-87AB-AABB69ACE5D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="weights_ra" sheetId="2" r:id="rId1"/>
+    <sheet name="DEMAND WEIGHTS" sheetId="4" r:id="rId1"/>
     <sheet name="weights_rs" sheetId="1" r:id="rId2"/>
-    <sheet name="ideas" sheetId="3" r:id="rId3"/>
+    <sheet name="weights_ra" sheetId="2" r:id="rId3"/>
+    <sheet name="ideas" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ideas!$A$1:$J$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">weights_ra!$A$1:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ideas!$A$1:$J$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">weights_ra!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="131">
   <si>
     <t>RevenueStream</t>
   </si>
@@ -301,13 +302,172 @@
   </si>
   <si>
     <t>_RA</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>CSI</t>
+  </si>
+  <si>
+    <t>CTTE</t>
+  </si>
+  <si>
+    <t>ECM</t>
+  </si>
+  <si>
+    <t>PRODUCTS</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>OPERATIONS</t>
+  </si>
+  <si>
+    <t>ACR</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>AVC</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>GFC</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>DPO</t>
+  </si>
+  <si>
+    <t>SSJ</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>CORPORATE</t>
+  </si>
+  <si>
+    <t>SI-PRD</t>
+  </si>
+  <si>
+    <t>SI-OPS</t>
+  </si>
+  <si>
+    <t>SI-CRP</t>
+  </si>
+  <si>
+    <t>TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>DAT</t>
+  </si>
+  <si>
+    <t>eCOMMERCE</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>CMO</t>
+  </si>
+  <si>
+    <t>CCO</t>
+  </si>
+  <si>
+    <t>ATC</t>
+  </si>
+  <si>
+    <t>IDC</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>CIO</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>CHR</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>Data &amp; AI</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>operations</t>
+  </si>
+  <si>
+    <t>corporate</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>ESPAÑA</t>
+  </si>
+  <si>
+    <t>DEMAND 2025</t>
+  </si>
+  <si>
+    <t>DEMAND 2026</t>
+  </si>
+  <si>
+    <t>MAIL</t>
+  </si>
+  <si>
+    <t>FULFILMENT</t>
+  </si>
+  <si>
+    <t>PAYMENTS</t>
+  </si>
+  <si>
+    <t>RETAIL &amp; FINANCIAL SERVICES</t>
+  </si>
+  <si>
+    <t>BUSINESS SOLUTIONS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -354,8 +514,33 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +559,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -384,10 +581,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -398,11 +596,41 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent 2" xfId="1" xr:uid="{B4B05582-F7D3-F142-B20F-B4C84A0F58E6}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -420,6 +648,76 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -792,28 +1090,3493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D521F980-2E5F-EC49-B62F-4F6A4A27A40F}">
-  <dimension ref="A1:O61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB758DFD-45B9-6B4E-99A1-FC80C2C804E6}">
+  <dimension ref="A1:AF88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AA46" sqref="AA46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.83203125" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.83203125" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+    </row>
+    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="R3" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="X5" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="17">
+        <f>VLOOKUP(A21,weights_rs!$A:$B,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="C21" s="7" t="b">
+        <f>(B23+F23+J23+N23+R23+V23)=100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="b">
+        <f>B23=SUM(B24:B32)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="7" t="b">
+        <f>F23=SUM(F24:F32)</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="7" t="b">
+        <f>J23=SUM(J24:J32)</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="7" t="b">
+        <f>N23=SUM(N24:N32)</f>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="7" t="b">
+        <f>R23=SUM(R24:R32)</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="7" t="b">
+        <f>V23=SUM(V24:V32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="13">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <f>B23*($B$21/100)</f>
+        <v>12.5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="13">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1">
+        <f>F23*($B$21/100)</f>
+        <v>12.5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="13">
+        <v>20</v>
+      </c>
+      <c r="K23" s="1">
+        <f>J23*($B$21/100)</f>
+        <v>10</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="13">
+        <v>20</v>
+      </c>
+      <c r="O23" s="1">
+        <f>N23*($B$21/100)</f>
+        <v>10</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R23" s="13">
+        <v>5</v>
+      </c>
+      <c r="S23" s="1">
+        <f>R23*($B$21/100)</f>
+        <v>2.5</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V23" s="13">
+        <v>5</v>
+      </c>
+      <c r="W23" s="1">
+        <f>V23*($B$21/100)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="12">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:C31" si="0">B24*($B$21/100)</f>
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="12">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ref="G24:G31" si="1">F24*($B$21/100)</f>
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="12">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ref="K24:K31" si="2">J24*($B$21/100)</f>
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" s="12">
+        <v>20</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" ref="O24:O31" si="3">N24*($B$21/100)</f>
+        <v>10</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="12">
+        <v>5</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" ref="S24:S31" si="4">R24*($B$21/100)</f>
+        <v>2.5</v>
+      </c>
+      <c r="U24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V24" s="12">
+        <v>5</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" ref="W24:W31" si="5">V24*($B$21/100)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="12">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="12">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="12">
+        <v>8</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N25" s="12"/>
+      <c r="O25" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="12"/>
+      <c r="S25" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="12"/>
+      <c r="W25" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="12">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="12">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="12">
+        <v>2</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N26" s="12"/>
+      <c r="O26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="12"/>
+      <c r="S26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="12"/>
+      <c r="W26" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="12">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="12">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="N27" s="12"/>
+      <c r="O27" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="12"/>
+      <c r="S27" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="12"/>
+      <c r="W27" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="12">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="12">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="N28" s="12"/>
+      <c r="O28" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="12"/>
+      <c r="S28" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="12"/>
+      <c r="W28" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="12">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="12"/>
+      <c r="O29" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="12"/>
+      <c r="S29" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="12"/>
+      <c r="W29" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="12">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="12"/>
+      <c r="O30" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="12"/>
+      <c r="S30" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="12"/>
+      <c r="W30" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="12">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="12"/>
+      <c r="O31" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="12"/>
+      <c r="S31" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="12"/>
+      <c r="W31" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="17">
+        <f>VLOOKUP(A34,weights_rs!$A:$B,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="C34" s="7" t="b">
+        <f>(B36+F36+J36+N36+R36+V36)=100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="7" t="b">
+        <f>B36=SUM(B37:B52)</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="7" t="b">
+        <f>F36=SUM(F37:F52)</f>
+        <v>1</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="7" t="b">
+        <f>J36=SUM(J37:J52)</f>
+        <v>1</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="7" t="b">
+        <f>N36=SUM(N37:N52)</f>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="7" t="b">
+        <f>R36=SUM(R37:R52)</f>
+        <v>1</v>
+      </c>
+      <c r="U35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V35" s="7" t="b">
+        <f>V36=SUM(V37:V52)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1">
+        <f>B36*($B$34/100)</f>
+        <v>6.25</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1">
+        <v>25</v>
+      </c>
+      <c r="G36" s="1">
+        <f>F36*($B$34/100)</f>
+        <v>6.25</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="1">
+        <v>20</v>
+      </c>
+      <c r="K36" s="1">
+        <f>J36*($B$34/100)</f>
+        <v>5</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="1">
+        <v>20</v>
+      </c>
+      <c r="O36" s="1">
+        <f>N36*($B$34/100)</f>
+        <v>5</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R36" s="1">
+        <v>5</v>
+      </c>
+      <c r="S36" s="1">
+        <f>R36*($B$34/100)</f>
+        <v>1.25</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V36" s="1">
+        <v>5</v>
+      </c>
+      <c r="W36" s="1">
+        <f>V36*($B$34/100)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" ref="C37:C51" si="6">B37*($B$34/100)</f>
+        <v>1.25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ref="G37:G51" si="7">F37*($B$34/100)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" ref="K37:K51" si="8">J37*($B$34/100)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <v>10</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" ref="O37:O51" si="9">N37*($B$34/100)</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>14</v>
+      </c>
+      <c r="R37">
+        <v>5</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" ref="S37:S51" si="10">R37*($B$34/100)</f>
+        <v>1.25</v>
+      </c>
+      <c r="U37" t="s">
+        <v>12</v>
+      </c>
+      <c r="V37">
+        <v>5</v>
+      </c>
+      <c r="W37" s="1">
+        <f t="shared" ref="W37:W51" si="11">V37*($B$34/100)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="I38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="M38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
+      </c>
+      <c r="I39" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C42" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>90</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C43" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C44" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>92</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C45" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>93</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C46" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>94</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C47" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>95</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C48" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>96</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C49" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>97</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C50" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C51" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>99</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="17">
+        <f>VLOOKUP(A54,weights_rs!$A:$B,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="C54" s="7" t="b">
+        <f>(B56+F56+J56+N56+R56+V56)=100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="7" t="b">
+        <f>B56=SUM(B57:B61)</f>
+        <v>1</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="7" t="b">
+        <f>F56=SUM(F57:F61)</f>
+        <v>1</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="7" t="b">
+        <f>J56=SUM(J57:J61)</f>
+        <v>1</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="7" t="b">
+        <f>N56=SUM(N57:N61)</f>
+        <v>1</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="7" t="b">
+        <f>R56=SUM(R57:R61)</f>
+        <v>1</v>
+      </c>
+      <c r="U55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V55" s="7" t="b">
+        <f>V56=SUM(V57:V61)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1">
+        <v>25</v>
+      </c>
+      <c r="C56" s="1">
+        <f>B56*($B$54/100)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="1">
+        <v>25</v>
+      </c>
+      <c r="G56" s="1">
+        <f>F56*($B$54/100)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="1">
+        <v>20</v>
+      </c>
+      <c r="K56" s="1">
+        <f>J56*($B$54/100)</f>
+        <v>2</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N56" s="1">
+        <v>20</v>
+      </c>
+      <c r="O56" s="1">
+        <f>N56*($B$54/100)</f>
+        <v>2</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R56" s="1">
+        <v>5</v>
+      </c>
+      <c r="S56" s="1">
+        <f>R56*($B$54/100)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V56" s="1">
+        <v>5</v>
+      </c>
+      <c r="W56" s="1">
+        <f>V56*($B$54/100)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <v>19</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" ref="C57:C60" si="12">B57*($B$54/100)</f>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" ref="G57:G60" si="13">F57*($B$54/100)</f>
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57">
+        <v>20</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" ref="K57:K60" si="14">J57*($B$54/100)</f>
+        <v>2</v>
+      </c>
+      <c r="M57" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57">
+        <v>20</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" ref="O57:O60" si="15">N57*($B$54/100)</f>
+        <v>2</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>14</v>
+      </c>
+      <c r="R57">
+        <v>5</v>
+      </c>
+      <c r="S57" s="1">
+        <f t="shared" ref="S57:S60" si="16">R57*($B$54/100)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U57" t="s">
+        <v>12</v>
+      </c>
+      <c r="V57">
+        <v>5</v>
+      </c>
+      <c r="W57" s="1">
+        <f t="shared" ref="W57:W60" si="17">V57*($B$54/100)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="17">
+        <f>VLOOKUP(A63,weights_rs!$A:$B,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="7" t="b">
+        <f>(B65+F65+J65+N65+R65+V65)=100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="7" t="b">
+        <f>B65=SUM(B66:B70)</f>
+        <v>1</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="7" t="b">
+        <f>F65=SUM(F66:F70)</f>
+        <v>1</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="7" t="b">
+        <f>J65=SUM(J66:J70)</f>
+        <v>1</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="7" t="b">
+        <f>N65=SUM(N66:N70)</f>
+        <v>1</v>
+      </c>
+      <c r="Q64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="7" t="b">
+        <f>R65=SUM(R66:R70)</f>
+        <v>1</v>
+      </c>
+      <c r="U64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V64" s="7" t="b">
+        <f>V65=SUM(V66:V70)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1">
+        <v>25</v>
+      </c>
+      <c r="C65" s="1">
+        <f>B65*($B$63/100)</f>
+        <v>1.25</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="1">
+        <v>25</v>
+      </c>
+      <c r="G65" s="1">
+        <f>F65*($B$63/100)</f>
+        <v>1.25</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="1">
+        <v>20</v>
+      </c>
+      <c r="K65" s="1">
+        <f>J65*($B$63/100)</f>
+        <v>1</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65" s="1">
+        <v>20</v>
+      </c>
+      <c r="O65" s="1">
+        <f>N65*($B$63/100)</f>
+        <v>1</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R65" s="1">
+        <v>5</v>
+      </c>
+      <c r="S65" s="1">
+        <f>R65*($B$63/100)</f>
+        <v>0.25</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V65" s="1">
+        <v>5</v>
+      </c>
+      <c r="W65" s="1">
+        <f>V65*($B$63/100)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" ref="C66:C69" si="18">B66*($B$63/100)</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" ref="G66:G69" si="19">F66*($B$63/100)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66">
+        <v>20</v>
+      </c>
+      <c r="K66" s="1">
+        <f t="shared" ref="K66:K69" si="20">J66*($B$63/100)</f>
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
+        <v>10</v>
+      </c>
+      <c r="N66">
+        <v>20</v>
+      </c>
+      <c r="O66" s="1">
+        <f t="shared" ref="O66:O69" si="21">N66*($B$63/100)</f>
+        <v>1</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>14</v>
+      </c>
+      <c r="R66">
+        <v>5</v>
+      </c>
+      <c r="S66" s="1">
+        <f t="shared" ref="S66:S69" si="22">R66*($B$63/100)</f>
+        <v>0.25</v>
+      </c>
+      <c r="U66" t="s">
+        <v>12</v>
+      </c>
+      <c r="V66">
+        <v>5</v>
+      </c>
+      <c r="W66" s="1">
+        <f t="shared" ref="W66:W69" si="23">V66*($B$63/100)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="19"/>
+        <v>0.25</v>
+      </c>
+      <c r="K68" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="W68" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="W69" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="17">
+        <f>VLOOKUP(A72,weights_rs!$A:$B,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="C72" s="7" t="b">
+        <f>(B74+F74+J74+N74+R74+V74)=100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="7" t="b">
+        <f>B74=SUM(B75:B79)</f>
+        <v>1</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="7" t="b">
+        <f>F74=SUM(F75:F79)</f>
+        <v>1</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="7" t="b">
+        <f>J74=SUM(J75:J79)</f>
+        <v>1</v>
+      </c>
+      <c r="M73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="7" t="b">
+        <f>N74=SUM(N75:N79)</f>
+        <v>1</v>
+      </c>
+      <c r="Q73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="7" t="b">
+        <f>R74=SUM(R75:R79)</f>
+        <v>1</v>
+      </c>
+      <c r="U73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V73" s="7" t="b">
+        <f>V74=SUM(V75:V79)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="1">
+        <v>25</v>
+      </c>
+      <c r="C74" s="1">
+        <f>B74*($B$72/100)</f>
+        <v>1.25</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="1">
+        <v>25</v>
+      </c>
+      <c r="G74" s="1">
+        <f>F74*($B$72/100)</f>
+        <v>1.25</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="1">
+        <v>20</v>
+      </c>
+      <c r="K74" s="1">
+        <f>J74*($B$72/100)</f>
+        <v>1</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N74" s="1">
+        <v>20</v>
+      </c>
+      <c r="O74" s="1">
+        <f>N74*($B$72/100)</f>
+        <v>1</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R74" s="1">
+        <v>5</v>
+      </c>
+      <c r="S74" s="1">
+        <f>R74*($B$72/100)</f>
+        <v>0.25</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V74" s="1">
+        <v>5</v>
+      </c>
+      <c r="W74" s="1">
+        <f>V74*($B$72/100)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" ref="C75:C78" si="24">B75*($B$72/100)</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" ref="G75:G78" si="25">F75*($B$72/100)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I75" t="s">
+        <v>23</v>
+      </c>
+      <c r="J75">
+        <v>20</v>
+      </c>
+      <c r="K75" s="1">
+        <f t="shared" ref="K75:K78" si="26">J75*($B$72/100)</f>
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
+        <v>10</v>
+      </c>
+      <c r="N75">
+        <v>20</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" ref="O75:O78" si="27">N75*($B$72/100)</f>
+        <v>1</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>14</v>
+      </c>
+      <c r="R75">
+        <v>5</v>
+      </c>
+      <c r="S75" s="1">
+        <f t="shared" ref="S75:S78" si="28">R75*($B$72/100)</f>
+        <v>0.25</v>
+      </c>
+      <c r="U75" t="s">
+        <v>12</v>
+      </c>
+      <c r="V75">
+        <v>5</v>
+      </c>
+      <c r="W75" s="1">
+        <f t="shared" ref="W75:W78" si="29">V75*($B$72/100)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="24"/>
+        <v>0.1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="K76" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="W76" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="24"/>
+        <v>0.1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="K77" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="24"/>
+        <v>0.1</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="W78" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="17">
+        <f>VLOOKUP(A81,weights_rs!$A:$B,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="C81" s="7" t="b">
+        <f>(B83+F83+J83+N83+R83+V83)=100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="7" t="b">
+        <f>B83=SUM(B84:B88)</f>
+        <v>1</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="7" t="b">
+        <f>F83=SUM(F84:F88)</f>
+        <v>1</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="7" t="b">
+        <f>J83=SUM(J84:J88)</f>
+        <v>1</v>
+      </c>
+      <c r="M82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82" s="7" t="b">
+        <f>N83=SUM(N84:N88)</f>
+        <v>1</v>
+      </c>
+      <c r="Q82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R82" s="7" t="b">
+        <f>R83=SUM(R84:R88)</f>
+        <v>1</v>
+      </c>
+      <c r="U82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V82" s="7" t="b">
+        <f>V83=SUM(V84:V88)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>25</v>
+      </c>
+      <c r="C83" s="1">
+        <f>B83*($B$81/100)</f>
+        <v>1.25</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="1">
+        <v>25</v>
+      </c>
+      <c r="G83" s="1">
+        <f>F83*($B$81/100)</f>
+        <v>1.25</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="1">
+        <v>20</v>
+      </c>
+      <c r="K83" s="1">
+        <f>J83*($B$81/100)</f>
+        <v>1</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N83" s="1">
+        <v>20</v>
+      </c>
+      <c r="O83" s="1">
+        <f>N83*($B$81/100)</f>
+        <v>1</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R83" s="1">
+        <v>5</v>
+      </c>
+      <c r="S83" s="1">
+        <f>R83*($B$81/100)</f>
+        <v>0.25</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V83" s="1">
+        <v>5</v>
+      </c>
+      <c r="W83" s="1">
+        <f>V83*($B$81/100)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84">
+        <v>19</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" ref="C84:C87" si="30">B84*($B$81/100)</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" ref="G84:G87" si="31">F84*($B$81/100)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I84" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84">
+        <v>20</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" ref="K84:K87" si="32">J84*($B$81/100)</f>
+        <v>1</v>
+      </c>
+      <c r="M84" t="s">
+        <v>10</v>
+      </c>
+      <c r="N84">
+        <v>20</v>
+      </c>
+      <c r="O84" s="1">
+        <f t="shared" ref="O84:O87" si="33">N84*($B$81/100)</f>
+        <v>1</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>14</v>
+      </c>
+      <c r="R84">
+        <v>5</v>
+      </c>
+      <c r="S84" s="1">
+        <f t="shared" ref="S84:S87" si="34">R84*($B$81/100)</f>
+        <v>0.25</v>
+      </c>
+      <c r="U84" t="s">
+        <v>12</v>
+      </c>
+      <c r="V84">
+        <v>5</v>
+      </c>
+      <c r="W84" s="1">
+        <f t="shared" ref="W84:W87" si="35">V84*($B$81/100)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="30"/>
+        <v>0.1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="K85" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S85" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="W85" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="30"/>
+        <v>0.1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="31"/>
+        <v>0.25</v>
+      </c>
+      <c r="K86" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S86" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="W86" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="30"/>
+        <v>0.1</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S87" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="W87" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B22 F22 J22 N22 R22 V22 V35 R35 N35 J35 F35 B35 B64 F64 J64 N64 R64 V64 V73 R73 N73 J73 F73 B73 V82 R82 N82 J82 F82 B82">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55 F55 J55 N55 R55 V55">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B369EC55-B648-3A4C-A439-D742FEF9A099}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4">
+        <f>SUM(B3:B20)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>25</v>
+      </c>
+      <c r="C4" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D521F980-2E5F-EC49-B62F-4F6A4A27A40F}">
+  <dimension ref="A1:O61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="8"/>
+    <col min="7" max="7" width="6.5" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.6640625" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="8"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.83203125" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="8"/>
+    <col min="13" max="13" width="6.5" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1911,7 +5674,7 @@
   </sheetData>
   <autoFilter ref="A1:D26" xr:uid="{D521F980-2E5F-EC49-B62F-4F6A4A27A40F}"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1924,7 +5687,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1937,7 +5700,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1945,115 +5708,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B369EC55-B648-3A4C-A439-D742FEF9A099}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4">
-        <f>SUM(B:B)</f>
-        <v>100</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D437AB-C2CB-8D43-BD8D-11D3278E662B}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2757,12 +6418,12 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"ALERT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"ALERT"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/input/tom_demand_setup.xlsx
+++ b/data/input/tom_demand_setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac1445618/Library/CloudStorage/GoogleDrive-ruipedrosaraiva@gmail.com/My Drive/dev/python/ctt/tom_demand/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1923FE-2C35-6643-AEED-54DB84B7EC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C209F-4EF2-1E41-A665-1CC231D61C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{9D2BC160-0631-EE46-87AB-AABB69ACE5D9}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="3" xr2:uid="{9D2BC160-0631-EE46-87AB-AABB69ACE5D9}"/>
   </bookViews>
   <sheets>
     <sheet name="DEMAND WEIGHTS" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="ideas" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ideas!$A$1:$J$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ideas!$A$1:$K$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">weights_ra!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="145">
   <si>
     <t>RevenueStream</t>
   </si>
@@ -458,6 +458,48 @@
   </si>
   <si>
     <t>BUSINESS SOLUTIONS</t>
+  </si>
+  <si>
+    <t>MicroPhase</t>
+  </si>
+  <si>
+    <t>In Development</t>
+  </si>
+  <si>
+    <t>In Acceptance</t>
+  </si>
+  <si>
+    <t>Ready for Execution</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Ready for Acceptance</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>High Level Design</t>
+  </si>
+  <si>
+    <t>In Approval</t>
+  </si>
+  <si>
+    <t>Selected for Production</t>
+  </si>
+  <si>
+    <t>In Rollout</t>
+  </si>
+  <si>
+    <t>In Definition</t>
+  </si>
+  <si>
+    <t>Ready for Approval</t>
+  </si>
+  <si>
+    <t>Ready for Solution</t>
   </si>
 </sst>
 </file>
@@ -613,6 +655,26 @@
   <dxfs count="15">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -628,26 +690,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1093,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB758DFD-45B9-6B4E-99A1-FC80C2C804E6}">
   <dimension ref="A1:AF88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
@@ -4417,12 +4459,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55 F55 J55 N55 R55 V55">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4544,7 +4586,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5674,7 +5716,7 @@
   </sheetData>
   <autoFilter ref="A1:D26" xr:uid="{D521F980-2E5F-EC49-B62F-4F6A4A27A40F}"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5687,7 +5729,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5700,7 +5742,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5710,11 +5752,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D437AB-C2CB-8D43-BD8D-11D3278E662B}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5724,16 +5766,18 @@
     <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" customWidth="1"/>
+    <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -5749,681 +5793,765 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="2"/>
+      <c r="N1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4</v>
+      </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="L2" t="str">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="N2" t="str">
         <f>D2&amp;"-"&amp;C2</f>
-        <v>Mail-BCTT</v>
-      </c>
-      <c r="M2" t="str">
-        <f>IF(ISNA(VLOOKUP(L2,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>eCommerce-GP ECL</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(ISNA(VLOOKUP(N2,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L21" si="0">D3&amp;"-"&amp;C3</f>
-        <v>Banco CTT-CISO</v>
-      </c>
-      <c r="M3" t="str">
-        <f>IF(ISNA(VLOOKUP(L3,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N21" si="0">D3&amp;"-"&amp;C3</f>
+        <v>eCommerce-GP B2B</v>
+      </c>
+      <c r="O3" t="str">
+        <f>IF(ISNA(VLOOKUP(N3,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>ALERT</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="L4" t="str">
-        <f t="shared" si="0"/>
-        <v>eCommerce-CISO</v>
-      </c>
-      <c r="M4" t="str">
-        <f>IF(ISNA(VLOOKUP(L4,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mail-EDO</v>
+      </c>
+      <c r="O4" t="str">
+        <f>IF(ISNA(VLOOKUP(N4,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="L5" t="str">
-        <f t="shared" si="0"/>
-        <v>Business Solutions-DAI</v>
-      </c>
-      <c r="M5" t="str">
-        <f>IF(ISNA(VLOOKUP(L5,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>eCommerce-DAI</v>
+      </c>
+      <c r="O5" t="str">
+        <f>IF(ISNA(VLOOKUP(N5,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>eCommerce-DAI</v>
-      </c>
-      <c r="M6" t="str">
-        <f>IF(ISNA(VLOOKUP(L6,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>Payments-GPG</v>
+      </c>
+      <c r="O6" t="str">
+        <f>IF(ISNA(VLOOKUP(N6,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>Mail-EDO</v>
-      </c>
-      <c r="M7" t="str">
-        <f>IF(ISNA(VLOOKUP(L7,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>eCommerce-GP ECL</v>
+      </c>
+      <c r="O7" t="str">
+        <f>IF(ISNA(VLOOKUP(N7,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="F8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>Mail-EDO</v>
-      </c>
-      <c r="M8" t="str">
-        <f>IF(ISNA(VLOOKUP(L8,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>Fulfilment-GP ECL</v>
+      </c>
+      <c r="O8" t="str">
+        <f>IF(ISNA(VLOOKUP(N8,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>Business Solutions-GP B2B</v>
-      </c>
-      <c r="M9" t="str">
-        <f>IF(ISNA(VLOOKUP(L9,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>Business Solutions-DAI</v>
+      </c>
+      <c r="O9" t="str">
+        <f>IF(ISNA(VLOOKUP(N9,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>eCommerce-GP ECL</v>
-      </c>
-      <c r="M10" t="str">
-        <f>IF(ISNA(VLOOKUP(L10,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>Mail-SI</v>
+      </c>
+      <c r="O10" t="str">
+        <f>IF(ISNA(VLOOKUP(N10,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="9"/>
+      <c r="F11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>eCommerce-GP B2B</v>
-      </c>
-      <c r="M11" t="str">
-        <f>IF(ISNA(VLOOKUP(L11,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
-        <v>ALERT</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>Retail &amp; Financial Services-GP B2C</v>
+      </c>
+      <c r="O11" t="str">
+        <f>IF(ISNA(VLOOKUP(N11,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>Retail &amp; Financial Services-GP B2C</v>
-      </c>
-      <c r="M12" t="str">
-        <f>IF(ISNA(VLOOKUP(L12,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>eCommerce-CISO</v>
+      </c>
+      <c r="O12" t="str">
+        <f>IF(ISNA(VLOOKUP(N12,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>eCommerce-GP ECL</v>
-      </c>
-      <c r="M13" t="str">
-        <f>IF(ISNA(VLOOKUP(L13,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>Mail-BCTT</v>
+      </c>
+      <c r="O13" t="str">
+        <f>IF(ISNA(VLOOKUP(N13,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>Fulfilment-GP ECL</v>
-      </c>
-      <c r="M14" t="str">
-        <f>IF(ISNA(VLOOKUP(L14,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>Mail-GRH</v>
+      </c>
+      <c r="O14" t="str">
+        <f>IF(ISNA(VLOOKUP(N14,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>Fulfilment-GP ECL</v>
-      </c>
-      <c r="M15" t="str">
-        <f>IF(ISNA(VLOOKUP(L15,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>Payments-GPG</v>
+      </c>
+      <c r="O15" t="str">
+        <f>IF(ISNA(VLOOKUP(N15,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>Payments-GPG</v>
-      </c>
-      <c r="M16" t="str">
-        <f>IF(ISNA(VLOOKUP(L16,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>eCommerce-SI</v>
+      </c>
+      <c r="O16" t="str">
+        <f>IF(ISNA(VLOOKUP(N16,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>Payments-GPG</v>
-      </c>
-      <c r="M17" t="str">
-        <f>IF(ISNA(VLOOKUP(L17,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>Mail-EDO</v>
+      </c>
+      <c r="O17" t="str">
+        <f>IF(ISNA(VLOOKUP(N17,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>Mail-GRH</v>
-      </c>
-      <c r="M18" t="str">
-        <f>IF(ISNA(VLOOKUP(L18,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>Fulfilment-GP ECL</v>
+      </c>
+      <c r="O18" t="str">
+        <f>IF(ISNA(VLOOKUP(N18,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v>eCommerce-SI</v>
-      </c>
-      <c r="M19" t="str">
-        <f>IF(ISNA(VLOOKUP(L19,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>Business Solutions-GP B2B</v>
+      </c>
+      <c r="O19" t="str">
+        <f>IF(ISNA(VLOOKUP(N19,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="9"/>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v>Mail-SI</v>
-      </c>
-      <c r="M20" t="str">
-        <f>IF(ISNA(VLOOKUP(L20,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>Retail &amp; Financial Services-SI</v>
+      </c>
+      <c r="O20" t="str">
+        <f>IF(ISNA(VLOOKUP(N20,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3</v>
-      </c>
-      <c r="G21" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v>Retail &amp; Financial Services-SI</v>
-      </c>
-      <c r="M21" t="str">
-        <f>IF(ISNA(VLOOKUP(L21,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
-        <v>Ok</v>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>Banco CTT-CISO</v>
+      </c>
+      <c r="O21" t="str">
+        <f>IF(ISNA(VLOOKUP(N21,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>ALERT</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J21" xr:uid="{25D437AB-C2CB-8D43-BD8D-11D3278E662B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
-      <sortCondition ref="C1:C21"/>
+  <autoFilter ref="A1:K21" xr:uid="{25D437AB-C2CB-8D43-BD8D-11D3278E662B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K21">
+      <sortCondition ref="A1:A21"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"ALERT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="N1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"ALERT"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/input/tom_demand_setup.xlsx
+++ b/data/input/tom_demand_setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac1445618/Library/CloudStorage/GoogleDrive-ruipedrosaraiva@gmail.com/My Drive/dev/python/ctt/tom_demand/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1923FE-2C35-6643-AEED-54DB84B7EC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B92738-ADD9-1D42-BC9B-A5C20665B69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{9D2BC160-0631-EE46-87AB-AABB69ACE5D9}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29840" windowHeight="18560" activeTab="3" xr2:uid="{9D2BC160-0631-EE46-87AB-AABB69ACE5D9}"/>
   </bookViews>
   <sheets>
     <sheet name="DEMAND WEIGHTS" sheetId="4" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="ideas" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ideas!$A$1:$J$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">weights_ra!$A$1:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ideas!$A$1:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">weights_ra!$A$1:$D$40</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="143">
   <si>
     <t>RevenueStream</t>
   </si>
@@ -458,6 +458,42 @@
   </si>
   <si>
     <t>BUSINESS SOLUTIONS</t>
+  </si>
+  <si>
+    <t>MicroPhase</t>
+  </si>
+  <si>
+    <t>In Development</t>
+  </si>
+  <si>
+    <t>In Acceptance</t>
+  </si>
+  <si>
+    <t>Ready for Execution</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Ready for Acceptance</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>In Approval</t>
+  </si>
+  <si>
+    <t>In Rollout</t>
+  </si>
+  <si>
+    <t>In Definition</t>
+  </si>
+  <si>
+    <t>Ready for Approval</t>
+  </si>
+  <si>
+    <t>Ready for Solution</t>
   </si>
 </sst>
 </file>
@@ -465,7 +501,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -540,7 +576,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +607,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -585,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -604,33 +646,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent 2" xfId="1" xr:uid="{B4B05582-F7D3-F142-B20F-B4C84A0F58E6}"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -648,6 +671,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1093,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB758DFD-45B9-6B4E-99A1-FC80C2C804E6}">
   <dimension ref="A1:AF88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AA46" sqref="AA46"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2053,7 +2086,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B24" s="12">
@@ -2063,7 +2096,7 @@
         <f t="shared" ref="C24:C31" si="0">B24*($B$21/100)</f>
         <v>2</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="19" t="s">
         <v>107</v>
       </c>
       <c r="F24" s="12">
@@ -2073,7 +2106,7 @@
         <f t="shared" ref="G24:G31" si="1">F24*($B$21/100)</f>
         <v>4</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="19" t="s">
         <v>110</v>
       </c>
       <c r="J24" s="12">
@@ -2083,7 +2116,7 @@
         <f t="shared" ref="K24:K31" si="2">J24*($B$21/100)</f>
         <v>4</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="19" t="s">
         <v>113</v>
       </c>
       <c r="N24" s="12">
@@ -2115,7 +2148,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B25" s="12">
@@ -2135,7 +2168,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="19" t="s">
         <v>112</v>
       </c>
       <c r="J25" s="12">
@@ -2162,7 +2195,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B26" s="12">
@@ -2182,7 +2215,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="19" t="s">
         <v>114</v>
       </c>
       <c r="J26" s="12">
@@ -2229,7 +2262,7 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
       <c r="J27" s="12">
@@ -2271,7 +2304,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="19" t="s">
         <v>116</v>
       </c>
       <c r="J28" s="12">
@@ -4386,28 +4419,28 @@
       <c r="W88" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B22 F22 J22 N22 R22 V22 V35 R35 N35 J35 F35 B35 B64 F64 J64 N64 R64 V64 V73 R73 N73 J73 F73 B73 V82 R82 N82 J82 F82 B82">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+  <conditionalFormatting sqref="B22 F22 J22 N22 R22 V22 B35 F35 J35 N35 R35 V35 B64 F64 J64 N64 R64 V64 B73 F73 J73 N73 R73 V73 B82 F82 J82 N82 R82 V82">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55 F55 J55 N55 R55 V55">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+  <conditionalFormatting sqref="C54">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4416,13 +4449,13 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55 F55 J55 N55 R55 V55">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="C72">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C81">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4436,7 +4469,7 @@
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4544,7 +4577,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4559,7 +4592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4635,21 +4668,21 @@
         <v>Business Solutions</v>
       </c>
       <c r="G2" s="7">
-        <f ca="1">SUMIF($A:$D,F2,$D:$D)</f>
+        <f t="shared" ref="G2:G13" ca="1" si="0">SUMIF($A:$D,F2,$D:$D)</f>
         <v>100</v>
       </c>
       <c r="I2" t="str">
         <v>Commercial</v>
       </c>
       <c r="J2" s="4">
-        <f ca="1">SUMIF($B:$D,I2,$D:$D)</f>
+        <f t="shared" ref="J2:J13" ca="1" si="1">SUMIF($B:$D,I2,$D:$D)</f>
         <v>215</v>
       </c>
       <c r="L2" t="str">
         <v>GP B2B</v>
       </c>
       <c r="M2" s="4">
-        <f ca="1">SUMIF($C:$D,L2,$D:$D)</f>
+        <f t="shared" ref="M2:M13" ca="1" si="2">SUMIF($C:$D,L2,$D:$D)</f>
         <v>75</v>
       </c>
       <c r="O2" t="str">
@@ -4674,25 +4707,25 @@
         <v>eCommerce</v>
       </c>
       <c r="G3" s="7">
-        <f ca="1">SUMIF($A:$D,F3,$D:$D)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
       <c r="I3" t="str">
         <v>Data&amp;AI</v>
       </c>
       <c r="J3" s="4">
-        <f ca="1">SUMIF($B:$D,I3,$D:$D)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>59</v>
       </c>
       <c r="L3" t="str">
         <v>DAI</v>
       </c>
       <c r="M3" s="4">
-        <f ca="1">SUMIF($C:$D,L3,$D:$D)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O61" si="0">A3&amp;"-"&amp;C3</f>
+        <f t="shared" ref="O3:O61" si="3">A3&amp;"-"&amp;C3</f>
         <v>Business Solutions-DAI</v>
       </c>
     </row>
@@ -4713,25 +4746,25 @@
         <v>Fulfilment</v>
       </c>
       <c r="G4" s="7">
-        <f ca="1">SUMIF($A:$D,F4,$D:$D)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
       <c r="I4" t="str">
         <v>Operations</v>
       </c>
       <c r="J4" s="4">
-        <f ca="1">SUMIF($B:$D,I4,$D:$D)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>101</v>
       </c>
       <c r="L4" t="str">
         <v>EDO</v>
       </c>
       <c r="M4" s="4">
-        <f ca="1">SUMIF($C:$D,L4,$D:$D)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>91</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Business Solutions-EDO</v>
       </c>
     </row>
@@ -4752,25 +4785,25 @@
         <v>Mail</v>
       </c>
       <c r="G5" s="7">
-        <f ca="1">SUMIF($A:$D,F5,$D:$D)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
       <c r="I5" t="str">
         <v>Technology</v>
       </c>
       <c r="J5" s="4">
-        <f ca="1">SUMIF($B:$D,I5,$D:$D)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>120</v>
       </c>
       <c r="L5" t="str">
         <v>SI</v>
       </c>
       <c r="M5" s="4">
-        <f ca="1">SUMIF($C:$D,L5,$D:$D)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>120</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Business Solutions-SI</v>
       </c>
     </row>
@@ -4791,25 +4824,25 @@
         <v>Payments</v>
       </c>
       <c r="G6" s="7">
-        <f ca="1">SUMIF($A:$D,F6,$D:$D)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
       <c r="I6" t="str">
         <v>CISO</v>
       </c>
       <c r="J6" s="4">
-        <f ca="1">SUMIF($B:$D,I6,$D:$D)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="L6" t="str">
         <v>CISO</v>
       </c>
       <c r="M6" s="4">
-        <f ca="1">SUMIF($C:$D,L6,$D:$D)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>35</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Business Solutions-CISO</v>
       </c>
     </row>
@@ -4830,25 +4863,25 @@
         <v>Retail &amp; Financial Services</v>
       </c>
       <c r="G7" s="7">
-        <f ca="1">SUMIF($A:$D,F7,$D:$D)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
       <c r="I7" t="str">
         <v>Corporate</v>
       </c>
       <c r="J7" s="4">
-        <f ca="1">SUMIF($B:$D,I7,$D:$D)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>70</v>
       </c>
       <c r="L7" t="str">
         <v>CF</v>
       </c>
       <c r="M7" s="4">
-        <f ca="1">SUMIF($C:$D,L7,$D:$D)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Business Solutions-CF</v>
       </c>
     </row>
@@ -4869,25 +4902,25 @@
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <f ca="1">SUMIF($A:$D,F8,$D:$D)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <f ca="1">SUMIF($B:$D,I8,$D:$D)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L8" t="str">
         <v>GP ECL</v>
       </c>
       <c r="M8" s="4">
-        <f ca="1">SUMIF($C:$D,L8,$D:$D)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>70</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>eCommerce-GP ECL</v>
       </c>
     </row>
@@ -4905,22 +4938,22 @@
         <v>10</v>
       </c>
       <c r="G9" s="7">
-        <f ca="1">SUMIF($A:$D,F9,$D:$D)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <f ca="1">SUMIF($B:$D,I9,$D:$D)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L9" t="str">
         <v>SEO</v>
       </c>
       <c r="M9" s="4">
-        <f ca="1">SUMIF($C:$D,L9,$D:$D)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>eCommerce-DAI</v>
       </c>
     </row>
@@ -4938,22 +4971,22 @@
         <v>20</v>
       </c>
       <c r="G10" s="7">
-        <f ca="1">SUMIF($A:$D,F10,$D:$D)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <f ca="1">SUMIF($B:$D,I10,$D:$D)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L10" t="str">
         <v>BCTT</v>
       </c>
       <c r="M10" s="4">
-        <f ca="1">SUMIF($C:$D,L10,$D:$D)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>eCommerce-EDO</v>
       </c>
     </row>
@@ -4971,22 +5004,22 @@
         <v>20</v>
       </c>
       <c r="G11" s="7">
-        <f ca="1">SUMIF($A:$D,F11,$D:$D)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <f ca="1">SUMIF($B:$D,I11,$D:$D)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L11" t="str">
         <v>GRH</v>
       </c>
       <c r="M11" s="4">
-        <f ca="1">SUMIF($C:$D,L11,$D:$D)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>eCommerce-SI</v>
       </c>
     </row>
@@ -5004,22 +5037,22 @@
         <v>5</v>
       </c>
       <c r="G12" s="7">
-        <f ca="1">SUMIF($A:$D,F12,$D:$D)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f ca="1">SUMIF($B:$D,I12,$D:$D)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L12" t="str">
         <v>GPG</v>
       </c>
       <c r="M12" s="4">
-        <f ca="1">SUMIF($C:$D,L12,$D:$D)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>35</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>eCommerce-CISO</v>
       </c>
     </row>
@@ -5037,22 +5070,22 @@
         <v>10</v>
       </c>
       <c r="G13" s="7">
-        <f ca="1">SUMIF($A:$D,F13,$D:$D)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f ca="1">SUMIF($B:$D,I13,$D:$D)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L13" t="str">
         <v>GP B2C</v>
       </c>
       <c r="M13" s="4">
-        <f ca="1">SUMIF($C:$D,L13,$D:$D)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>35</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>eCommerce-CF</v>
       </c>
     </row>
@@ -5073,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Fulfilment-GP ECL</v>
       </c>
     </row>
@@ -5091,7 +5124,7 @@
         <v>10</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Fulfilment-DAI</v>
       </c>
     </row>
@@ -5109,7 +5142,7 @@
         <v>20</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Fulfilment-EDO</v>
       </c>
     </row>
@@ -5127,7 +5160,7 @@
         <v>20</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Fulfilment-SI</v>
       </c>
     </row>
@@ -5145,7 +5178,7 @@
         <v>5</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Fulfilment-CISO</v>
       </c>
     </row>
@@ -5163,7 +5196,7 @@
         <v>10</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Fulfilment-CF</v>
       </c>
     </row>
@@ -5181,7 +5214,7 @@
         <v>35</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Mail-GP B2B</v>
       </c>
     </row>
@@ -5199,7 +5232,7 @@
         <v>10</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Mail-DAI</v>
       </c>
     </row>
@@ -5217,7 +5250,7 @@
         <v>10</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Mail-EDO</v>
       </c>
     </row>
@@ -5235,7 +5268,7 @@
         <v>10</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Mail-SEO</v>
       </c>
     </row>
@@ -5253,7 +5286,7 @@
         <v>20</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Mail-SI</v>
       </c>
     </row>
@@ -5271,7 +5304,7 @@
         <v>5</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Mail-CISO</v>
       </c>
     </row>
@@ -5289,7 +5322,7 @@
         <v>8</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Mail-CF</v>
       </c>
     </row>
@@ -5307,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Mail-BCTT</v>
       </c>
     </row>
@@ -5325,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Mail-GRH</v>
       </c>
     </row>
@@ -5343,7 +5376,7 @@
         <v>35</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Payments-GPG</v>
       </c>
     </row>
@@ -5361,7 +5394,7 @@
         <v>10</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Payments-DAI</v>
       </c>
     </row>
@@ -5379,7 +5412,7 @@
         <v>20</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Payments-EDO</v>
       </c>
     </row>
@@ -5397,7 +5430,7 @@
         <v>20</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Payments-SI</v>
       </c>
     </row>
@@ -5415,7 +5448,7 @@
         <v>5</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Payments-CISO</v>
       </c>
     </row>
@@ -5433,7 +5466,7 @@
         <v>10</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Payments-CF</v>
       </c>
     </row>
@@ -5451,7 +5484,7 @@
         <v>35</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Retail &amp; Financial Services-GP B2C</v>
       </c>
     </row>
@@ -5469,7 +5502,7 @@
         <v>10</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Retail &amp; Financial Services-DAI</v>
       </c>
     </row>
@@ -5487,7 +5520,7 @@
         <v>20</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Retail &amp; Financial Services-EDO</v>
       </c>
     </row>
@@ -5505,7 +5538,7 @@
         <v>20</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Retail &amp; Financial Services-SI</v>
       </c>
     </row>
@@ -5523,7 +5556,7 @@
         <v>5</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Retail &amp; Financial Services-CISO</v>
       </c>
     </row>
@@ -5541,140 +5574,140 @@
         <v>10</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Retail &amp; Financial Services-CF</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="49" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="50" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="51" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="52" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="53" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="54" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="55" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="56" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="57" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="58" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="59" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="60" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="61" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D26" xr:uid="{D521F980-2E5F-EC49-B62F-4F6A4A27A40F}"/>
+  <autoFilter ref="A1:D40" xr:uid="{D521F980-2E5F-EC49-B62F-4F6A4A27A40F}"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5687,7 +5720,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5700,7 +5733,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5710,11 +5743,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D437AB-C2CB-8D43-BD8D-11D3278E662B}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5724,16 +5757,18 @@
     <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" customWidth="1"/>
+    <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -5750,680 +5785,764 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="2"/>
+      <c r="N1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4</v>
+      </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="L2" t="str">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="N2" t="str">
         <f>D2&amp;"-"&amp;C2</f>
-        <v>Mail-BCTT</v>
-      </c>
-      <c r="M2" t="str">
-        <f>IF(ISNA(VLOOKUP(L2,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>eCommerce-GP ECL</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(ISNA(VLOOKUP(N2,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L21" si="0">D3&amp;"-"&amp;C3</f>
-        <v>Banco CTT-CISO</v>
-      </c>
-      <c r="M3" t="str">
-        <f>IF(ISNA(VLOOKUP(L3,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
-        <v>ALERT</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N21" si="0">D3&amp;"-"&amp;C3</f>
+        <v>Mail-GP B2B</v>
+      </c>
+      <c r="O3" t="str">
+        <f>IF(ISNA(VLOOKUP(N3,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="L4" t="str">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="N4" t="str">
         <f t="shared" si="0"/>
-        <v>eCommerce-CISO</v>
-      </c>
-      <c r="M4" t="str">
-        <f>IF(ISNA(VLOOKUP(L4,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Mail-EDO</v>
+      </c>
+      <c r="O4" t="str">
+        <f>IF(ISNA(VLOOKUP(N4,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="F5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="L5" t="str">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="N5" t="str">
         <f t="shared" si="0"/>
-        <v>Business Solutions-DAI</v>
-      </c>
-      <c r="M5" t="str">
-        <f>IF(ISNA(VLOOKUP(L5,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>eCommerce-DAI</v>
+      </c>
+      <c r="O5" t="str">
+        <f>IF(ISNA(VLOOKUP(N5,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="L6" t="str">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="N6" t="str">
         <f t="shared" si="0"/>
-        <v>eCommerce-DAI</v>
-      </c>
-      <c r="M6" t="str">
-        <f>IF(ISNA(VLOOKUP(L6,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Payments-GPG</v>
+      </c>
+      <c r="O6" t="str">
+        <f>IF(ISNA(VLOOKUP(N6,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="L7" t="str">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="N7" t="str">
         <f t="shared" si="0"/>
-        <v>Mail-EDO</v>
-      </c>
-      <c r="M7" t="str">
-        <f>IF(ISNA(VLOOKUP(L7,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>eCommerce-GP ECL</v>
+      </c>
+      <c r="O7" t="str">
+        <f>IF(ISNA(VLOOKUP(N7,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="L8" t="str">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="N8" t="str">
         <f t="shared" si="0"/>
-        <v>Mail-EDO</v>
-      </c>
-      <c r="M8" t="str">
-        <f>IF(ISNA(VLOOKUP(L8,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Fulfilment-GP ECL</v>
+      </c>
+      <c r="O8" t="str">
+        <f>IF(ISNA(VLOOKUP(N8,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="L9" t="str">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="N9" t="str">
         <f t="shared" si="0"/>
-        <v>Business Solutions-GP B2B</v>
-      </c>
-      <c r="M9" t="str">
-        <f>IF(ISNA(VLOOKUP(L9,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Business Solutions-DAI</v>
+      </c>
+      <c r="O9" t="str">
+        <f>IF(ISNA(VLOOKUP(N9,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="L10" t="str">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="N10" t="str">
         <f t="shared" si="0"/>
-        <v>eCommerce-GP ECL</v>
-      </c>
-      <c r="M10" t="str">
-        <f>IF(ISNA(VLOOKUP(L10,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Mail-SI</v>
+      </c>
+      <c r="O10" t="str">
+        <f>IF(ISNA(VLOOKUP(N10,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="9"/>
+      <c r="F11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="L11" t="str">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="N11" t="str">
         <f t="shared" si="0"/>
-        <v>eCommerce-GP B2B</v>
-      </c>
-      <c r="M11" t="str">
-        <f>IF(ISNA(VLOOKUP(L11,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
-        <v>ALERT</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>Retail &amp; Financial Services-GP B2C</v>
+      </c>
+      <c r="O11" t="str">
+        <f>IF(ISNA(VLOOKUP(N11,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="L12" t="str">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="N12" t="str">
         <f t="shared" si="0"/>
-        <v>Retail &amp; Financial Services-GP B2C</v>
-      </c>
-      <c r="M12" t="str">
-        <f>IF(ISNA(VLOOKUP(L12,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>eCommerce-CISO</v>
+      </c>
+      <c r="O12" t="str">
+        <f>IF(ISNA(VLOOKUP(N12,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="L13" t="str">
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="N13" t="str">
         <f t="shared" si="0"/>
-        <v>eCommerce-GP ECL</v>
-      </c>
-      <c r="M13" t="str">
-        <f>IF(ISNA(VLOOKUP(L13,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Mail-BCTT</v>
+      </c>
+      <c r="O13" t="str">
+        <f>IF(ISNA(VLOOKUP(N13,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="L14" t="str">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="N14" t="str">
         <f t="shared" si="0"/>
-        <v>Fulfilment-GP ECL</v>
-      </c>
-      <c r="M14" t="str">
-        <f>IF(ISNA(VLOOKUP(L14,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Mail-GRH</v>
+      </c>
+      <c r="O14" t="str">
+        <f>IF(ISNA(VLOOKUP(N14,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="L15" t="str">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="N15" t="str">
         <f t="shared" si="0"/>
-        <v>Fulfilment-GP ECL</v>
-      </c>
-      <c r="M15" t="str">
-        <f>IF(ISNA(VLOOKUP(L15,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Payments-GPG</v>
+      </c>
+      <c r="O15" t="str">
+        <f>IF(ISNA(VLOOKUP(N15,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="L16" t="str">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="N16" t="str">
         <f t="shared" si="0"/>
-        <v>Payments-GPG</v>
-      </c>
-      <c r="M16" t="str">
-        <f>IF(ISNA(VLOOKUP(L16,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>eCommerce-SI</v>
+      </c>
+      <c r="O16" t="str">
+        <f>IF(ISNA(VLOOKUP(N16,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="L17" t="str">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="N17" t="str">
         <f t="shared" si="0"/>
-        <v>Payments-GPG</v>
-      </c>
-      <c r="M17" t="str">
-        <f>IF(ISNA(VLOOKUP(L17,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Mail-EDO</v>
+      </c>
+      <c r="O17" t="str">
+        <f>IF(ISNA(VLOOKUP(N17,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="L18" t="str">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="N18" t="str">
         <f t="shared" si="0"/>
-        <v>Mail-GRH</v>
-      </c>
-      <c r="M18" t="str">
-        <f>IF(ISNA(VLOOKUP(L18,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Fulfilment-GP ECL</v>
+      </c>
+      <c r="O18" t="str">
+        <f>IF(ISNA(VLOOKUP(N18,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="L19" t="str">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="N19" t="str">
         <f t="shared" si="0"/>
-        <v>eCommerce-SI</v>
-      </c>
-      <c r="M19" t="str">
-        <f>IF(ISNA(VLOOKUP(L19,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Business Solutions-GP B2B</v>
+      </c>
+      <c r="O19" t="str">
+        <f>IF(ISNA(VLOOKUP(N19,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="9"/>
+      <c r="F20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="L20" t="str">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="N20" t="str">
         <f t="shared" si="0"/>
-        <v>Mail-SI</v>
-      </c>
-      <c r="M20" t="str">
-        <f>IF(ISNA(VLOOKUP(L20,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>Retail &amp; Financial Services-SI</v>
+      </c>
+      <c r="O20" t="str">
+        <f>IF(ISNA(VLOOKUP(N20,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3</v>
-      </c>
-      <c r="G21" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="L21" t="str">
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="N21" t="str">
         <f t="shared" si="0"/>
-        <v>Retail &amp; Financial Services-SI</v>
-      </c>
-      <c r="M21" t="str">
-        <f>IF(ISNA(VLOOKUP(L21,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
-        <v>Ok</v>
+        <v>Banco CTT-CISO</v>
+      </c>
+      <c r="O21" t="str">
+        <f>IF(ISNA(VLOOKUP(N21,weights_ra!O:O,1,FALSE)),"ALERT","Ok")</f>
+        <v>ALERT</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J21" xr:uid="{25D437AB-C2CB-8D43-BD8D-11D3278E662B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+  <autoFilter ref="A1:K21" xr:uid="{25D437AB-C2CB-8D43-BD8D-11D3278E662B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K21">
       <sortCondition ref="C1:C21"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="N1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ALERT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"ALERT"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/input/tom_demand_setup.xlsx
+++ b/data/input/tom_demand_setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac1445618/Library/CloudStorage/GoogleDrive-ruipedrosaraiva@gmail.com/My Drive/dev/python/ctt/tom_demand/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B92738-ADD9-1D42-BC9B-A5C20665B69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCADAB6F-0FE9-9244-B69E-E05CFBD5FE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29840" windowHeight="18560" activeTab="3" xr2:uid="{9D2BC160-0631-EE46-87AB-AABB69ACE5D9}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="159">
   <si>
     <t>RevenueStream</t>
   </si>
@@ -494,6 +494,54 @@
   </si>
   <si>
     <t>Ready for Solution</t>
+  </si>
+  <si>
+    <t>IDEA021</t>
+  </si>
+  <si>
+    <t>IDEA022</t>
+  </si>
+  <si>
+    <t>IDEA023</t>
+  </si>
+  <si>
+    <t>IDEA024</t>
+  </si>
+  <si>
+    <t>System 1</t>
+  </si>
+  <si>
+    <t>System 2</t>
+  </si>
+  <si>
+    <t>System 3</t>
+  </si>
+  <si>
+    <t>System 4</t>
+  </si>
+  <si>
+    <t>IDEA025</t>
+  </si>
+  <si>
+    <t>System 5</t>
+  </si>
+  <si>
+    <t>IDEA026</t>
+  </si>
+  <si>
+    <t>System 6</t>
+  </si>
+  <si>
+    <t>IDEA027</t>
+  </si>
+  <si>
+    <t>System 7</t>
+  </si>
+  <si>
+    <t>IDEA028</t>
+  </si>
+  <si>
+    <t>System 8</t>
   </si>
 </sst>
 </file>
@@ -503,7 +551,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -574,6 +622,12 @@
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -5743,11 +5797,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D437AB-C2CB-8D43-BD8D-11D3278E662B}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5874,7 +5928,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N21" si="0">D3&amp;"-"&amp;C3</f>
+        <f t="shared" ref="N3:N22" si="0">D3&amp;"-"&amp;C3</f>
         <v>Mail-GP B2B</v>
       </c>
       <c r="O3" t="str">
@@ -6530,12 +6584,225 @@
         <v>ALERT</v>
       </c>
     </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>Mail-SI</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="3">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="3">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="3">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="3">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="3">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K21" xr:uid="{25D437AB-C2CB-8D43-BD8D-11D3278E662B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K21">
-      <sortCondition ref="C1:C21"/>
+      <sortCondition ref="A1:A21"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="N1">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ALERT"</formula>

--- a/data/input/tom_demand_setup.xlsx
+++ b/data/input/tom_demand_setup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac1445618/Library/CloudStorage/GoogleDrive-ruipedrosaraiva@gmail.com/My Drive/dev/python/ctt/tom_demand/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCADAB6F-0FE9-9244-B69E-E05CFBD5FE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659BB6B4-CFE7-CE49-9E73-B36DA9DDB380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29840" windowHeight="18560" activeTab="3" xr2:uid="{9D2BC160-0631-EE46-87AB-AABB69ACE5D9}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18560" xr2:uid="{9D2BC160-0631-EE46-87AB-AABB69ACE5D9}"/>
   </bookViews>
   <sheets>
     <sheet name="DEMAND WEIGHTS" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="161">
   <si>
     <t>RevenueStream</t>
   </si>
@@ -542,6 +542,12 @@
   </si>
   <si>
     <t>System 8</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>FINAL LIST</t>
   </si>
 </sst>
 </file>
@@ -663,7 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -702,6 +708,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,16 +1185,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB758DFD-45B9-6B4E-99A1-FC80C2C804E6}">
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:E41"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="112" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.83203125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
@@ -1209,7 +1217,7 @@
     <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.1640625" bestFit="1" customWidth="1"/>
@@ -2138,9 +2146,13 @@
         <f>V23*($B$21/100)</f>
         <v>2.5</v>
       </c>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B24" s="12">
@@ -2180,7 +2192,7 @@
         <f t="shared" ref="O24:O31" si="3">N24*($B$21/100)</f>
         <v>10</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="19" t="s">
         <v>14</v>
       </c>
       <c r="R24" s="12">
@@ -2190,7 +2202,7 @@
         <f t="shared" ref="S24:S31" si="4">R24*($B$21/100)</f>
         <v>2.5</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U24" s="19" t="s">
         <v>12</v>
       </c>
       <c r="V24" s="12">
@@ -2202,7 +2214,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>109</v>
       </c>
       <c r="B25" s="12">
@@ -2212,7 +2224,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="12">
@@ -2249,7 +2261,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>111</v>
       </c>
       <c r="B26" s="12">
@@ -2296,7 +2308,7 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="12">
@@ -2385,7 +2397,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B29" s="12">
@@ -2640,7 +2652,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B37">
@@ -2650,7 +2662,7 @@
         <f t="shared" ref="C37:C51" si="6">B37*($B$34/100)</f>
         <v>1.25</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F37">
@@ -2660,7 +2672,7 @@
         <f t="shared" ref="G37:G51" si="7">F37*($B$34/100)</f>
         <v>2.5</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="19" t="s">
         <v>87</v>
       </c>
       <c r="J37">
@@ -2670,7 +2682,7 @@
         <f t="shared" ref="K37:K51" si="8">J37*($B$34/100)</f>
         <v>0.5</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="19" t="s">
         <v>10</v>
       </c>
       <c r="N37">
@@ -2680,7 +2692,7 @@
         <f t="shared" ref="O37:O51" si="9">N37*($B$34/100)</f>
         <v>2.5</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="19" t="s">
         <v>14</v>
       </c>
       <c r="R37">
@@ -2690,7 +2702,7 @@
         <f t="shared" ref="S37:S51" si="10">R37*($B$34/100)</f>
         <v>1.25</v>
       </c>
-      <c r="U37" t="s">
+      <c r="U37" s="19" t="s">
         <v>12</v>
       </c>
       <c r="V37">
@@ -2712,7 +2724,7 @@
         <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="19" t="s">
         <v>27</v>
       </c>
       <c r="F38">
@@ -2732,7 +2744,7 @@
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="19" t="s">
         <v>75</v>
       </c>
       <c r="N38">
@@ -2752,7 +2764,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B39">
@@ -2810,7 +2822,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="19" t="s">
         <v>89</v>
       </c>
       <c r="J40">
@@ -2848,7 +2860,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="19" t="s">
         <v>76</v>
       </c>
       <c r="J41">
@@ -2880,7 +2892,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="19" t="s">
         <v>90</v>
       </c>
       <c r="J42">
@@ -3072,7 +3084,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="19" t="s">
         <v>96</v>
       </c>
       <c r="J48">
@@ -3168,8 +3180,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I51" t="s">
-        <v>99</v>
+      <c r="I51" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -3278,41 +3290,41 @@
         <v>5</v>
       </c>
       <c r="B56" s="1">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C56" s="1">
-        <f>B56*($B$54/100)</f>
-        <v>2.5</v>
+        <f>B56*($B$72/100)</f>
+        <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
-        <f>F56*($B$54/100)</f>
-        <v>2.5</v>
+        <f>F56*($B$72/100)</f>
+        <v>0</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <f>J56*($B$54/100)</f>
-        <v>2</v>
+        <f>J56*($B$72/100)</f>
+        <v>0</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N56" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O56" s="1">
-        <f>N56*($B$54/100)</f>
-        <v>2</v>
+        <f>N56*($B$72/100)</f>
+        <v>0.5</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>117</v>
@@ -3321,8 +3333,8 @@
         <v>5</v>
       </c>
       <c r="S56" s="1">
-        <f>R56*($B$54/100)</f>
-        <v>0.5</v>
+        <f>R56*($B$72/100)</f>
+        <v>0.25</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>12</v>
@@ -3331,50 +3343,41 @@
         <v>5</v>
       </c>
       <c r="W56" s="1">
-        <f>V56*($B$54/100)</f>
-        <v>0.5</v>
+        <f>V56*($B$72/100)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>24</v>
+      <c r="A57" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" ref="C57:C60" si="12">B57*($B$54/100)</f>
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57">
-        <v>10</v>
+        <f t="shared" ref="C57" si="12">B57*($B$72/100)</f>
+        <v>4</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" ref="G57:G60" si="13">F57*($B$54/100)</f>
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>23</v>
+        <f t="shared" ref="G57" si="13">F57*($B$72/100)</f>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" ref="K57:K60" si="14">J57*($B$54/100)</f>
-        <v>2</v>
+        <f t="shared" ref="K57" si="14">J57*($B$72/100)</f>
+        <v>0</v>
       </c>
       <c r="M57" t="s">
         <v>10</v>
       </c>
       <c r="N57">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" ref="O57:O60" si="15">N57*($B$54/100)</f>
-        <v>2</v>
+        <f t="shared" ref="O57" si="15">N57*($B$72/100)</f>
+        <v>0.5</v>
       </c>
       <c r="Q57" t="s">
         <v>14</v>
@@ -3383,8 +3386,8 @@
         <v>5</v>
       </c>
       <c r="S57" s="1">
-        <f t="shared" ref="S57:S60" si="16">R57*($B$54/100)</f>
-        <v>0.5</v>
+        <f t="shared" ref="S57" si="16">R57*($B$72/100)</f>
+        <v>0.25</v>
       </c>
       <c r="U57" t="s">
         <v>12</v>
@@ -3393,115 +3396,85 @@
         <v>5</v>
       </c>
       <c r="W57" s="1">
-        <f t="shared" ref="W57:W60" si="17">V57*($B$54/100)</f>
-        <v>0.5</v>
+        <f t="shared" ref="W57" si="17">V57*($B$72/100)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
       <c r="C58" s="1">
-        <f t="shared" si="12"/>
-        <v>0.2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58">
-        <v>10</v>
+        <f t="shared" ref="C58:C60" si="18">B58*($B$54/100)</f>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" ref="G58:G60" si="19">F58*($B$54/100)</f>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="K58:K60" si="20">J58*($B$54/100)</f>
         <v>0</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="O58:O60" si="21">N58*($B$54/100)</f>
         <v>0</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="S58:S60" si="22">R58*($B$54/100)</f>
         <v>0</v>
       </c>
       <c r="W58" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="W58:W60" si="23">V58*($B$54/100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
       <c r="C59" s="1">
-        <f t="shared" si="12"/>
-        <v>0.2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59">
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S59" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W59" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
       <c r="C60" s="1">
-        <f t="shared" si="12"/>
-        <v>0.2</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S60" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3592,11 +3565,11 @@
         <v>5</v>
       </c>
       <c r="B65" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C65" s="1">
         <f>B65*($B$63/100)</f>
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>7</v>
@@ -3612,11 +3585,11 @@
         <v>13</v>
       </c>
       <c r="J65" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
         <f>J65*($B$63/100)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>9</v>
@@ -3650,35 +3623,29 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B66">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" ref="C66:C69" si="18">B66*($B$63/100)</f>
-        <v>0.95000000000000007</v>
+        <f t="shared" ref="C66:C69" si="24">B66*($B$63/100)</f>
+        <v>2.25</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" ref="G66:G69" si="19">F66*($B$63/100)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I66" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66">
-        <v>20</v>
+        <f t="shared" ref="G66:G69" si="25">F66*($B$63/100)</f>
+        <v>0.65</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" ref="K66:K69" si="20">J66*($B$63/100)</f>
-        <v>1</v>
+        <f t="shared" ref="K66:K69" si="26">J66*($B$63/100)</f>
+        <v>0</v>
       </c>
       <c r="M66" t="s">
         <v>10</v>
@@ -3687,7 +3654,7 @@
         <v>20</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" ref="O66:O69" si="21">N66*($B$63/100)</f>
+        <f t="shared" ref="O66:O69" si="27">N66*($B$63/100)</f>
         <v>1</v>
       </c>
       <c r="Q66" t="s">
@@ -3697,7 +3664,7 @@
         <v>5</v>
       </c>
       <c r="S66" s="1">
-        <f t="shared" ref="S66:S69" si="22">R66*($B$63/100)</f>
+        <f t="shared" ref="S66:S69" si="28">R66*($B$63/100)</f>
         <v>0.25</v>
       </c>
       <c r="U66" t="s">
@@ -3707,115 +3674,91 @@
         <v>5</v>
       </c>
       <c r="W66" s="1">
-        <f t="shared" ref="W66:W69" si="23">V66*($B$63/100)</f>
+        <f t="shared" ref="W66:W69" si="29">V66*($B$63/100)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
       <c r="C67" s="1">
-        <f t="shared" si="18"/>
-        <v>0.1</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
         <v>27</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="19"/>
-        <v>0.5</v>
+        <f t="shared" si="25"/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68">
-        <v>2</v>
-      </c>
       <c r="C68" s="1">
-        <f t="shared" si="18"/>
-        <v>0.1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>85</v>
-      </c>
-      <c r="F68">
-        <v>5</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="19"/>
-        <v>0.25</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S68" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W68" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
       <c r="C69" s="1">
-        <f t="shared" si="18"/>
-        <v>0.1</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W69" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -3906,41 +3849,41 @@
         <v>5</v>
       </c>
       <c r="B74" s="1">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C74" s="1">
         <f>B74*($B$72/100)</f>
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G74" s="1">
         <f>F74*($B$72/100)</f>
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J74" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
         <f>J74*($B$72/100)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N74" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O74" s="1">
         <f>N74*($B$72/100)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q74" s="1" t="s">
         <v>117</v>
@@ -3964,45 +3907,36 @@
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B75">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" ref="C75:C78" si="24">B75*($B$72/100)</f>
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75">
-        <v>10</v>
+        <f t="shared" ref="C75:C78" si="30">B75*($B$72/100)</f>
+        <v>4</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" ref="G75:G78" si="25">F75*($B$72/100)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I75" t="s">
-        <v>23</v>
+        <f t="shared" ref="G75:G78" si="31">F75*($B$72/100)</f>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" ref="K75:K78" si="26">J75*($B$72/100)</f>
-        <v>1</v>
+        <f t="shared" ref="K75:K78" si="32">J75*($B$72/100)</f>
+        <v>0</v>
       </c>
       <c r="M75" t="s">
         <v>10</v>
       </c>
       <c r="N75">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" ref="O75:O78" si="27">N75*($B$72/100)</f>
-        <v>1</v>
+        <f t="shared" ref="O75:O78" si="33">N75*($B$72/100)</f>
+        <v>0.5</v>
       </c>
       <c r="Q75" t="s">
         <v>14</v>
@@ -4011,7 +3945,7 @@
         <v>5</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" ref="S75:S78" si="28">R75*($B$72/100)</f>
+        <f t="shared" ref="S75:S78" si="34">R75*($B$72/100)</f>
         <v>0.25</v>
       </c>
       <c r="U75" t="s">
@@ -4021,115 +3955,85 @@
         <v>5</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" ref="W75:W78" si="29">V75*($B$72/100)</f>
+        <f t="shared" ref="W75:W78" si="35">V75*($B$72/100)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76">
-        <v>2</v>
-      </c>
       <c r="C76" s="1">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76">
-        <v>10</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="25"/>
-        <v>0.5</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S76" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
       <c r="C77" s="1">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="E77" t="s">
-        <v>85</v>
-      </c>
-      <c r="F77">
-        <v>5</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="25"/>
-        <v>0.25</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S77" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W77" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
       <c r="C78" s="1">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W78" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -4220,21 +4124,21 @@
         <v>5</v>
       </c>
       <c r="B83" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C83" s="1">
         <f>B83*($B$81/100)</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G83" s="1">
         <f>F83*($B$81/100)</f>
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>13</v>
@@ -4278,25 +4182,19 @@
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B84">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" ref="C84:C87" si="30">B84*($B$81/100)</f>
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84">
-        <v>10</v>
+        <f t="shared" ref="C84:C87" si="36">B84*($B$81/100)</f>
+        <v>1.25</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" ref="G84:G87" si="31">F84*($B$81/100)</f>
-        <v>0.5</v>
+        <f t="shared" ref="G84:G87" si="37">F84*($B$81/100)</f>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
         <v>23</v>
@@ -4305,7 +4203,7 @@
         <v>20</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" ref="K84:K87" si="32">J84*($B$81/100)</f>
+        <f t="shared" ref="K84:K87" si="38">J84*($B$81/100)</f>
         <v>1</v>
       </c>
       <c r="M84" t="s">
@@ -4315,7 +4213,7 @@
         <v>20</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" ref="O84:O87" si="33">N84*($B$81/100)</f>
+        <f t="shared" ref="O84:O87" si="39">N84*($B$81/100)</f>
         <v>1</v>
       </c>
       <c r="Q84" t="s">
@@ -4325,7 +4223,7 @@
         <v>5</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" ref="S84:S87" si="34">R84*($B$81/100)</f>
+        <f t="shared" ref="S84:S87" si="40">R84*($B$81/100)</f>
         <v>0.25</v>
       </c>
       <c r="U84" t="s">
@@ -4335,115 +4233,91 @@
         <v>5</v>
       </c>
       <c r="W84" s="1">
-        <f t="shared" ref="W84:W87" si="35">V84*($B$81/100)</f>
+        <f t="shared" ref="W84:W87" si="41">V84*($B$81/100)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>79</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
       <c r="C85" s="1">
-        <f t="shared" si="30"/>
-        <v>0.1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85">
-        <v>10</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="31"/>
-        <v>0.5</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W85" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="30"/>
-        <v>0.1</v>
-      </c>
-      <c r="E86" t="s">
-        <v>85</v>
-      </c>
-      <c r="F86">
-        <v>5</v>
+        <f t="shared" si="36"/>
+        <v>1.25</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="31"/>
-        <v>0.25</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W86" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
       <c r="C87" s="1">
-        <f t="shared" si="30"/>
-        <v>0.1</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W87" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -4471,6 +4345,11 @@
       <c r="U88" s="12"/>
       <c r="V88" s="12"/>
       <c r="W88" s="12"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B22 F22 J22 N22 R22 V22 B35 F35 J35 N35 R35 V35 B64 F64 J64 N64 R64 V64 B73 F73 J73 N73 R73 V73 B82 F82 J82 N82 R82 V82">
@@ -4523,7 +4402,7 @@
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5799,7 +5678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D437AB-C2CB-8D43-BD8D-11D3278E662B}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>

--- a/data/input/tom_demand_setup.xlsx
+++ b/data/input/tom_demand_setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac1445618/Library/CloudStorage/GoogleDrive-ruipedrosaraiva@gmail.com/My Drive/dev-projects/ctt/tom_demand/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C50275D-2C40-F34B-ABE5-2C7FD89A40F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26E36CD-D9A2-3249-9C97-92A6F7624178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15100" yWindow="680" windowWidth="15140" windowHeight="18960" activeTab="2" xr2:uid="{9D2BC160-0631-EE46-87AB-AABB69ACE5D9}"/>
+    <workbookView xWindow="5160" yWindow="680" windowWidth="25080" windowHeight="18960" activeTab="1" xr2:uid="{9D2BC160-0631-EE46-87AB-AABB69ACE5D9}"/>
   </bookViews>
   <sheets>
     <sheet name="DEMAND WEIGHTS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="166">
   <si>
     <t>RevenueStream</t>
   </si>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B21" s="17">
         <f>VLOOKUP(A21,weights_rs!$A:$B,2,FALSE)</f>
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7" t="b">
         <f>(B23+F23+J23+N23+R23+V23)=100</f>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="C23" s="1">
         <f>B23*($B$21/100)</f>
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="G23" s="1">
         <f>F23*($B$21/100)</f>
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>13</v>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="K23" s="1">
         <f>J23*($B$21/100)</f>
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>9</v>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="O23" s="1">
         <f>N23*($B$21/100)</f>
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>117</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="S23" s="1">
         <f>R23*($B$21/100)</f>
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>12</v>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="W23" s="1">
         <f>V23*($B$21/100)</f>
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="X23"/>
       <c r="Y23"/>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ref="C24:C31" si="0">B24*($B$21/100)</f>
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>107</v>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="G24" s="1">
         <f t="shared" ref="G24:G31" si="1">F24*($B$21/100)</f>
-        <v>4</v>
+        <v>2.08</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>110</v>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" ref="K24:K31" si="2">J24*($B$21/100)</f>
-        <v>4</v>
+        <v>2.08</v>
       </c>
       <c r="M24" s="19" t="s">
         <v>113</v>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="O24" s="1">
         <f t="shared" ref="O24:O31" si="3">N24*($B$21/100)</f>
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="Q24" s="19" t="s">
         <v>14</v>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="S24" s="1">
         <f t="shared" ref="S24:S31" si="4">R24*($B$21/100)</f>
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="U24" s="19" t="s">
         <v>12</v>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="W24" s="1">
         <f t="shared" ref="W24:W31" si="5">V24*($B$21/100)</f>
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>8</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2.08</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>112</v>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2.08</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="1">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="G26" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2.08</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>114</v>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="N26" s="12"/>
       <c r="O26" s="1">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="E27" t="s">
         <v>85</v>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>115</v>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="N27" s="12"/>
       <c r="O27" s="1">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="1">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="1">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="1">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="1">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="1">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B34" s="17">
         <f>VLOOKUP(A34,weights_rs!$A:$B,2,FALSE)</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>(B36+F36+J36+N36+R36+V36)=100</f>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="C36" s="1">
         <f>B36*($B$34/100)</f>
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>7</v>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="G36" s="1">
         <f>F36*($B$34/100)</f>
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>13</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="K36" s="1">
         <f>J36*($B$34/100)</f>
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>9</v>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="O36" s="1">
         <f>N36*($B$34/100)</f>
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>117</v>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="S36" s="1">
         <f>R36*($B$34/100)</f>
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>12</v>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="W36" s="1">
         <f>V36*($B$34/100)</f>
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" ref="C37:C51" si="6">B37*($B$34/100)</f>
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>8</v>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="G37" s="1">
         <f t="shared" ref="G37:G51" si="7">F37*($B$34/100)</f>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>87</v>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" ref="K37:K51" si="8">J37*($B$34/100)</f>
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="M37" s="19" t="s">
         <v>10</v>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="O37" s="1">
         <f t="shared" ref="O37:O51" si="9">N37*($B$34/100)</f>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q37" s="19" t="s">
         <v>14</v>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="S37" s="1">
         <f t="shared" ref="S37:S51" si="10">R37*($B$34/100)</f>
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U37" s="19" t="s">
         <v>12</v>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="W37" s="1">
         <f t="shared" ref="W37:W51" si="11">V37*($B$34/100)</f>
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>27</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="G38" s="1">
         <f t="shared" si="7"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I38" t="s">
         <v>23</v>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>75</v>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="O38" s="1">
         <f t="shared" si="9"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S38" s="1">
         <f t="shared" si="10"/>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="6"/>
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E39" t="s">
         <v>85</v>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="G39" s="1">
         <f t="shared" si="7"/>
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I39" t="s">
         <v>88</v>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="K39" s="1">
         <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="O39" s="1">
         <f t="shared" si="9"/>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="6"/>
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="7"/>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="K40" s="1">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="O40" s="1">
         <f t="shared" si="9"/>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="6"/>
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="7"/>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="K41" s="1">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="O41" s="1">
         <f t="shared" si="9"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="K42" s="1">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="O42" s="1">
         <f t="shared" si="9"/>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="K43" s="1">
         <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="9"/>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="K44" s="1">
         <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="O44" s="1">
         <f t="shared" si="9"/>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K45" s="1">
         <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="O45" s="1">
         <f t="shared" si="9"/>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="K46" s="1">
         <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="O46" s="1">
         <f t="shared" si="9"/>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="K47" s="1">
         <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="O47" s="1">
         <f t="shared" si="9"/>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="K48" s="1">
         <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="O48" s="1">
         <f t="shared" si="9"/>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="K49" s="1">
         <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="O49" s="1">
         <f t="shared" si="9"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K50" s="1">
         <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="O50" s="1">
         <f t="shared" si="9"/>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="K51" s="1">
         <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="O51" s="1">
         <f t="shared" si="9"/>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B54" s="17">
         <f>VLOOKUP(A54,weights_rs!$A:$B,2,FALSE)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C54" s="7" t="b">
         <f>(B56+F56+J56+N56+R56+V56)=100</f>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="C56" s="1">
         <f>B56*($B$72/100)</f>
-        <v>4</v>
+        <v>9.6</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>7</v>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="O56" s="1">
         <f>N56*($B$72/100)</f>
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>117</v>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="S56" s="1">
         <f>R56*($B$72/100)</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>12</v>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="W56" s="1">
         <f>V56*($B$72/100)</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" ref="C57" si="12">B57*($B$72/100)</f>
-        <v>4</v>
+        <v>9.6</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" ref="G57" si="13">F57*($B$72/100)</f>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="O57" s="1">
         <f t="shared" ref="O57" si="15">N57*($B$72/100)</f>
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q57" t="s">
         <v>14</v>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="S57" s="1">
         <f t="shared" ref="S57" si="16">R57*($B$72/100)</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="U57" t="s">
         <v>12</v>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="W57" s="1">
         <f t="shared" ref="W57" si="17">V57*($B$72/100)</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B63" s="17">
         <f>VLOOKUP(A63,weights_rs!$A:$B,2,FALSE)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C63" s="7" t="b">
         <f>(B65+F65+J65+N65+R65+V65)=100</f>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="C65" s="1">
         <f>B65*($B$63/100)</f>
-        <v>2.25</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>7</v>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="G65" s="1">
         <f>F65*($B$63/100)</f>
-        <v>1.25</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>13</v>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="O65" s="1">
         <f>N65*($B$63/100)</f>
-        <v>1</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>117</v>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="S65" s="1">
         <f>R65*($B$63/100)</f>
-        <v>0.25</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>12</v>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="W65" s="1">
         <f>V65*($B$63/100)</f>
-        <v>0.25</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" ref="C66:C69" si="24">B66*($B$63/100)</f>
-        <v>2.25</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="G66" s="1">
         <f t="shared" ref="G66:G69" si="25">F66*($B$63/100)</f>
-        <v>0.65</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" ref="K66:K69" si="26">J66*($B$63/100)</f>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="O66" s="1">
         <f t="shared" ref="O66:O69" si="27">N66*($B$63/100)</f>
-        <v>1</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="Q66" t="s">
         <v>14</v>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="S66" s="1">
         <f t="shared" ref="S66:S69" si="28">R66*($B$63/100)</f>
-        <v>0.25</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="U66" t="s">
         <v>12</v>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="W66" s="1">
         <f t="shared" ref="W66:W69" si="29">V66*($B$63/100)</f>
-        <v>0.25</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="G67" s="1">
         <f t="shared" si="25"/>
-        <v>0.60000000000000009</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" si="26"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B72" s="17">
         <f>VLOOKUP(A72,weights_rs!$A:$B,2,FALSE)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C72" s="7" t="b">
         <f>(B74+F74+J74+N74+R74+V74)=100</f>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="C74" s="1">
         <f>B74*($B$72/100)</f>
-        <v>4</v>
+        <v>9.6</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>7</v>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="O74" s="1">
         <f>N74*($B$72/100)</f>
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q74" s="1" t="s">
         <v>117</v>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="S74" s="1">
         <f>R74*($B$72/100)</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>12</v>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="W74" s="1">
         <f>V74*($B$72/100)</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" ref="C75:C78" si="30">B75*($B$72/100)</f>
-        <v>4</v>
+        <v>9.6</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" ref="G75:G78" si="31">F75*($B$72/100)</f>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="O75" s="1">
         <f t="shared" ref="O75:O78" si="33">N75*($B$72/100)</f>
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q75" t="s">
         <v>14</v>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="S75" s="1">
         <f t="shared" ref="S75:S78" si="34">R75*($B$72/100)</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="U75" t="s">
         <v>12</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="W75" s="1">
         <f t="shared" ref="W75:W78" si="35">V75*($B$72/100)</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="B81" s="17">
         <f>VLOOKUP(A81,weights_rs!$A:$B,2,FALSE)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C81" s="7" t="b">
         <f>(B83+F83+J83+N83+R83+V83)=100</f>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="C83" s="1">
         <f>B83*($B$81/100)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>7</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="K83" s="1">
         <f>J83*($B$81/100)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>9</v>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="O83" s="1">
         <f>N83*($B$81/100)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q83" s="1" t="s">
         <v>117</v>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="S83" s="1">
         <f>R83*($B$81/100)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="U83" s="1" t="s">
         <v>12</v>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="W83" s="1">
         <f>V83*($B$81/100)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" ref="C84:C87" si="36">B84*($B$81/100)</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="G84" s="1">
         <f t="shared" ref="G84:G87" si="37">F84*($B$81/100)</f>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="K84" s="1">
         <f t="shared" ref="K84:K87" si="38">J84*($B$81/100)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M84" t="s">
         <v>10</v>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="O84" s="1">
         <f t="shared" ref="O84:O87" si="39">N84*($B$81/100)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q84" t="s">
         <v>14</v>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="S84" s="1">
         <f t="shared" ref="S84:S87" si="40">R84*($B$81/100)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="U84" t="s">
         <v>12</v>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="W84" s="1">
         <f t="shared" ref="W84:W87" si="41">V84*($B$81/100)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" si="36"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" si="37"/>
@@ -4477,12 +4477,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B369EC55-B648-3A4C-A439-D742FEF9A099}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T200" sqref="T200"/>
-      <selection pane="bottomLeft" activeCell="T200" sqref="T200"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4493,7 +4493,7 @@
     <col min="4" max="4" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4510,85 +4510,143 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3">
         <v>50</v>
       </c>
-      <c r="C3" s="16">
+      <c r="D3" s="16">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3">
         <v>25</v>
       </c>
-      <c r="C4" s="16">
+      <c r="D4" s="16">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="16">
+      <c r="D6" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>10</v>
-      </c>
-      <c r="C6" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="16">
+      <c r="D7" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="16">
+      <c r="D8" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C9">
+    <sortCondition descending="1" ref="B3:B9"/>
+  </sortState>
   <conditionalFormatting sqref="B1">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>100</formula>
@@ -4603,7 +4661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D521F980-2E5F-EC49-B62F-4F6A4A27A40F}">
   <dimension ref="B1:Z204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+    <sheetView zoomScale="141" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W204" sqref="A1:W204"/>
     </sheetView>
@@ -4715,11 +4773,11 @@
         <v>4</v>
       </c>
       <c r="E3" s="20">
-        <f>G3*100/F3</f>
+        <f t="shared" ref="E3:E66" si="0">G3*100/F3</f>
         <v>100</v>
       </c>
       <c r="F3" s="20">
-        <f t="shared" ref="F3:F66" si="0">SUMIFS($G$2:$G$1000,$C$2:$C$1000,C3,$D$2:$D$1000,D3)</f>
+        <f t="shared" ref="F3:F66" si="1">SUMIFS($G$2:$G$1000,$C$2:$C$1000,C3,$D$2:$D$1000,D3)</f>
         <v>100</v>
       </c>
       <c r="G3">
@@ -4729,21 +4787,21 @@
         <v>Business Solutions</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J14" si="1">SUMIF($D:$D,I3,$G:$G)</f>
+        <f t="shared" ref="J3:J14" si="2">SUMIF($D:$D,I3,$G:$G)</f>
         <v>610</v>
       </c>
       <c r="L3" t="str">
         <v>CISO</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" ref="M3:M14" si="2">SUMIF($C:$C,L3,$G:$G)</f>
+        <f t="shared" ref="M3:M14" si="3">SUMIF($C:$C,L3,$G:$G)</f>
         <v>240</v>
       </c>
       <c r="O3" t="str">
         <v>CISO</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P44" si="3">SUMIF($B:$B,O3,$G:$G)</f>
+        <f t="shared" ref="P3:P44" si="4">SUMIF($B:$B,O3,$G:$G)</f>
         <v>240</v>
       </c>
       <c r="Q3" t="str">
@@ -4762,18 +4820,18 @@
         <v>81</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C67" si="4">VLOOKUP($B4,$S:$T,2,FALSE)</f>
+        <f t="shared" ref="C4:C67" si="5">VLOOKUP($B4,$S:$T,2,FALSE)</f>
         <v>Commercial</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="20">
-        <f>G4*100/F4</f>
+        <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
       <c r="F4" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="G4">
@@ -4783,25 +4841,25 @@
         <v>eCommerce</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>880</v>
       </c>
       <c r="L4" t="str">
         <v>Commercial</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>730</v>
       </c>
       <c r="O4" t="str">
         <v>CSI</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" ref="Q4:Q44" si="5">VLOOKUP(O4,$S:$T,2,FALSE)</f>
+        <f t="shared" ref="Q4:Q44" si="6">VLOOKUP(O4,$S:$T,2,FALSE)</f>
         <v>Commercial</v>
       </c>
       <c r="S4" t="s">
@@ -4816,18 +4874,18 @@
         <v>82</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="20">
-        <f>G5*100/F5</f>
+        <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
       <c r="F5" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="G5">
@@ -4837,25 +4895,25 @@
         <v>Fulfilment</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>570</v>
       </c>
       <c r="L5" t="str">
         <v>Corporate</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1700</v>
       </c>
       <c r="O5" t="str">
         <v>CTTE</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="S5" t="s">
@@ -4870,18 +4928,18 @@
         <v>79</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="20">
-        <f>G6*100/F6</f>
+        <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
       <c r="F6" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="G6">
@@ -4891,25 +4949,25 @@
         <v>Mail</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>610</v>
       </c>
       <c r="L6" t="str">
         <v>Operations</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>580</v>
       </c>
       <c r="O6" t="str">
         <v>DNI</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="S6" t="s">
@@ -4924,18 +4982,18 @@
         <v>83</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="20">
-        <f>G7*100/F7</f>
+        <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
       <c r="F7" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="G7">
@@ -4945,25 +5003,25 @@
         <v>Payments</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>610</v>
       </c>
       <c r="L7" t="str">
         <v>Technology</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="O7" t="str">
         <v>ECM</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="S7" t="s">
@@ -4978,18 +5036,18 @@
         <v>22</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="20">
-        <f>G8*100/F8</f>
+        <f t="shared" si="0"/>
         <v>29.411764705882351</v>
       </c>
       <c r="F8" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="G8">
@@ -4999,25 +5057,25 @@
         <v>Retail &amp; Financial Services</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O8" t="str">
         <v>GP B2B</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="S8" t="s">
@@ -5032,18 +5090,18 @@
         <v>26</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="20">
-        <f>G9*100/F9</f>
+        <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
       <c r="F9" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="G9">
@@ -5053,22 +5111,22 @@
         <v>0</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" t="str">
         <v>GP B2C</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="S9" t="s">
@@ -5083,40 +5141,40 @@
         <v>24</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="20">
-        <f>G10*100/F10</f>
+        <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
       <c r="F10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" t="str">
         <v>GP ECL</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="S10" t="s">
@@ -5131,40 +5189,40 @@
         <v>25</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="20">
-        <f>G11*100/F11</f>
+        <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
       <c r="F11" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" t="str">
         <v>GPG</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="S11" t="s">
@@ -5179,40 +5237,40 @@
         <v>80</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="20">
-        <f>G12*100/F12</f>
+        <f t="shared" si="0"/>
         <v>29.411764705882351</v>
       </c>
       <c r="F12" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="G12">
         <v>50</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O12" t="str">
         <v>GS</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="S12" t="s">
@@ -5227,40 +5285,40 @@
         <v>87</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="20">
-        <f>G13*100/F13</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F13" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="G13">
         <v>10</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" t="str">
         <v>ACR</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S13" t="s">
@@ -5275,40 +5333,40 @@
         <v>89</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="20">
-        <f>G14*100/F14</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F14" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="G14">
         <v>10</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14" t="str">
         <v>AVC</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S14" t="s">
@@ -5323,18 +5381,18 @@
         <v>23</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="20">
-        <f>G15*100/F15</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F15" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="G15">
@@ -5344,11 +5402,11 @@
         <v>CF</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S15" t="s">
@@ -5363,18 +5421,18 @@
         <v>91</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="20">
-        <f>G16*100/F16</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F16" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="G16">
@@ -5384,11 +5442,11 @@
         <v>CL</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S16" t="s">
@@ -5403,18 +5461,18 @@
         <v>93</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="20">
-        <f>G17*100/F17</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F17" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="G17">
@@ -5424,11 +5482,11 @@
         <v>CMP</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S17" t="s">
@@ -5443,18 +5501,18 @@
         <v>97</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="20">
-        <f>G18*100/F18</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="G18">
@@ -5464,11 +5522,11 @@
         <v>DPO</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S18" t="s">
@@ -5483,18 +5541,18 @@
         <v>99</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="20">
-        <f>G19*100/F19</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F19" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="G19">
@@ -5504,11 +5562,11 @@
         <v>FL</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S19" t="s">
@@ -5523,18 +5581,18 @@
         <v>76</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="20">
-        <f>G20*100/F20</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F20" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="G20">
@@ -5544,11 +5602,11 @@
         <v>GRH</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S20" t="s">
@@ -5563,18 +5621,18 @@
         <v>90</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="20">
-        <f>G21*100/F21</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F21" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="G21">
@@ -5584,11 +5642,11 @@
         <v>GT</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S21" t="s">
@@ -5603,18 +5661,18 @@
         <v>159</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="20">
-        <f>G22*100/F22</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F22" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="G22">
@@ -5624,11 +5682,11 @@
         <v>PC</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S22" t="s">
@@ -5643,18 +5701,18 @@
         <v>88</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="20">
-        <f>G23*100/F23</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F23" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="G23">
@@ -5664,11 +5722,11 @@
         <v>RS</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S23" t="s">
@@ -5683,18 +5741,18 @@
         <v>94</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="20">
-        <f>G24*100/F24</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F24" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="G24">
@@ -5704,11 +5762,11 @@
         <v>ST</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S24" t="s">
@@ -5723,18 +5781,18 @@
         <v>96</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="20">
-        <f>G25*100/F25</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F25" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="G25">
@@ -5744,11 +5802,11 @@
         <v>TF</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>370</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S25" t="s">
@@ -5763,18 +5821,18 @@
         <v>8</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Operations</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="20">
-        <f>G26*100/F26</f>
+        <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
       <c r="F26" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="G26">
@@ -5784,11 +5842,11 @@
         <v>EDO</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>230</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Operations</v>
       </c>
       <c r="S26" t="s">
@@ -5803,18 +5861,18 @@
         <v>85</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Operations</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="20">
-        <f>G27*100/F27</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="F27" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="G27">
@@ -5824,11 +5882,11 @@
         <v>EM</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Operations</v>
       </c>
       <c r="S27" t="s">
@@ -5843,18 +5901,18 @@
         <v>85</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Operations</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="20">
-        <f>G28*100/F28</f>
+        <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
       <c r="F28" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="G28">
@@ -5864,11 +5922,11 @@
         <v>SEO</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Operations</v>
       </c>
       <c r="S28" t="s">
@@ -5883,18 +5941,18 @@
         <v>27</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Operations</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="20">
-        <f>G29*100/F29</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="F29" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="G29">
@@ -5904,11 +5962,11 @@
         <v>BCTT</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Technology</v>
       </c>
       <c r="S29" t="s">
@@ -5923,18 +5981,18 @@
         <v>75</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Technology</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="20">
-        <f>G30*100/F30</f>
+        <f t="shared" si="0"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F30" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G30">
@@ -5944,37 +6002,37 @@
         <v>SI</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="Q30" t="str">
+        <f t="shared" si="6"/>
+        <v>Technology</v>
+      </c>
+      <c r="S30" t="s">
+        <v>114</v>
+      </c>
+      <c r="T30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="str">
         <f t="shared" si="5"/>
         <v>Technology</v>
       </c>
-      <c r="S30" t="s">
-        <v>114</v>
-      </c>
-      <c r="T30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="4"/>
-        <v>Technology</v>
-      </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="20">
-        <f>G31*100/F31</f>
+        <f t="shared" si="0"/>
         <v>55.555555555555557</v>
       </c>
       <c r="F31" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G31">
@@ -5984,11 +6042,11 @@
         <v>SI-CRP</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Technology</v>
       </c>
       <c r="S31" t="s">
@@ -6003,18 +6061,18 @@
         <v>103</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Technology</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="20">
-        <f>G32*100/F32</f>
+        <f t="shared" si="0"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F32" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G32">
@@ -6024,11 +6082,11 @@
         <v>SI-OPS</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Technology</v>
       </c>
       <c r="S32" t="s">
@@ -6043,18 +6101,18 @@
         <v>102</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Technology</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="20">
-        <f>G33*100/F33</f>
+        <f t="shared" si="0"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F33" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G33">
@@ -6064,11 +6122,11 @@
         <v>SI-PRD</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Technology</v>
       </c>
       <c r="S33" t="s">
@@ -6083,18 +6141,18 @@
         <v>101</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Technology</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="20">
-        <f>G34*100/F34</f>
+        <f t="shared" si="0"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F34" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G34">
@@ -6104,11 +6162,11 @@
         <v>CCO</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="S34" t="s">
@@ -6123,20 +6181,20 @@
         <v>12</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CISO</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="20">
-        <f>G35*100/F35</f>
-        <v>100</v>
-      </c>
-      <c r="F35" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
+      <c r="F35" s="20">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="G35">
         <v>100</v>
       </c>
@@ -6144,11 +6202,11 @@
         <v>CMO</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="S35" t="s">
@@ -6163,18 +6221,18 @@
         <v>109</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="20">
-        <f>G36*100/F36</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F36" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G36">
@@ -6184,11 +6242,11 @@
         <v>IDC</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="S36" t="s">
@@ -6203,18 +6261,18 @@
         <v>108</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="20">
-        <f>G37*100/F37</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F37" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G37">
@@ -6224,11 +6282,11 @@
         <v>ATC</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S37" t="s">
@@ -6243,18 +6301,18 @@
         <v>81</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="20">
-        <f>G38*100/F38</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F38" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G38">
@@ -6264,11 +6322,11 @@
         <v>CFO</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S38" t="s">
@@ -6283,18 +6341,18 @@
         <v>82</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="20">
-        <f>G39*100/F39</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F39" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G39">
@@ -6304,11 +6362,11 @@
         <v>CHR</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S39" t="s">
@@ -6323,18 +6381,18 @@
         <v>79</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="20">
-        <f>G40*100/F40</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F40" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G40">
@@ -6344,11 +6402,11 @@
         <v>COM</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S40" t="s">
@@ -6363,18 +6421,18 @@
         <v>83</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="20">
-        <f>G41*100/F41</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F41" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G41">
@@ -6384,11 +6442,11 @@
         <v>PRO</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="S41" t="s">
@@ -6403,18 +6461,18 @@
         <v>22</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="20">
-        <f>G42*100/F42</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F42" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G42">
@@ -6424,11 +6482,11 @@
         <v>COO</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Operations</v>
       </c>
       <c r="S42" t="s">
@@ -6443,18 +6501,18 @@
         <v>26</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="20">
-        <f>G43*100/F43</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F43" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G43">
@@ -6464,11 +6522,11 @@
         <v>CIO</v>
       </c>
       <c r="P43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Technology</v>
       </c>
       <c r="S43" t="s">
@@ -6483,18 +6541,18 @@
         <v>24</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="20">
-        <f>G44*100/F44</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F44" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G44">
@@ -6504,11 +6562,11 @@
         <v>0</v>
       </c>
       <c r="P44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q44" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="S44" t="s">
@@ -6523,18 +6581,18 @@
         <v>25</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="20">
-        <f>G45*100/F45</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F45" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G45">
@@ -6546,18 +6604,18 @@
         <v>80</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="20">
-        <f>G46*100/F46</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F46" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G46">
@@ -6569,18 +6627,18 @@
         <v>111</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Commercial</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="20">
-        <f>G47*100/F47</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F47" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G47">
@@ -6592,18 +6650,18 @@
         <v>87</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="20">
-        <f>G48*100/F48</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F48" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G48">
@@ -6615,18 +6673,18 @@
         <v>110</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="20">
-        <f>G49*100/F49</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F49" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G49">
@@ -6638,18 +6696,18 @@
         <v>89</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="20">
-        <f>G50*100/F50</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F50" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G50">
@@ -6661,18 +6719,18 @@
         <v>23</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="20">
-        <f>G51*100/F51</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F51" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G51">
@@ -6684,18 +6742,18 @@
         <v>112</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="20">
-        <f>G52*100/F52</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F52" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G52">
@@ -6707,18 +6765,18 @@
         <v>115</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="20">
-        <f>G53*100/F53</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F53" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G53">
@@ -6730,18 +6788,18 @@
         <v>91</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="20">
-        <f>G54*100/F54</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F54" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G54">
@@ -6753,18 +6811,18 @@
         <v>93</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="20">
-        <f>G55*100/F55</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F55" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G55">
@@ -6776,18 +6834,18 @@
         <v>116</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="20">
-        <f>G56*100/F56</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F56" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G56">
@@ -6799,18 +6857,18 @@
         <v>97</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="20">
-        <f>G57*100/F57</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F57" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G57">
@@ -6822,18 +6880,18 @@
         <v>99</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="20">
-        <f>G58*100/F58</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="F58" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G58">
@@ -6845,18 +6903,18 @@
         <v>76</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="20">
-        <f>G59*100/F59</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F59" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G59">
@@ -6868,18 +6926,18 @@
         <v>90</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="20">
-        <f>G60*100/F60</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="F60" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G60">
@@ -6891,18 +6949,18 @@
         <v>159</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="20">
-        <f>G61*100/F61</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F61" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G61">
@@ -6914,18 +6972,18 @@
         <v>114</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="20">
-        <f>G62*100/F62</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F62" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G62">
@@ -6937,18 +6995,18 @@
         <v>88</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="20">
-        <f>G63*100/F63</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="F63" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G63">
@@ -6960,18 +7018,18 @@
         <v>94</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="20">
-        <f>G64*100/F64</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F64" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G64">
@@ -6983,18 +7041,18 @@
         <v>96</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Corporate</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="20">
-        <f>G65*100/F65</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F65" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="G65">
@@ -7006,18 +7064,18 @@
         <v>107</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Operations</v>
       </c>
       <c r="D66" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="20">
-        <f>G66*100/F66</f>
+        <f t="shared" si="0"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="F66" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="G66">
@@ -7029,18 +7087,18 @@
         <v>8</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Operations</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="20">
-        <f>G67*100/F67</f>
+        <f t="shared" ref="E67:E130" si="7">G67*100/F67</f>
         <v>71.428571428571431</v>
       </c>
       <c r="F67" s="20">
-        <f t="shared" ref="F67:F130" si="6">SUMIFS($G$2:$G$1000,$C$2:$C$1000,C67,$D$2:$D$1000,D67)</f>
+        <f t="shared" ref="F67:F130" si="8">SUMIFS($G$2:$G$1000,$C$2:$C$1000,C67,$D$2:$D$1000,D67)</f>
         <v>140</v>
       </c>
       <c r="G67">
@@ -7052,18 +7110,18 @@
         <v>85</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" ref="C68:C131" si="7">VLOOKUP($B68,$S:$T,2,FALSE)</f>
+        <f t="shared" ref="C68:C131" si="9">VLOOKUP($B68,$S:$T,2,FALSE)</f>
         <v>Operations</v>
       </c>
       <c r="D68" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="20">
-        <f>G68*100/F68</f>
+        <f t="shared" si="7"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="F68" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="G68">
@@ -7075,18 +7133,18 @@
         <v>85</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Operations</v>
       </c>
       <c r="D69" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="20">
-        <f>G69*100/F69</f>
+        <f t="shared" si="7"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="F69" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="G69">
@@ -7098,18 +7156,18 @@
         <v>27</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Operations</v>
       </c>
       <c r="D70" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="20">
-        <f>G70*100/F70</f>
+        <f t="shared" si="7"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="F70" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="G70">
@@ -7121,18 +7179,18 @@
         <v>75</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Technology</v>
       </c>
       <c r="D71" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="20">
-        <f>G71*100/F71</f>
+        <f t="shared" si="7"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="F71" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="G71">
@@ -7144,18 +7202,18 @@
         <v>113</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Technology</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="20">
-        <f>G72*100/F72</f>
+        <f t="shared" si="7"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="F72" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="G72">
@@ -7167,18 +7225,18 @@
         <v>10</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Technology</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="20">
-        <f>G73*100/F73</f>
+        <f t="shared" si="7"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="F73" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="G73">
@@ -7190,18 +7248,18 @@
         <v>103</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Technology</v>
       </c>
       <c r="D74" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="20">
-        <f>G74*100/F74</f>
+        <f t="shared" si="7"/>
         <v>35.714285714285715</v>
       </c>
       <c r="F74" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="G74">
@@ -7213,18 +7271,18 @@
         <v>102</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Technology</v>
       </c>
       <c r="D75" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="20">
-        <f>G75*100/F75</f>
+        <f t="shared" si="7"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="F75" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="G75">
@@ -7236,18 +7294,18 @@
         <v>101</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Technology</v>
       </c>
       <c r="D76" t="s">
         <v>11</v>
       </c>
       <c r="E76" s="20">
-        <f>G76*100/F76</f>
+        <f t="shared" si="7"/>
         <v>35.714285714285715</v>
       </c>
       <c r="F76" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="G76">
@@ -7259,18 +7317,18 @@
         <v>12</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>CISO</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
       </c>
       <c r="E77" s="20">
-        <f>G77*100/F77</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="F77" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G77">
@@ -7282,18 +7340,18 @@
         <v>81</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
       </c>
       <c r="E78" s="20">
-        <f>G78*100/F78</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F78" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G78">
@@ -7305,18 +7363,18 @@
         <v>82</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79" s="20">
-        <f>G79*100/F79</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F79" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G79">
@@ -7328,18 +7386,18 @@
         <v>79</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80" s="20">
-        <f>G80*100/F80</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F80" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G80">
@@ -7351,18 +7409,18 @@
         <v>83</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81" s="20">
-        <f>G81*100/F81</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F81" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G81">
@@ -7374,18 +7432,18 @@
         <v>22</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
       </c>
       <c r="E82" s="20">
-        <f>G82*100/F82</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F82" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G82">
@@ -7397,18 +7455,18 @@
         <v>26</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="E83" s="20">
-        <f>G83*100/F83</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F83" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G83">
@@ -7420,18 +7478,18 @@
         <v>24</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
       </c>
       <c r="E84" s="20">
-        <f>G84*100/F84</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F84" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G84">
@@ -7443,18 +7501,18 @@
         <v>25</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
       </c>
       <c r="E85" s="20">
-        <f>G85*100/F85</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F85" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G85">
@@ -7466,18 +7524,18 @@
         <v>80</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
       </c>
       <c r="E86" s="20">
-        <f>G86*100/F86</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F86" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G86">
@@ -7489,18 +7547,18 @@
         <v>87</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="20">
-        <f>G87*100/F87</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F87" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G87">
@@ -7512,18 +7570,18 @@
         <v>89</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
       </c>
       <c r="E88" s="20">
-        <f>G88*100/F88</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F88" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G88">
@@ -7535,18 +7593,18 @@
         <v>23</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
       </c>
       <c r="E89" s="20">
-        <f>G89*100/F89</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F89" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G89">
@@ -7558,18 +7616,18 @@
         <v>91</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="20">
-        <f>G90*100/F90</f>
+        <f t="shared" si="7"/>
         <v>16.666666666666668</v>
       </c>
       <c r="F90" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G90">
@@ -7581,18 +7639,18 @@
         <v>93</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="20">
-        <f>G91*100/F91</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F91" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G91">
@@ -7604,18 +7662,18 @@
         <v>97</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
       </c>
       <c r="E92" s="20">
-        <f>G92*100/F92</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F92" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G92">
@@ -7627,18 +7685,18 @@
         <v>99</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D93" t="s">
         <v>15</v>
       </c>
       <c r="E93" s="20">
-        <f>G93*100/F93</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F93" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G93">
@@ -7650,18 +7708,18 @@
         <v>76</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
       <c r="E94" s="20">
-        <f>G94*100/F94</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F94" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G94">
@@ -7673,18 +7731,18 @@
         <v>90</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
       </c>
       <c r="E95" s="20">
-        <f>G95*100/F95</f>
+        <f t="shared" si="7"/>
         <v>16.666666666666668</v>
       </c>
       <c r="F95" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G95">
@@ -7696,18 +7754,18 @@
         <v>159</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
       </c>
       <c r="E96" s="20">
-        <f>G96*100/F96</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F96" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G96">
@@ -7719,18 +7777,18 @@
         <v>88</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
       </c>
       <c r="E97" s="20">
-        <f>G97*100/F97</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F97" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G97">
@@ -7742,18 +7800,18 @@
         <v>94</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
       </c>
       <c r="E98" s="20">
-        <f>G98*100/F98</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F98" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G98">
@@ -7765,18 +7823,18 @@
         <v>96</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
       </c>
       <c r="E99" s="20">
-        <f>G99*100/F99</f>
+        <f t="shared" si="7"/>
         <v>33.333333333333336</v>
       </c>
       <c r="F99" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G99">
@@ -7788,18 +7846,18 @@
         <v>8</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Operations</v>
       </c>
       <c r="D100" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="20">
-        <f>G100*100/F100</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="F100" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="G100">
@@ -7811,18 +7869,18 @@
         <v>85</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Operations</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
       </c>
       <c r="E101" s="20">
-        <f>G101*100/F101</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="F101" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="G101">
@@ -7834,18 +7892,18 @@
         <v>85</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Operations</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="20">
-        <f>G102*100/F102</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="F102" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="G102">
@@ -7857,18 +7915,18 @@
         <v>27</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Operations</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
       </c>
       <c r="E103" s="20">
-        <f>G103*100/F103</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="F103" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="G103">
@@ -7880,18 +7938,18 @@
         <v>75</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Technology</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="20">
-        <f>G104*100/F104</f>
+        <f t="shared" si="7"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F104" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="G104">
@@ -7903,18 +7961,18 @@
         <v>10</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Technology</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="20">
-        <f>G105*100/F105</f>
+        <f t="shared" si="7"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F105" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="G105">
@@ -7926,18 +7984,18 @@
         <v>103</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Technology</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
       </c>
       <c r="E106" s="20">
-        <f>G106*100/F106</f>
+        <f t="shared" si="7"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F106" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="G106">
@@ -7949,18 +8007,18 @@
         <v>102</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Technology</v>
       </c>
       <c r="D107" t="s">
         <v>15</v>
       </c>
       <c r="E107" s="20">
-        <f>G107*100/F107</f>
+        <f t="shared" si="7"/>
         <v>38.46153846153846</v>
       </c>
       <c r="F107" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="G107">
@@ -7972,18 +8030,18 @@
         <v>101</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Technology</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
       </c>
       <c r="E108" s="20">
-        <f>G108*100/F108</f>
+        <f t="shared" si="7"/>
         <v>38.46153846153846</v>
       </c>
       <c r="F108" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="G108">
@@ -7995,18 +8053,18 @@
         <v>12</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>CISO</v>
       </c>
       <c r="D109" t="s">
         <v>16</v>
       </c>
       <c r="E109" s="20">
-        <f>G109*100/F109</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="F109" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G109">
@@ -8018,18 +8076,18 @@
         <v>81</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
       </c>
       <c r="E110" s="20">
-        <f>G110*100/F110</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F110" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G110">
@@ -8041,18 +8099,18 @@
         <v>82</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D111" t="s">
         <v>16</v>
       </c>
       <c r="E111" s="20">
-        <f>G111*100/F111</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F111" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G111">
@@ -8064,18 +8122,18 @@
         <v>79</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D112" t="s">
         <v>16</v>
       </c>
       <c r="E112" s="20">
-        <f>G112*100/F112</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F112" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G112">
@@ -8087,18 +8145,18 @@
         <v>83</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D113" t="s">
         <v>16</v>
       </c>
       <c r="E113" s="20">
-        <f>G113*100/F113</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F113" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G113">
@@ -8110,18 +8168,18 @@
         <v>22</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D114" t="s">
         <v>16</v>
       </c>
       <c r="E114" s="20">
-        <f>G114*100/F114</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F114" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G114">
@@ -8133,18 +8191,18 @@
         <v>26</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D115" t="s">
         <v>16</v>
       </c>
       <c r="E115" s="20">
-        <f>G115*100/F115</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F115" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G115">
@@ -8156,18 +8214,18 @@
         <v>24</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D116" t="s">
         <v>16</v>
       </c>
       <c r="E116" s="20">
-        <f>G116*100/F116</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F116" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G116">
@@ -8179,18 +8237,18 @@
         <v>25</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D117" t="s">
         <v>16</v>
       </c>
       <c r="E117" s="20">
-        <f>G117*100/F117</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F117" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G117">
@@ -8202,18 +8260,18 @@
         <v>80</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Commercial</v>
       </c>
       <c r="D118" t="s">
         <v>16</v>
       </c>
       <c r="E118" s="20">
-        <f>G118*100/F118</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F118" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G118">
@@ -8225,18 +8283,18 @@
         <v>87</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D119" t="s">
         <v>16</v>
       </c>
       <c r="E119" s="20">
-        <f>G119*100/F119</f>
+        <f t="shared" si="7"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F119" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="G119">
@@ -8248,18 +8306,18 @@
         <v>89</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D120" t="s">
         <v>16</v>
       </c>
       <c r="E120" s="20">
-        <f>G120*100/F120</f>
+        <f t="shared" si="7"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F120" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="G120">
@@ -8271,18 +8329,18 @@
         <v>23</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D121" t="s">
         <v>16</v>
       </c>
       <c r="E121" s="20">
-        <f>G121*100/F121</f>
+        <f t="shared" si="7"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F121" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="G121">
@@ -8294,18 +8352,18 @@
         <v>91</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D122" t="s">
         <v>16</v>
       </c>
       <c r="E122" s="20">
-        <f>G122*100/F122</f>
+        <f t="shared" si="7"/>
         <v>14.705882352941176</v>
       </c>
       <c r="F122" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="G122">
@@ -8317,18 +8375,18 @@
         <v>93</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D123" t="s">
         <v>16</v>
       </c>
       <c r="E123" s="20">
-        <f>G123*100/F123</f>
+        <f t="shared" si="7"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F123" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="G123">
@@ -8340,18 +8398,18 @@
         <v>97</v>
       </c>
       <c r="C124" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D124" t="s">
         <v>16</v>
       </c>
       <c r="E124" s="20">
-        <f>G124*100/F124</f>
+        <f t="shared" si="7"/>
         <v>14.705882352941176</v>
       </c>
       <c r="F124" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="G124">
@@ -8363,18 +8421,18 @@
         <v>99</v>
       </c>
       <c r="C125" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D125" t="s">
         <v>16</v>
       </c>
       <c r="E125" s="20">
-        <f>G125*100/F125</f>
+        <f t="shared" si="7"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F125" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="G125">
@@ -8386,18 +8444,18 @@
         <v>76</v>
       </c>
       <c r="C126" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D126" t="s">
         <v>16</v>
       </c>
       <c r="E126" s="20">
-        <f>G126*100/F126</f>
+        <f t="shared" si="7"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F126" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="G126">
@@ -8409,18 +8467,18 @@
         <v>90</v>
       </c>
       <c r="C127" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D127" t="s">
         <v>16</v>
       </c>
       <c r="E127" s="20">
-        <f>G127*100/F127</f>
+        <f t="shared" si="7"/>
         <v>14.705882352941176</v>
       </c>
       <c r="F127" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="G127">
@@ -8432,18 +8490,18 @@
         <v>159</v>
       </c>
       <c r="C128" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D128" t="s">
         <v>16</v>
       </c>
       <c r="E128" s="20">
-        <f>G128*100/F128</f>
+        <f t="shared" si="7"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F128" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="G128">
@@ -8455,18 +8513,18 @@
         <v>88</v>
       </c>
       <c r="C129" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D129" t="s">
         <v>16</v>
       </c>
       <c r="E129" s="20">
-        <f>G129*100/F129</f>
+        <f t="shared" si="7"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F129" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="G129">
@@ -8478,18 +8536,18 @@
         <v>94</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D130" t="s">
         <v>16</v>
       </c>
       <c r="E130" s="20">
-        <f>G130*100/F130</f>
+        <f t="shared" si="7"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F130" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="G130">
@@ -8501,18 +8559,18 @@
         <v>96</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Corporate</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
       </c>
       <c r="E131" s="20">
-        <f>G131*100/F131</f>
+        <f t="shared" ref="E131:E194" si="10">G131*100/F131</f>
         <v>29.411764705882351</v>
       </c>
       <c r="F131" s="20">
-        <f t="shared" ref="F131:F194" si="8">SUMIFS($G$2:$G$1000,$C$2:$C$1000,C131,$D$2:$D$1000,D131)</f>
+        <f t="shared" ref="F131:F194" si="11">SUMIFS($G$2:$G$1000,$C$2:$C$1000,C131,$D$2:$D$1000,D131)</f>
         <v>340</v>
       </c>
       <c r="G131">
@@ -8524,18 +8582,18 @@
         <v>8</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" ref="C132:C195" si="9">VLOOKUP($B132,$S:$T,2,FALSE)</f>
+        <f t="shared" ref="C132:C195" si="12">VLOOKUP($B132,$S:$T,2,FALSE)</f>
         <v>Operations</v>
       </c>
       <c r="D132" t="s">
         <v>16</v>
       </c>
       <c r="E132" s="20">
-        <f>G132*100/F132</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="F132" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G132">
@@ -8547,18 +8605,18 @@
         <v>85</v>
       </c>
       <c r="C133" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Operations</v>
       </c>
       <c r="D133" t="s">
         <v>16</v>
       </c>
       <c r="E133" s="20">
-        <f>G133*100/F133</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="F133" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G133">
@@ -8570,18 +8628,18 @@
         <v>85</v>
       </c>
       <c r="C134" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Operations</v>
       </c>
       <c r="D134" t="s">
         <v>16</v>
       </c>
       <c r="E134" s="20">
-        <f>G134*100/F134</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="F134" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G134">
@@ -8593,18 +8651,18 @@
         <v>27</v>
       </c>
       <c r="C135" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Operations</v>
       </c>
       <c r="D135" t="s">
         <v>16</v>
       </c>
       <c r="E135" s="20">
-        <f>G135*100/F135</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="F135" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G135">
@@ -8616,18 +8674,18 @@
         <v>75</v>
       </c>
       <c r="C136" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="D136" t="s">
         <v>16</v>
       </c>
       <c r="E136" s="20">
-        <f>G136*100/F136</f>
+        <f t="shared" si="10"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F136" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="G136">
@@ -8639,18 +8697,18 @@
         <v>10</v>
       </c>
       <c r="C137" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="D137" t="s">
         <v>16</v>
       </c>
       <c r="E137" s="20">
-        <f>G137*100/F137</f>
+        <f t="shared" si="10"/>
         <v>38.46153846153846</v>
       </c>
       <c r="F137" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="G137">
@@ -8662,18 +8720,18 @@
         <v>103</v>
       </c>
       <c r="C138" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="D138" t="s">
         <v>16</v>
       </c>
       <c r="E138" s="20">
-        <f>G138*100/F138</f>
+        <f t="shared" si="10"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F138" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="G138">
@@ -8685,18 +8743,18 @@
         <v>102</v>
       </c>
       <c r="C139" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="D139" t="s">
         <v>16</v>
       </c>
       <c r="E139" s="20">
-        <f>G139*100/F139</f>
+        <f t="shared" si="10"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F139" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="G139">
@@ -8708,18 +8766,18 @@
         <v>101</v>
       </c>
       <c r="C140" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="D140" t="s">
         <v>16</v>
       </c>
       <c r="E140" s="20">
-        <f>G140*100/F140</f>
+        <f t="shared" si="10"/>
         <v>38.46153846153846</v>
       </c>
       <c r="F140" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="G140">
@@ -8731,18 +8789,18 @@
         <v>12</v>
       </c>
       <c r="C141" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>CISO</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
       </c>
       <c r="E141" s="20">
-        <f>G141*100/F141</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="F141" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="G141">
@@ -8754,18 +8812,18 @@
         <v>81</v>
       </c>
       <c r="C142" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D142" t="s">
         <v>17</v>
       </c>
       <c r="E142" s="20">
-        <f>G142*100/F142</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F142" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G142">
@@ -8777,18 +8835,18 @@
         <v>82</v>
       </c>
       <c r="C143" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D143" t="s">
         <v>17</v>
       </c>
       <c r="E143" s="20">
-        <f>G143*100/F143</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F143" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G143">
@@ -8800,18 +8858,18 @@
         <v>79</v>
       </c>
       <c r="C144" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D144" t="s">
         <v>17</v>
       </c>
       <c r="E144" s="20">
-        <f>G144*100/F144</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F144" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G144">
@@ -8823,18 +8881,18 @@
         <v>83</v>
       </c>
       <c r="C145" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D145" t="s">
         <v>17</v>
       </c>
       <c r="E145" s="20">
-        <f>G145*100/F145</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F145" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G145">
@@ -8846,18 +8904,18 @@
         <v>22</v>
       </c>
       <c r="C146" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D146" t="s">
         <v>17</v>
       </c>
       <c r="E146" s="20">
-        <f>G146*100/F146</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F146" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G146">
@@ -8869,18 +8927,18 @@
         <v>26</v>
       </c>
       <c r="C147" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D147" t="s">
         <v>17</v>
       </c>
       <c r="E147" s="20">
-        <f>G147*100/F147</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F147" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G147">
@@ -8892,18 +8950,18 @@
         <v>24</v>
       </c>
       <c r="C148" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D148" t="s">
         <v>17</v>
       </c>
       <c r="E148" s="20">
-        <f>G148*100/F148</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F148" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G148">
@@ -8915,18 +8973,18 @@
         <v>25</v>
       </c>
       <c r="C149" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D149" t="s">
         <v>17</v>
       </c>
       <c r="E149" s="20">
-        <f>G149*100/F149</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F149" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G149">
@@ -8938,18 +8996,18 @@
         <v>80</v>
       </c>
       <c r="C150" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D150" t="s">
         <v>17</v>
       </c>
       <c r="E150" s="20">
-        <f>G150*100/F150</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F150" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G150">
@@ -8961,18 +9019,18 @@
         <v>87</v>
       </c>
       <c r="C151" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D151" t="s">
         <v>17</v>
       </c>
       <c r="E151" s="20">
-        <f>G151*100/F151</f>
+        <f t="shared" si="10"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F151" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="G151">
@@ -8984,18 +9042,18 @@
         <v>89</v>
       </c>
       <c r="C152" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D152" t="s">
         <v>17</v>
       </c>
       <c r="E152" s="20">
-        <f>G152*100/F152</f>
+        <f t="shared" si="10"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F152" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="G152">
@@ -9007,18 +9065,18 @@
         <v>23</v>
       </c>
       <c r="C153" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D153" t="s">
         <v>17</v>
       </c>
       <c r="E153" s="20">
-        <f>G153*100/F153</f>
+        <f t="shared" si="10"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F153" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="G153">
@@ -9030,18 +9088,18 @@
         <v>91</v>
       </c>
       <c r="C154" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D154" t="s">
         <v>17</v>
       </c>
       <c r="E154" s="20">
-        <f>G154*100/F154</f>
+        <f t="shared" si="10"/>
         <v>14.705882352941176</v>
       </c>
       <c r="F154" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="G154">
@@ -9053,18 +9111,18 @@
         <v>93</v>
       </c>
       <c r="C155" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D155" t="s">
         <v>17</v>
       </c>
       <c r="E155" s="20">
-        <f>G155*100/F155</f>
+        <f t="shared" si="10"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F155" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="G155">
@@ -9076,18 +9134,18 @@
         <v>97</v>
       </c>
       <c r="C156" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D156" t="s">
         <v>17</v>
       </c>
       <c r="E156" s="20">
-        <f>G156*100/F156</f>
+        <f t="shared" si="10"/>
         <v>14.705882352941176</v>
       </c>
       <c r="F156" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="G156">
@@ -9099,18 +9157,18 @@
         <v>99</v>
       </c>
       <c r="C157" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D157" t="s">
         <v>17</v>
       </c>
       <c r="E157" s="20">
-        <f>G157*100/F157</f>
+        <f t="shared" si="10"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F157" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="G157">
@@ -9122,18 +9180,18 @@
         <v>76</v>
       </c>
       <c r="C158" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D158" t="s">
         <v>17</v>
       </c>
       <c r="E158" s="20">
-        <f>G158*100/F158</f>
+        <f t="shared" si="10"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F158" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="G158">
@@ -9145,18 +9203,18 @@
         <v>90</v>
       </c>
       <c r="C159" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D159" t="s">
         <v>17</v>
       </c>
       <c r="E159" s="20">
-        <f>G159*100/F159</f>
+        <f t="shared" si="10"/>
         <v>14.705882352941176</v>
       </c>
       <c r="F159" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="G159">
@@ -9168,18 +9226,18 @@
         <v>159</v>
       </c>
       <c r="C160" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D160" t="s">
         <v>17</v>
       </c>
       <c r="E160" s="20">
-        <f>G160*100/F160</f>
+        <f t="shared" si="10"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F160" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="G160">
@@ -9191,18 +9249,18 @@
         <v>88</v>
       </c>
       <c r="C161" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D161" t="s">
         <v>17</v>
       </c>
       <c r="E161" s="20">
-        <f>G161*100/F161</f>
+        <f t="shared" si="10"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F161" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="G161">
@@ -9214,18 +9272,18 @@
         <v>94</v>
       </c>
       <c r="C162" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D162" t="s">
         <v>17</v>
       </c>
       <c r="E162" s="20">
-        <f>G162*100/F162</f>
+        <f t="shared" si="10"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F162" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="G162">
@@ -9237,18 +9295,18 @@
         <v>96</v>
       </c>
       <c r="C163" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D163" t="s">
         <v>17</v>
       </c>
       <c r="E163" s="20">
-        <f>G163*100/F163</f>
+        <f t="shared" si="10"/>
         <v>29.411764705882351</v>
       </c>
       <c r="F163" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="G163">
@@ -9260,18 +9318,18 @@
         <v>8</v>
       </c>
       <c r="C164" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Operations</v>
       </c>
       <c r="D164" t="s">
         <v>17</v>
       </c>
       <c r="E164" s="20">
-        <f>G164*100/F164</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="F164" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G164">
@@ -9283,18 +9341,18 @@
         <v>85</v>
       </c>
       <c r="C165" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Operations</v>
       </c>
       <c r="D165" t="s">
         <v>17</v>
       </c>
       <c r="E165" s="20">
-        <f>G165*100/F165</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="F165" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G165">
@@ -9306,18 +9364,18 @@
         <v>85</v>
       </c>
       <c r="C166" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Operations</v>
       </c>
       <c r="D166" t="s">
         <v>17</v>
       </c>
       <c r="E166" s="20">
-        <f>G166*100/F166</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="F166" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G166">
@@ -9329,18 +9387,18 @@
         <v>27</v>
       </c>
       <c r="C167" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Operations</v>
       </c>
       <c r="D167" t="s">
         <v>17</v>
       </c>
       <c r="E167" s="20">
-        <f>G167*100/F167</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="F167" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G167">
@@ -9352,18 +9410,18 @@
         <v>75</v>
       </c>
       <c r="C168" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="D168" t="s">
         <v>17</v>
       </c>
       <c r="E168" s="20">
-        <f>G168*100/F168</f>
+        <f t="shared" si="10"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F168" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="G168">
@@ -9375,18 +9433,18 @@
         <v>10</v>
       </c>
       <c r="C169" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="D169" t="s">
         <v>17</v>
       </c>
       <c r="E169" s="20">
-        <f>G169*100/F169</f>
+        <f t="shared" si="10"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F169" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="G169">
@@ -9398,18 +9456,18 @@
         <v>103</v>
       </c>
       <c r="C170" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="D170" t="s">
         <v>17</v>
       </c>
       <c r="E170" s="20">
-        <f>G170*100/F170</f>
+        <f t="shared" si="10"/>
         <v>38.46153846153846</v>
       </c>
       <c r="F170" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="G170">
@@ -9421,18 +9479,18 @@
         <v>102</v>
       </c>
       <c r="C171" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="D171" t="s">
         <v>17</v>
       </c>
       <c r="E171" s="20">
-        <f>G171*100/F171</f>
+        <f t="shared" si="10"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F171" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="G171">
@@ -9444,18 +9502,18 @@
         <v>101</v>
       </c>
       <c r="C172" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="D172" t="s">
         <v>17</v>
       </c>
       <c r="E172" s="20">
-        <f>G172*100/F172</f>
+        <f t="shared" si="10"/>
         <v>38.46153846153846</v>
       </c>
       <c r="F172" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="G172">
@@ -9467,18 +9525,18 @@
         <v>12</v>
       </c>
       <c r="C173" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>CISO</v>
       </c>
       <c r="D173" t="s">
         <v>18</v>
       </c>
       <c r="E173" s="20">
-        <f>G173*100/F173</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="F173" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="G173">
@@ -9490,18 +9548,18 @@
         <v>81</v>
       </c>
       <c r="C174" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D174" t="s">
         <v>18</v>
       </c>
       <c r="E174" s="20">
-        <f>G174*100/F174</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F174" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G174">
@@ -9513,18 +9571,18 @@
         <v>82</v>
       </c>
       <c r="C175" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D175" t="s">
         <v>18</v>
       </c>
       <c r="E175" s="20">
-        <f>G175*100/F175</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F175" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G175">
@@ -9536,18 +9594,18 @@
         <v>79</v>
       </c>
       <c r="C176" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D176" t="s">
         <v>18</v>
       </c>
       <c r="E176" s="20">
-        <f>G176*100/F176</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F176" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G176">
@@ -9559,18 +9617,18 @@
         <v>83</v>
       </c>
       <c r="C177" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D177" t="s">
         <v>18</v>
       </c>
       <c r="E177" s="20">
-        <f>G177*100/F177</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F177" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G177">
@@ -9582,18 +9640,18 @@
         <v>22</v>
       </c>
       <c r="C178" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D178" t="s">
         <v>18</v>
       </c>
       <c r="E178" s="20">
-        <f>G178*100/F178</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F178" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G178">
@@ -9605,18 +9663,18 @@
         <v>26</v>
       </c>
       <c r="C179" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D179" t="s">
         <v>18</v>
       </c>
       <c r="E179" s="20">
-        <f>G179*100/F179</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F179" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G179">
@@ -9628,18 +9686,18 @@
         <v>24</v>
       </c>
       <c r="C180" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D180" t="s">
         <v>18</v>
       </c>
       <c r="E180" s="20">
-        <f>G180*100/F180</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F180" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G180">
@@ -9651,18 +9709,18 @@
         <v>25</v>
       </c>
       <c r="C181" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D181" t="s">
         <v>18</v>
       </c>
       <c r="E181" s="20">
-        <f>G181*100/F181</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F181" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G181">
@@ -9674,18 +9732,18 @@
         <v>80</v>
       </c>
       <c r="C182" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="D182" t="s">
         <v>18</v>
       </c>
       <c r="E182" s="20">
-        <f>G182*100/F182</f>
+        <f t="shared" si="10"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F182" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="G182">
@@ -9697,18 +9755,18 @@
         <v>87</v>
       </c>
       <c r="C183" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D183" t="s">
         <v>18</v>
       </c>
       <c r="E183" s="20">
-        <f>G183*100/F183</f>
+        <f t="shared" si="10"/>
         <v>3.4482758620689653</v>
       </c>
       <c r="F183" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="G183">
@@ -9720,18 +9778,18 @@
         <v>89</v>
       </c>
       <c r="C184" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D184" t="s">
         <v>18</v>
       </c>
       <c r="E184" s="20">
-        <f>G184*100/F184</f>
+        <f t="shared" si="10"/>
         <v>3.4482758620689653</v>
       </c>
       <c r="F184" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="G184">
@@ -9743,18 +9801,18 @@
         <v>23</v>
       </c>
       <c r="C185" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D185" t="s">
         <v>18</v>
       </c>
       <c r="E185" s="20">
-        <f>G185*100/F185</f>
+        <f t="shared" si="10"/>
         <v>3.4482758620689653</v>
       </c>
       <c r="F185" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="G185">
@@ -9766,18 +9824,18 @@
         <v>91</v>
       </c>
       <c r="C186" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D186" t="s">
         <v>18</v>
       </c>
       <c r="E186" s="20">
-        <f>G186*100/F186</f>
+        <f t="shared" si="10"/>
         <v>17.241379310344829</v>
       </c>
       <c r="F186" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="G186">
@@ -9789,18 +9847,18 @@
         <v>93</v>
       </c>
       <c r="C187" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D187" t="s">
         <v>18</v>
       </c>
       <c r="E187" s="20">
-        <f>G187*100/F187</f>
+        <f t="shared" si="10"/>
         <v>3.4482758620689653</v>
       </c>
       <c r="F187" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="G187">
@@ -9812,18 +9870,18 @@
         <v>97</v>
       </c>
       <c r="C188" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D188" t="s">
         <v>18</v>
       </c>
       <c r="E188" s="20">
-        <f>G188*100/F188</f>
+        <f t="shared" si="10"/>
         <v>17.241379310344829</v>
       </c>
       <c r="F188" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="G188">
@@ -9835,18 +9893,18 @@
         <v>99</v>
       </c>
       <c r="C189" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D189" t="s">
         <v>18</v>
       </c>
       <c r="E189" s="20">
-        <f>G189*100/F189</f>
+        <f t="shared" si="10"/>
         <v>3.4482758620689653</v>
       </c>
       <c r="F189" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="G189">
@@ -9858,18 +9916,18 @@
         <v>76</v>
       </c>
       <c r="C190" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D190" t="s">
         <v>18</v>
       </c>
       <c r="E190" s="20">
-        <f>G190*100/F190</f>
+        <f t="shared" si="10"/>
         <v>3.4482758620689653</v>
       </c>
       <c r="F190" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="G190">
@@ -9881,18 +9939,18 @@
         <v>90</v>
       </c>
       <c r="C191" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D191" t="s">
         <v>18</v>
       </c>
       <c r="E191" s="20">
-        <f>G191*100/F191</f>
+        <f t="shared" si="10"/>
         <v>17.241379310344829</v>
       </c>
       <c r="F191" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="G191">
@@ -9904,18 +9962,18 @@
         <v>159</v>
       </c>
       <c r="C192" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D192" t="s">
         <v>18</v>
       </c>
       <c r="E192" s="20">
-        <f>G192*100/F192</f>
+        <f t="shared" si="10"/>
         <v>3.4482758620689653</v>
       </c>
       <c r="F192" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="G192">
@@ -9927,18 +9985,18 @@
         <v>88</v>
       </c>
       <c r="C193" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D193" t="s">
         <v>18</v>
       </c>
       <c r="E193" s="20">
-        <f>G193*100/F193</f>
+        <f t="shared" si="10"/>
         <v>3.4482758620689653</v>
       </c>
       <c r="F193" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="G193">
@@ -9950,18 +10008,18 @@
         <v>94</v>
       </c>
       <c r="C194" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D194" t="s">
         <v>18</v>
       </c>
       <c r="E194" s="20">
-        <f>G194*100/F194</f>
+        <f t="shared" si="10"/>
         <v>3.4482758620689653</v>
       </c>
       <c r="F194" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="G194">
@@ -9973,18 +10031,18 @@
         <v>96</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="D195" t="s">
         <v>18</v>
       </c>
       <c r="E195" s="20">
-        <f>G195*100/F195</f>
+        <f t="shared" ref="E195:E258" si="13">G195*100/F195</f>
         <v>17.241379310344829</v>
       </c>
       <c r="F195" s="20">
-        <f t="shared" ref="F195:F204" si="10">SUMIFS($G$2:$G$1000,$C$2:$C$1000,C195,$D$2:$D$1000,D195)</f>
+        <f t="shared" ref="F195:F204" si="14">SUMIFS($G$2:$G$1000,$C$2:$C$1000,C195,$D$2:$D$1000,D195)</f>
         <v>290</v>
       </c>
       <c r="G195">
@@ -9996,18 +10054,18 @@
         <v>8</v>
       </c>
       <c r="C196" t="str">
-        <f t="shared" ref="C196:C204" si="11">VLOOKUP($B196,$S:$T,2,FALSE)</f>
+        <f t="shared" ref="C196:C204" si="15">VLOOKUP($B196,$S:$T,2,FALSE)</f>
         <v>Operations</v>
       </c>
       <c r="D196" t="s">
         <v>18</v>
       </c>
       <c r="E196" s="20">
-        <f>G196*100/F196</f>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="F196" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="G196">
@@ -10019,18 +10077,18 @@
         <v>85</v>
       </c>
       <c r="C197" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Operations</v>
       </c>
       <c r="D197" t="s">
         <v>18</v>
       </c>
       <c r="E197" s="20">
-        <f>G197*100/F197</f>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="F197" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="G197">
@@ -10042,18 +10100,18 @@
         <v>85</v>
       </c>
       <c r="C198" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Operations</v>
       </c>
       <c r="D198" t="s">
         <v>18</v>
       </c>
       <c r="E198" s="20">
-        <f>G198*100/F198</f>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="F198" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="G198">
@@ -10065,18 +10123,18 @@
         <v>27</v>
       </c>
       <c r="C199" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Operations</v>
       </c>
       <c r="D199" t="s">
         <v>18</v>
       </c>
       <c r="E199" s="20">
-        <f>G199*100/F199</f>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="F199" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="G199">
@@ -10088,18 +10146,18 @@
         <v>75</v>
       </c>
       <c r="C200" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Technology</v>
       </c>
       <c r="D200" t="s">
         <v>18</v>
       </c>
       <c r="E200" s="20">
-        <f>G200*100/F200</f>
+        <f t="shared" si="13"/>
         <v>38.46153846153846</v>
       </c>
       <c r="F200" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>130</v>
       </c>
       <c r="G200">
@@ -10111,18 +10169,18 @@
         <v>10</v>
       </c>
       <c r="C201" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Technology</v>
       </c>
       <c r="D201" t="s">
         <v>18</v>
       </c>
       <c r="E201" s="20">
-        <f>G201*100/F201</f>
+        <f t="shared" si="13"/>
         <v>38.46153846153846</v>
       </c>
       <c r="F201" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>130</v>
       </c>
       <c r="G201">
@@ -10134,18 +10192,18 @@
         <v>103</v>
       </c>
       <c r="C202" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Technology</v>
       </c>
       <c r="D202" t="s">
         <v>18</v>
       </c>
       <c r="E202" s="20">
-        <f>G202*100/F202</f>
+        <f t="shared" si="13"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F202" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>130</v>
       </c>
       <c r="G202">
@@ -10157,18 +10215,18 @@
         <v>102</v>
       </c>
       <c r="C203" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Technology</v>
       </c>
       <c r="D203" t="s">
         <v>18</v>
       </c>
       <c r="E203" s="20">
-        <f>G203*100/F203</f>
+        <f t="shared" si="13"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F203" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>130</v>
       </c>
       <c r="G203">
@@ -10180,18 +10238,18 @@
         <v>101</v>
       </c>
       <c r="C204" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Technology</v>
       </c>
       <c r="D204" t="s">
         <v>18</v>
       </c>
       <c r="E204" s="20">
-        <f>G204*100/F204</f>
+        <f t="shared" si="13"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="F204" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>130</v>
       </c>
       <c r="G204">

--- a/data/input/tom_demand_setup.xlsx
+++ b/data/input/tom_demand_setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac1445618/Library/CloudStorage/GoogleDrive-ruipedrosaraiva@gmail.com/My Drive/dev-projects/ctt/tom_demand/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15AC7F4-A50A-8F47-B599-462131AB4721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BC0705-62EC-1546-AC3E-C6DB13DF3B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" activeTab="1" xr2:uid="{9D2BC160-0631-EE46-87AB-AABB69ACE5D9}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" xr2:uid="{9D2BC160-0631-EE46-87AB-AABB69ACE5D9}"/>
   </bookViews>
   <sheets>
     <sheet name="DEMAND WEIGHTS" sheetId="4" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="181">
   <si>
     <t>RevenueStream</t>
   </si>
@@ -544,9 +544,6 @@
   </si>
   <si>
     <t>PC</t>
-  </si>
-  <si>
-    <t>FINAL LIST</t>
   </si>
   <si>
     <t>EXPORT CSV</t>
@@ -823,7 +820,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -850,37 +847,15 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent 2" xfId="1" xr:uid="{B4B05582-F7D3-F142-B20F-B4C84A0F58E6}"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -923,21 +898,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1351,39 +1326,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB758DFD-45B9-6B4E-99A1-FC80C2C804E6}">
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="132" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.83203125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.83203125" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.83203125" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.83203125" customWidth="1"/>
     <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.83203125" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.1640625" bestFit="1" customWidth="1"/>
@@ -2198,9 +2172,9 @@
       <c r="A21" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="17" t="e">
-        <f>VLOOKUP(A21,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
+      <c r="B21" s="17">
+        <f>VLOOKUP(A21,weights!$N:$O,2,FALSE)</f>
+        <v>26</v>
       </c>
       <c r="C21" s="7" t="b">
         <f>(B23+F23+J23+N23+R23+V23)=100</f>
@@ -2258,9 +2232,9 @@
       <c r="B23" s="13">
         <v>25</v>
       </c>
-      <c r="C23" s="1" t="e">
+      <c r="C23" s="1">
         <f>B23*($B$21/100)</f>
-        <v>#REF!</v>
+        <v>6.5</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
@@ -2268,9 +2242,9 @@
       <c r="F23" s="13">
         <v>25</v>
       </c>
-      <c r="G23" s="1" t="e">
+      <c r="G23" s="1">
         <f>F23*($B$21/100)</f>
-        <v>#REF!</v>
+        <v>6.5</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>13</v>
@@ -2278,9 +2252,9 @@
       <c r="J23" s="13">
         <v>20</v>
       </c>
-      <c r="K23" s="1" t="e">
+      <c r="K23" s="1">
         <f>J23*($B$21/100)</f>
-        <v>#REF!</v>
+        <v>5.2</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>9</v>
@@ -2288,9 +2262,9 @@
       <c r="N23" s="13">
         <v>20</v>
       </c>
-      <c r="O23" s="1" t="e">
+      <c r="O23" s="1">
         <f>N23*($B$21/100)</f>
-        <v>#REF!</v>
+        <v>5.2</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>117</v>
@@ -2298,9 +2272,9 @@
       <c r="R23" s="13">
         <v>5</v>
       </c>
-      <c r="S23" s="1" t="e">
+      <c r="S23" s="1">
         <f>R23*($B$21/100)</f>
-        <v>#REF!</v>
+        <v>1.3</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>12</v>
@@ -2308,9 +2282,9 @@
       <c r="V23" s="13">
         <v>5</v>
       </c>
-      <c r="W23" s="1" t="e">
+      <c r="W23" s="1">
         <f>V23*($B$21/100)</f>
-        <v>#REF!</v>
+        <v>1.3</v>
       </c>
       <c r="X23">
         <v>25</v>
@@ -2326,9 +2300,9 @@
       <c r="B24" s="12">
         <v>4</v>
       </c>
-      <c r="C24" s="1" t="e">
+      <c r="C24" s="1">
         <f t="shared" ref="C24:C31" si="0">B24*($B$21/100)</f>
-        <v>#REF!</v>
+        <v>1.04</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>107</v>
@@ -2336,9 +2310,9 @@
       <c r="F24" s="12">
         <v>8</v>
       </c>
-      <c r="G24" s="1" t="e">
+      <c r="G24" s="1">
         <f t="shared" ref="G24:G31" si="1">F24*($B$21/100)</f>
-        <v>#REF!</v>
+        <v>2.08</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>110</v>
@@ -2346,9 +2320,9 @@
       <c r="J24" s="12">
         <v>8</v>
       </c>
-      <c r="K24" s="1" t="e">
+      <c r="K24" s="1">
         <f t="shared" ref="K24:K31" si="2">J24*($B$21/100)</f>
-        <v>#REF!</v>
+        <v>2.08</v>
       </c>
       <c r="M24" s="19" t="s">
         <v>113</v>
@@ -2356,9 +2330,9 @@
       <c r="N24" s="12">
         <v>20</v>
       </c>
-      <c r="O24" s="1" t="e">
+      <c r="O24" s="1">
         <f t="shared" ref="O24:O31" si="3">N24*($B$21/100)</f>
-        <v>#REF!</v>
+        <v>5.2</v>
       </c>
       <c r="Q24" s="19" t="s">
         <v>14</v>
@@ -2366,9 +2340,9 @@
       <c r="R24" s="12">
         <v>5</v>
       </c>
-      <c r="S24" s="1" t="e">
+      <c r="S24" s="1">
         <f t="shared" ref="S24:S31" si="4">R24*($B$21/100)</f>
-        <v>#REF!</v>
+        <v>1.3</v>
       </c>
       <c r="U24" s="19" t="s">
         <v>12</v>
@@ -2376,9 +2350,9 @@
       <c r="V24" s="12">
         <v>5</v>
       </c>
-      <c r="W24" s="1" t="e">
+      <c r="W24" s="1">
         <f t="shared" ref="W24:W31" si="5">V24*($B$21/100)</f>
-        <v>#REF!</v>
+        <v>1.3</v>
       </c>
       <c r="X24">
         <v>25</v>
@@ -2391,9 +2365,9 @@
       <c r="B25" s="12">
         <v>4</v>
       </c>
-      <c r="C25" s="1" t="e">
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>1.04</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>8</v>
@@ -2401,9 +2375,9 @@
       <c r="F25" s="12">
         <v>8</v>
       </c>
-      <c r="G25" s="1" t="e">
+      <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>2.08</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>112</v>
@@ -2411,24 +2385,24 @@
       <c r="J25" s="12">
         <v>8</v>
       </c>
-      <c r="K25" s="1" t="e">
+      <c r="K25" s="1">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>2.08</v>
       </c>
       <c r="N25" s="12"/>
-      <c r="O25" s="1" t="e">
+      <c r="O25" s="1">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R25" s="12"/>
-      <c r="S25" s="1" t="e">
+      <c r="S25" s="1">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V25" s="12"/>
-      <c r="W25" s="1" t="e">
+      <c r="W25" s="1">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>20</v>
@@ -2441,9 +2415,9 @@
       <c r="B26" s="12">
         <v>4</v>
       </c>
-      <c r="C26" s="1" t="e">
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>1.04</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
@@ -2451,9 +2425,9 @@
       <c r="F26" s="12">
         <v>8</v>
       </c>
-      <c r="G26" s="1" t="e">
+      <c r="G26" s="1">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>2.08</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>114</v>
@@ -2461,24 +2435,24 @@
       <c r="J26" s="12">
         <v>2</v>
       </c>
-      <c r="K26" s="1" t="e">
+      <c r="K26" s="1">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>0.52</v>
       </c>
       <c r="N26" s="12"/>
-      <c r="O26" s="1" t="e">
+      <c r="O26" s="1">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R26" s="12"/>
-      <c r="S26" s="1" t="e">
+      <c r="S26" s="1">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V26" s="12"/>
-      <c r="W26" s="1" t="e">
+      <c r="W26" s="1">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <v>20</v>
@@ -2491,9 +2465,9 @@
       <c r="B27" s="12">
         <v>5</v>
       </c>
-      <c r="C27" s="1" t="e">
+      <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>1.3</v>
       </c>
       <c r="E27" t="s">
         <v>85</v>
@@ -2501,9 +2475,9 @@
       <c r="F27" s="12">
         <v>1</v>
       </c>
-      <c r="G27" s="1" t="e">
+      <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0.26</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>115</v>
@@ -2511,24 +2485,24 @@
       <c r="J27" s="12">
         <v>1</v>
       </c>
-      <c r="K27" s="1" t="e">
+      <c r="K27" s="1">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>0.26</v>
       </c>
       <c r="N27" s="12"/>
-      <c r="O27" s="1" t="e">
+      <c r="O27" s="1">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R27" s="12"/>
-      <c r="S27" s="1" t="e">
+      <c r="S27" s="1">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V27" s="12"/>
-      <c r="W27" s="1" t="e">
+      <c r="W27" s="1">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>5</v>
@@ -2541,14 +2515,14 @@
       <c r="B28" s="12">
         <v>2</v>
       </c>
-      <c r="C28" s="1" t="e">
+      <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0.52</v>
       </c>
       <c r="F28" s="12"/>
-      <c r="G28" s="1" t="e">
+      <c r="G28" s="1">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>116</v>
@@ -2556,24 +2530,24 @@
       <c r="J28" s="12">
         <v>1</v>
       </c>
-      <c r="K28" s="1" t="e">
+      <c r="K28" s="1">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>0.26</v>
       </c>
       <c r="N28" s="12"/>
-      <c r="O28" s="1" t="e">
+      <c r="O28" s="1">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R28" s="12"/>
-      <c r="S28" s="1" t="e">
+      <c r="S28" s="1">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V28" s="12"/>
-      <c r="W28" s="1" t="e">
+      <c r="W28" s="1">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="X28">
         <v>5</v>
@@ -2586,34 +2560,34 @@
       <c r="B29" s="12">
         <v>2</v>
       </c>
-      <c r="C29" s="1" t="e">
+      <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0.52</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="G29" s="1" t="e">
+      <c r="G29" s="1">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="J29" s="12"/>
-      <c r="K29" s="1" t="e">
+      <c r="K29" s="1">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="N29" s="12"/>
-      <c r="O29" s="1" t="e">
+      <c r="O29" s="1">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R29" s="12"/>
-      <c r="S29" s="1" t="e">
+      <c r="S29" s="1">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V29" s="12"/>
-      <c r="W29" s="1" t="e">
+      <c r="W29" s="1">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
@@ -2623,34 +2597,34 @@
       <c r="B30" s="12">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="e">
+      <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0.52</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="1" t="e">
+      <c r="G30" s="1">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="J30" s="12"/>
-      <c r="K30" s="1" t="e">
+      <c r="K30" s="1">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="N30" s="12"/>
-      <c r="O30" s="1" t="e">
+      <c r="O30" s="1">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R30" s="12"/>
-      <c r="S30" s="1" t="e">
+      <c r="S30" s="1">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V30" s="12"/>
-      <c r="W30" s="1" t="e">
+      <c r="W30" s="1">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
@@ -2660,34 +2634,34 @@
       <c r="B31" s="12">
         <v>2</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0.52</v>
       </c>
       <c r="F31" s="12"/>
-      <c r="G31" s="1" t="e">
+      <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="J31" s="12"/>
-      <c r="K31" s="1" t="e">
+      <c r="K31" s="1">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="N31" s="12"/>
-      <c r="O31" s="1" t="e">
+      <c r="O31" s="1">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R31" s="12"/>
-      <c r="S31" s="1" t="e">
+      <c r="S31" s="1">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V31" s="12"/>
-      <c r="W31" s="1" t="e">
+      <c r="W31" s="1">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
@@ -2719,9 +2693,9 @@
       <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="17" t="e">
-        <f>VLOOKUP(A34,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
+      <c r="B34" s="17">
+        <f>VLOOKUP(A34,weights!$N:$O,2,FALSE)</f>
+        <v>22</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>(B36+F36+J36+N36+R36+V36)=100</f>
@@ -2779,9 +2753,9 @@
       <c r="B36" s="1">
         <v>25</v>
       </c>
-      <c r="C36" s="1" t="e">
+      <c r="C36" s="1">
         <f>B36*($B$34/100)</f>
-        <v>#REF!</v>
+        <v>5.5</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>7</v>
@@ -2789,9 +2763,9 @@
       <c r="F36" s="1">
         <v>25</v>
       </c>
-      <c r="G36" s="1" t="e">
+      <c r="G36" s="1">
         <f>F36*($B$34/100)</f>
-        <v>#REF!</v>
+        <v>5.5</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>13</v>
@@ -2799,9 +2773,9 @@
       <c r="J36" s="1">
         <v>20</v>
       </c>
-      <c r="K36" s="1" t="e">
+      <c r="K36" s="1">
         <f>J36*($B$34/100)</f>
-        <v>#REF!</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>9</v>
@@ -2809,9 +2783,9 @@
       <c r="N36" s="1">
         <v>20</v>
       </c>
-      <c r="O36" s="1" t="e">
+      <c r="O36" s="1">
         <f>N36*($B$34/100)</f>
-        <v>#REF!</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>117</v>
@@ -2819,9 +2793,9 @@
       <c r="R36" s="1">
         <v>5</v>
       </c>
-      <c r="S36" s="1" t="e">
+      <c r="S36" s="1">
         <f>R36*($B$34/100)</f>
-        <v>#REF!</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>12</v>
@@ -2829,9 +2803,9 @@
       <c r="V36" s="1">
         <v>5</v>
       </c>
-      <c r="W36" s="1" t="e">
+      <c r="W36" s="1">
         <f>V36*($B$34/100)</f>
-        <v>#REF!</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X36" s="1">
         <v>25</v>
@@ -2844,9 +2818,9 @@
       <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37" s="1" t="e">
+      <c r="C37" s="1">
         <f t="shared" ref="C37:C51" si="6">B37*($B$34/100)</f>
-        <v>#REF!</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>8</v>
@@ -2854,9 +2828,9 @@
       <c r="F37">
         <v>10</v>
       </c>
-      <c r="G37" s="1" t="e">
+      <c r="G37" s="1">
         <f t="shared" ref="G37:G51" si="7">F37*($B$34/100)</f>
-        <v>#REF!</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>87</v>
@@ -2864,9 +2838,9 @@
       <c r="J37">
         <v>2</v>
       </c>
-      <c r="K37" s="1" t="e">
+      <c r="K37" s="1">
         <f t="shared" ref="K37:K51" si="8">J37*($B$34/100)</f>
-        <v>#REF!</v>
+        <v>0.44</v>
       </c>
       <c r="M37" s="19" t="s">
         <v>10</v>
@@ -2874,9 +2848,9 @@
       <c r="N37">
         <v>10</v>
       </c>
-      <c r="O37" s="1" t="e">
+      <c r="O37" s="1">
         <f t="shared" ref="O37:O51" si="9">N37*($B$34/100)</f>
-        <v>#REF!</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q37" s="19" t="s">
         <v>14</v>
@@ -2884,9 +2858,9 @@
       <c r="R37">
         <v>5</v>
       </c>
-      <c r="S37" s="1" t="e">
+      <c r="S37" s="1">
         <f t="shared" ref="S37:S51" si="10">R37*($B$34/100)</f>
-        <v>#REF!</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U37" s="19" t="s">
         <v>12</v>
@@ -2894,9 +2868,9 @@
       <c r="V37">
         <v>5</v>
       </c>
-      <c r="W37" s="1" t="e">
+      <c r="W37" s="1">
         <f t="shared" ref="W37:W51" si="11">V37*($B$34/100)</f>
-        <v>#REF!</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X37">
         <v>25</v>
@@ -2909,9 +2883,9 @@
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38" s="1" t="e">
+      <c r="C38" s="1">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>27</v>
@@ -2919,9 +2893,9 @@
       <c r="F38">
         <v>10</v>
       </c>
-      <c r="G38" s="1" t="e">
+      <c r="G38" s="1">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I38" t="s">
         <v>23</v>
@@ -2929,9 +2903,9 @@
       <c r="J38">
         <v>2</v>
       </c>
-      <c r="K38" s="1" t="e">
+      <c r="K38" s="1">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
+        <v>0.44</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>75</v>
@@ -2939,17 +2913,17 @@
       <c r="N38">
         <v>10</v>
       </c>
-      <c r="O38" s="1" t="e">
+      <c r="O38" s="1">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S38" s="1" t="e">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S38" s="1">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W38" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
@@ -2959,9 +2933,9 @@
       <c r="B39">
         <v>5</v>
       </c>
-      <c r="C39" s="1" t="e">
+      <c r="C39" s="1">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E39" t="s">
         <v>85</v>
@@ -2969,9 +2943,9 @@
       <c r="F39">
         <v>5</v>
       </c>
-      <c r="G39" s="1" t="e">
+      <c r="G39" s="1">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I39" t="s">
         <v>88</v>
@@ -2979,21 +2953,21 @@
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="K39" s="1" t="e">
+      <c r="K39" s="1">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O39" s="1" t="e">
+        <v>0.22</v>
+      </c>
+      <c r="O39" s="1">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S39" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W39" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
@@ -3003,13 +2977,13 @@
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40" s="1" t="e">
+      <c r="C40" s="1">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G40" s="1" t="e">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G40" s="1">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>89</v>
@@ -3017,21 +2991,21 @@
       <c r="J40">
         <v>2</v>
       </c>
-      <c r="K40" s="1" t="e">
+      <c r="K40" s="1">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O40" s="1" t="e">
+        <v>0.44</v>
+      </c>
+      <c r="O40" s="1">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S40" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W40" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
@@ -3041,13 +3015,13 @@
       <c r="B41">
         <v>5</v>
       </c>
-      <c r="C41" s="1" t="e">
+      <c r="C41" s="1">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G41" s="1" t="e">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G41" s="1">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>76</v>
@@ -3055,31 +3029,31 @@
       <c r="J41">
         <v>2</v>
       </c>
-      <c r="K41" s="1" t="e">
+      <c r="K41" s="1">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O41" s="1" t="e">
+        <v>0.44</v>
+      </c>
+      <c r="O41" s="1">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S41" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W41" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="e">
+      <c r="C42" s="1">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G42" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I42" s="19" t="s">
         <v>90</v>
@@ -3087,31 +3061,31 @@
       <c r="J42">
         <v>2</v>
       </c>
-      <c r="K42" s="1" t="e">
+      <c r="K42" s="1">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O42" s="1" t="e">
+        <v>0.44</v>
+      </c>
+      <c r="O42" s="1">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S42" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W42" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="e">
+      <c r="C43" s="1">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G43" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
         <v>91</v>
@@ -3119,31 +3093,31 @@
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="K43" s="1" t="e">
+      <c r="K43" s="1">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O43" s="1" t="e">
+        <v>0.22</v>
+      </c>
+      <c r="O43" s="1">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S43" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W43" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C44" s="1" t="e">
+      <c r="C44" s="1">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G44" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I44" t="s">
         <v>92</v>
@@ -3151,31 +3125,31 @@
       <c r="J44">
         <v>1</v>
       </c>
-      <c r="K44" s="1" t="e">
+      <c r="K44" s="1">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O44" s="1" t="e">
+        <v>0.22</v>
+      </c>
+      <c r="O44" s="1">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S44" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W44" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C45" s="1" t="e">
+      <c r="C45" s="1">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G45" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
         <v>93</v>
@@ -3183,31 +3157,31 @@
       <c r="J45">
         <v>1</v>
       </c>
-      <c r="K45" s="1" t="e">
+      <c r="K45" s="1">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O45" s="1" t="e">
+        <v>0.22</v>
+      </c>
+      <c r="O45" s="1">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S45" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W45" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C46" s="1" t="e">
+      <c r="C46" s="1">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G46" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
         <v>94</v>
@@ -3215,31 +3189,31 @@
       <c r="J46">
         <v>1</v>
       </c>
-      <c r="K46" s="1" t="e">
+      <c r="K46" s="1">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O46" s="1" t="e">
+        <v>0.22</v>
+      </c>
+      <c r="O46" s="1">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S46" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W46" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C47" s="1" t="e">
+      <c r="C47" s="1">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G47" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I47" t="s">
         <v>95</v>
@@ -3247,31 +3221,31 @@
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47" s="1" t="e">
+      <c r="K47" s="1">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O47" s="1" t="e">
+        <v>0.22</v>
+      </c>
+      <c r="O47" s="1">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S47" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W47" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C48" s="1" t="e">
+      <c r="C48" s="1">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G48" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I48" s="19" t="s">
         <v>96</v>
@@ -3279,31 +3253,31 @@
       <c r="J48">
         <v>1</v>
       </c>
-      <c r="K48" s="1" t="e">
+      <c r="K48" s="1">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O48" s="1" t="e">
+        <v>0.22</v>
+      </c>
+      <c r="O48" s="1">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S48" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W48" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C49" s="1" t="e">
+      <c r="C49" s="1">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G49" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I49" t="s">
         <v>97</v>
@@ -3311,31 +3285,31 @@
       <c r="J49">
         <v>1</v>
       </c>
-      <c r="K49" s="1" t="e">
+      <c r="K49" s="1">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O49" s="1" t="e">
+        <v>0.22</v>
+      </c>
+      <c r="O49" s="1">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S49" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W49" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C50" s="1" t="e">
+      <c r="C50" s="1">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G50" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I50" t="s">
         <v>98</v>
@@ -3343,31 +3317,31 @@
       <c r="J50">
         <v>1</v>
       </c>
-      <c r="K50" s="1" t="e">
+      <c r="K50" s="1">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O50" s="1" t="e">
+        <v>0.22</v>
+      </c>
+      <c r="O50" s="1">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S50" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W50" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C51" s="1" t="e">
+      <c r="C51" s="1">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G51" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>159</v>
@@ -3375,21 +3349,21 @@
       <c r="J51">
         <v>1</v>
       </c>
-      <c r="K51" s="1" t="e">
+      <c r="K51" s="1">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O51" s="1" t="e">
+        <v>0.22</v>
+      </c>
+      <c r="O51" s="1">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S51" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W51" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
@@ -3421,9 +3395,9 @@
       <c r="A54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="17" t="e">
-        <f>VLOOKUP(A54,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
+      <c r="B54" s="17">
+        <f>VLOOKUP(A54,weights!$N:$O,2,FALSE)</f>
+        <v>16</v>
       </c>
       <c r="C54" s="7" t="b">
         <f>(B56+F56+J56+N56+R56+V56)=100</f>
@@ -3481,9 +3455,9 @@
       <c r="B56" s="1">
         <v>80</v>
       </c>
-      <c r="C56" s="1" t="e">
+      <c r="C56" s="1">
         <f>B56*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>9.6</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>7</v>
@@ -3491,9 +3465,9 @@
       <c r="F56" s="1">
         <v>0</v>
       </c>
-      <c r="G56" s="1" t="e">
+      <c r="G56" s="1">
         <f>F56*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>13</v>
@@ -3501,9 +3475,9 @@
       <c r="J56" s="1">
         <v>0</v>
       </c>
-      <c r="K56" s="1" t="e">
+      <c r="K56" s="1">
         <f>J56*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>9</v>
@@ -3511,9 +3485,9 @@
       <c r="N56" s="1">
         <v>10</v>
       </c>
-      <c r="O56" s="1" t="e">
+      <c r="O56" s="1">
         <f>N56*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>1.2</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>117</v>
@@ -3521,9 +3495,9 @@
       <c r="R56" s="1">
         <v>5</v>
       </c>
-      <c r="S56" s="1" t="e">
+      <c r="S56" s="1">
         <f>R56*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0.6</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>12</v>
@@ -3531,9 +3505,9 @@
       <c r="V56" s="1">
         <v>5</v>
       </c>
-      <c r="W56" s="1" t="e">
+      <c r="W56" s="1">
         <f>V56*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
@@ -3543,20 +3517,20 @@
       <c r="B57">
         <v>80</v>
       </c>
-      <c r="C57" s="1" t="e">
+      <c r="C57" s="1">
         <f t="shared" ref="C57" si="12">B57*($B$72/100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G57" s="1" t="e">
+        <v>9.6</v>
+      </c>
+      <c r="G57" s="1">
         <f t="shared" ref="G57" si="13">F57*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
-      <c r="K57" s="1" t="e">
+      <c r="K57" s="1">
         <f t="shared" ref="K57" si="14">J57*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M57" t="s">
         <v>10</v>
@@ -3564,9 +3538,9 @@
       <c r="N57">
         <v>10</v>
       </c>
-      <c r="O57" s="1" t="e">
+      <c r="O57" s="1">
         <f t="shared" ref="O57" si="15">N57*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>1.2</v>
       </c>
       <c r="Q57" t="s">
         <v>14</v>
@@ -3574,9 +3548,9 @@
       <c r="R57">
         <v>5</v>
       </c>
-      <c r="S57" s="1" t="e">
+      <c r="S57" s="1">
         <f t="shared" ref="S57" si="16">R57*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0.6</v>
       </c>
       <c r="U57" t="s">
         <v>12</v>
@@ -3584,87 +3558,87 @@
       <c r="V57">
         <v>5</v>
       </c>
-      <c r="W57" s="1" t="e">
+      <c r="W57" s="1">
         <f t="shared" ref="W57" si="17">V57*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C58" s="1" t="e">
+      <c r="C58" s="1">
         <f t="shared" ref="C58:C60" si="18">B58*($B$54/100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G58" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
         <f t="shared" ref="G58:G60" si="19">F58*($B$54/100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K58" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
         <f t="shared" ref="K58:K60" si="20">J58*($B$54/100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O58" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
         <f t="shared" ref="O58:O60" si="21">N58*($B$54/100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S58" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S58" s="1">
         <f t="shared" ref="S58:S60" si="22">R58*($B$54/100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W58" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1">
         <f t="shared" ref="W58:W60" si="23">V58*($B$54/100)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C59" s="1" t="e">
+      <c r="C59" s="1">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G59" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K59" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
         <f t="shared" si="20"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O59" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S59" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S59" s="1">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W59" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1">
         <f t="shared" si="23"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C60" s="1" t="e">
+      <c r="C60" s="1">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G60" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K60" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
         <f t="shared" si="20"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O60" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S60" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S60" s="1">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W60" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1">
         <f t="shared" si="23"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
@@ -3696,9 +3670,9 @@
       <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="17" t="e">
-        <f>VLOOKUP(A63,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
+      <c r="B63" s="17">
+        <f>VLOOKUP(A63,weights!$N:$O,2,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="C63" s="7" t="b">
         <f>(B65+F65+J65+N65+R65+V65)=100</f>
@@ -3756,9 +3730,9 @@
       <c r="B65" s="1">
         <v>45</v>
       </c>
-      <c r="C65" s="1" t="e">
+      <c r="C65" s="1">
         <f>B65*($B$63/100)</f>
-        <v>#REF!</v>
+        <v>4.5</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>7</v>
@@ -3766,9 +3740,9 @@
       <c r="F65" s="1">
         <v>25</v>
       </c>
-      <c r="G65" s="1" t="e">
+      <c r="G65" s="1">
         <f>F65*($B$63/100)</f>
-        <v>#REF!</v>
+        <v>2.5</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>13</v>
@@ -3776,9 +3750,9 @@
       <c r="J65" s="1">
         <v>0</v>
       </c>
-      <c r="K65" s="1" t="e">
+      <c r="K65" s="1">
         <f>J65*($B$63/100)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>9</v>
@@ -3786,9 +3760,9 @@
       <c r="N65" s="1">
         <v>20</v>
       </c>
-      <c r="O65" s="1" t="e">
+      <c r="O65" s="1">
         <f>N65*($B$63/100)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>117</v>
@@ -3796,9 +3770,9 @@
       <c r="R65" s="1">
         <v>5</v>
       </c>
-      <c r="S65" s="1" t="e">
+      <c r="S65" s="1">
         <f>R65*($B$63/100)</f>
-        <v>#REF!</v>
+        <v>0.5</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>12</v>
@@ -3806,9 +3780,9 @@
       <c r="V65" s="1">
         <v>5</v>
       </c>
-      <c r="W65" s="1" t="e">
+      <c r="W65" s="1">
         <f>V65*($B$63/100)</f>
-        <v>#REF!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
@@ -3818,9 +3792,9 @@
       <c r="B66">
         <v>45</v>
       </c>
-      <c r="C66" s="1" t="e">
+      <c r="C66" s="1">
         <f t="shared" ref="C66:C69" si="24">B66*($B$63/100)</f>
-        <v>#REF!</v>
+        <v>4.5</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -3828,13 +3802,13 @@
       <c r="F66">
         <v>13</v>
       </c>
-      <c r="G66" s="1" t="e">
+      <c r="G66" s="1">
         <f t="shared" ref="G66:G69" si="25">F66*($B$63/100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K66" s="1" t="e">
+        <v>1.3</v>
+      </c>
+      <c r="K66" s="1">
         <f t="shared" ref="K66:K69" si="26">J66*($B$63/100)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M66" t="s">
         <v>10</v>
@@ -3842,9 +3816,9 @@
       <c r="N66">
         <v>20</v>
       </c>
-      <c r="O66" s="1" t="e">
+      <c r="O66" s="1">
         <f t="shared" ref="O66:O69" si="27">N66*($B$63/100)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="Q66" t="s">
         <v>14</v>
@@ -3852,9 +3826,9 @@
       <c r="R66">
         <v>5</v>
       </c>
-      <c r="S66" s="1" t="e">
+      <c r="S66" s="1">
         <f t="shared" ref="S66:S69" si="28">R66*($B$63/100)</f>
-        <v>#REF!</v>
+        <v>0.5</v>
       </c>
       <c r="U66" t="s">
         <v>12</v>
@@ -3862,15 +3836,15 @@
       <c r="V66">
         <v>5</v>
       </c>
-      <c r="W66" s="1" t="e">
+      <c r="W66" s="1">
         <f t="shared" ref="W66:W69" si="29">V66*($B$63/100)</f>
-        <v>#REF!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C67" s="1" t="e">
+      <c r="C67" s="1">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
         <v>27</v>
@@ -3878,77 +3852,77 @@
       <c r="F67">
         <v>12</v>
       </c>
-      <c r="G67" s="1" t="e">
+      <c r="G67" s="1">
         <f t="shared" si="25"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K67" s="1" t="e">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="K67" s="1">
         <f t="shared" si="26"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O67" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
         <f t="shared" si="27"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S67" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S67" s="1">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W67" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C68" s="1" t="e">
+      <c r="C68" s="1">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G68" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
         <f t="shared" si="25"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K68" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
         <f t="shared" si="26"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O68" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1">
         <f t="shared" si="27"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S68" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S68" s="1">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W68" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C69" s="1" t="e">
+      <c r="C69" s="1">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G69" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
         <f t="shared" si="25"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K69" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
         <f t="shared" si="26"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O69" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
         <f t="shared" si="27"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S69" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S69" s="1">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W69" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
@@ -3980,9 +3954,9 @@
       <c r="A72" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B72" s="17" t="e">
-        <f>VLOOKUP(A72,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
+      <c r="B72" s="17">
+        <f>VLOOKUP(A72,weights!$N:$O,2,FALSE)</f>
+        <v>12</v>
       </c>
       <c r="C72" s="7" t="b">
         <f>(B74+F74+J74+N74+R74+V74)=100</f>
@@ -4040,9 +4014,9 @@
       <c r="B74" s="1">
         <v>80</v>
       </c>
-      <c r="C74" s="1" t="e">
+      <c r="C74" s="1">
         <f>B74*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>9.6</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>7</v>
@@ -4050,9 +4024,9 @@
       <c r="F74" s="1">
         <v>0</v>
       </c>
-      <c r="G74" s="1" t="e">
+      <c r="G74" s="1">
         <f>F74*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>13</v>
@@ -4060,9 +4034,9 @@
       <c r="J74" s="1">
         <v>0</v>
       </c>
-      <c r="K74" s="1" t="e">
+      <c r="K74" s="1">
         <f>J74*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>9</v>
@@ -4070,9 +4044,9 @@
       <c r="N74" s="1">
         <v>10</v>
       </c>
-      <c r="O74" s="1" t="e">
+      <c r="O74" s="1">
         <f>N74*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>1.2</v>
       </c>
       <c r="Q74" s="1" t="s">
         <v>117</v>
@@ -4080,9 +4054,9 @@
       <c r="R74" s="1">
         <v>5</v>
       </c>
-      <c r="S74" s="1" t="e">
+      <c r="S74" s="1">
         <f>R74*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0.6</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>12</v>
@@ -4090,9 +4064,9 @@
       <c r="V74" s="1">
         <v>5</v>
       </c>
-      <c r="W74" s="1" t="e">
+      <c r="W74" s="1">
         <f>V74*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
@@ -4102,20 +4076,20 @@
       <c r="B75">
         <v>80</v>
       </c>
-      <c r="C75" s="1" t="e">
+      <c r="C75" s="1">
         <f t="shared" ref="C75:C78" si="30">B75*($B$72/100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G75" s="1" t="e">
+        <v>9.6</v>
+      </c>
+      <c r="G75" s="1">
         <f t="shared" ref="G75:G78" si="31">F75*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
-      <c r="K75" s="1" t="e">
+      <c r="K75" s="1">
         <f t="shared" ref="K75:K78" si="32">J75*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M75" t="s">
         <v>10</v>
@@ -4123,9 +4097,9 @@
       <c r="N75">
         <v>10</v>
       </c>
-      <c r="O75" s="1" t="e">
+      <c r="O75" s="1">
         <f t="shared" ref="O75:O78" si="33">N75*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>1.2</v>
       </c>
       <c r="Q75" t="s">
         <v>14</v>
@@ -4133,9 +4107,9 @@
       <c r="R75">
         <v>5</v>
       </c>
-      <c r="S75" s="1" t="e">
+      <c r="S75" s="1">
         <f t="shared" ref="S75:S78" si="34">R75*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0.6</v>
       </c>
       <c r="U75" t="s">
         <v>12</v>
@@ -4143,87 +4117,87 @@
       <c r="V75">
         <v>5</v>
       </c>
-      <c r="W75" s="1" t="e">
+      <c r="W75" s="1">
         <f t="shared" ref="W75:W78" si="35">V75*($B$72/100)</f>
-        <v>#REF!</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C76" s="1" t="e">
+      <c r="C76" s="1">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G76" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K76" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
         <f t="shared" si="32"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O76" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
         <f t="shared" si="33"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S76" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
         <f t="shared" si="34"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W76" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W76" s="1">
         <f t="shared" si="35"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C77" s="1" t="e">
+      <c r="C77" s="1">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G77" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K77" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
         <f t="shared" si="32"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O77" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
         <f t="shared" si="33"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S77" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S77" s="1">
         <f t="shared" si="34"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W77" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W77" s="1">
         <f t="shared" si="35"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C78" s="1" t="e">
+      <c r="C78" s="1">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G78" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K78" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
         <f t="shared" si="32"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O78" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
         <f t="shared" si="33"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S78" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S78" s="1">
         <f t="shared" si="34"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W78" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W78" s="1">
         <f t="shared" si="35"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
@@ -4255,9 +4229,9 @@
       <c r="A81" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B81" s="17" t="e">
-        <f>VLOOKUP(A81,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
+      <c r="B81" s="17">
+        <f>VLOOKUP(A81,weights!$N:$O,2,FALSE)</f>
+        <v>14</v>
       </c>
       <c r="C81" s="7" t="b">
         <f>(B83+F83+J83+N83+R83+V83)=100</f>
@@ -4315,9 +4289,9 @@
       <c r="B83" s="1">
         <v>50</v>
       </c>
-      <c r="C83" s="1" t="e">
+      <c r="C83" s="1">
         <f>B83*($B$81/100)</f>
-        <v>#REF!</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>7</v>
@@ -4325,9 +4299,9 @@
       <c r="F83" s="1">
         <v>0</v>
       </c>
-      <c r="G83" s="1" t="e">
+      <c r="G83" s="1">
         <f>F83*($B$81/100)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>13</v>
@@ -4335,9 +4309,9 @@
       <c r="J83" s="1">
         <v>20</v>
       </c>
-      <c r="K83" s="1" t="e">
+      <c r="K83" s="1">
         <f>J83*($B$81/100)</f>
-        <v>#REF!</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>9</v>
@@ -4345,9 +4319,9 @@
       <c r="N83" s="1">
         <v>20</v>
       </c>
-      <c r="O83" s="1" t="e">
+      <c r="O83" s="1">
         <f>N83*($B$81/100)</f>
-        <v>#REF!</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="Q83" s="1" t="s">
         <v>117</v>
@@ -4355,9 +4329,9 @@
       <c r="R83" s="1">
         <v>5</v>
       </c>
-      <c r="S83" s="1" t="e">
+      <c r="S83" s="1">
         <f>R83*($B$81/100)</f>
-        <v>#REF!</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="U83" s="1" t="s">
         <v>12</v>
@@ -4365,9 +4339,9 @@
       <c r="V83" s="1">
         <v>5</v>
       </c>
-      <c r="W83" s="1" t="e">
+      <c r="W83" s="1">
         <f>V83*($B$81/100)</f>
-        <v>#REF!</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
@@ -4377,13 +4351,13 @@
       <c r="B84">
         <v>25</v>
       </c>
-      <c r="C84" s="1" t="e">
+      <c r="C84" s="1">
         <f t="shared" ref="C84:C87" si="36">B84*($B$81/100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G84" s="1" t="e">
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="G84" s="1">
         <f t="shared" ref="G84:G87" si="37">F84*($B$81/100)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
         <v>23</v>
@@ -4391,9 +4365,9 @@
       <c r="J84">
         <v>20</v>
       </c>
-      <c r="K84" s="1" t="e">
+      <c r="K84" s="1">
         <f t="shared" ref="K84:K87" si="38">J84*($B$81/100)</f>
-        <v>#REF!</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="M84" t="s">
         <v>10</v>
@@ -4401,9 +4375,9 @@
       <c r="N84">
         <v>20</v>
       </c>
-      <c r="O84" s="1" t="e">
+      <c r="O84" s="1">
         <f t="shared" ref="O84:O87" si="39">N84*($B$81/100)</f>
-        <v>#REF!</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="Q84" t="s">
         <v>14</v>
@@ -4411,9 +4385,9 @@
       <c r="R84">
         <v>5</v>
       </c>
-      <c r="S84" s="1" t="e">
+      <c r="S84" s="1">
         <f t="shared" ref="S84:S87" si="40">R84*($B$81/100)</f>
-        <v>#REF!</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="U84" t="s">
         <v>12</v>
@@ -4421,35 +4395,35 @@
       <c r="V84">
         <v>5</v>
       </c>
-      <c r="W84" s="1" t="e">
+      <c r="W84" s="1">
         <f t="shared" ref="W84:W87" si="41">V84*($B$81/100)</f>
-        <v>#REF!</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C85" s="1" t="e">
+      <c r="C85" s="1">
         <f t="shared" si="36"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G85" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
         <f t="shared" si="37"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K85" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
         <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O85" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
         <f t="shared" si="39"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S85" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S85" s="1">
         <f t="shared" si="40"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W85" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W85" s="1">
         <f t="shared" si="41"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
@@ -4459,55 +4433,55 @@
       <c r="B86">
         <v>25</v>
       </c>
-      <c r="C86" s="1" t="e">
+      <c r="C86" s="1">
         <f t="shared" si="36"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G86" s="1" t="e">
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="G86" s="1">
         <f t="shared" si="37"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K86" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
         <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O86" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
         <f t="shared" si="39"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S86" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S86" s="1">
         <f t="shared" si="40"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W86" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W86" s="1">
         <f t="shared" si="41"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C87" s="1" t="e">
+      <c r="C87" s="1">
         <f t="shared" si="36"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G87" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
         <f t="shared" si="37"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K87" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
         <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O87" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
         <f t="shared" si="39"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S87" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="S87" s="1">
         <f t="shared" si="40"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W87" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="W87" s="1">
         <f t="shared" si="41"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
@@ -4535,49 +4509,44 @@
       <c r="V88" s="12"/>
       <c r="W88" s="12"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>160</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="B22 F22 J22 N22 R22 V22 B35 F35 J35 N35 R35 V35 B64 F64 J64 N64 R64 V64 B73 F73 J73 N73 R73 V73 B82 F82 J82 N82 R82 V82">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55 F55 J55 N55 R55 V55">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4589,9 +4558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D521F980-2E5F-EC49-B62F-4F6A4A27A40F}">
   <dimension ref="A1:AD204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD1" sqref="A1:AD1048576"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4629,32 +4598,32 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="I1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S1" s="8"/>
       <c r="V1" s="8"/>
       <c r="Y1" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z1" s="23"/>
       <c r="AB1" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC1" s="23"/>
       <c r="AD1" s="23"/>
@@ -4674,10 +4643,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>0</v>
@@ -4718,7 +4687,7 @@
         <v>21</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="7" t="s">
@@ -4729,13 +4698,13 @@
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC2" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -4746,30 +4715,30 @@
         <v>4</v>
       </c>
       <c r="D3" s="20" t="str">
-        <f>VLOOKUP($B3,$Y:$Z,2,FALSE)</f>
+        <f t="shared" ref="D3:D34" si="0">VLOOKUP($B3,$Y:$Z,2,FALSE)</f>
         <v>CISO</v>
       </c>
       <c r="E3" s="20">
-        <f>G3*SUMIFS($K:$K,$I:$I,C3,$J:$J,D3)/F3</f>
+        <f t="shared" ref="E3:E66" si="1">G3*SUMIFS($K:$K,$I:$I,C3,$J:$J,D3)/F3</f>
         <v>5</v>
       </c>
       <c r="F3" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D3,$C$2:$C$1000,C3)</f>
+        <f t="shared" ref="F3:F66" si="2">SUMIFS($G$2:$G$1000,$D$2:$D$1000,D3,$C$2:$C$1000,C3)</f>
         <v>20</v>
       </c>
       <c r="G3" s="10">
         <v>20</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3">
         <v>5</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="19">
         <f>SUMIF($I:$I,I3,$K:$K)</f>
         <v>100</v>
       </c>
@@ -4779,7 +4748,7 @@
       <c r="O3">
         <v>26</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="19">
         <f>SUM(O3:O18)</f>
         <v>100</v>
       </c>
@@ -4787,14 +4756,14 @@
         <v>CISO</v>
       </c>
       <c r="S3" s="4">
-        <f>SUMIF($D:$D,R3,$E:$E)</f>
+        <f t="shared" ref="S3:S14" si="3">SUMIF($D:$D,R3,$E:$E)</f>
         <v>30</v>
       </c>
       <c r="U3" s="20" t="str">
         <v>CISO</v>
       </c>
       <c r="V3" s="4">
-        <f>SUMIF($B:$B,U3,$E:$E)</f>
+        <f t="shared" ref="V3:V44" si="4">SUMIF($B:$B,U3,$E:$E)</f>
         <v>30</v>
       </c>
       <c r="W3" s="20" t="str">
@@ -4808,7 +4777,7 @@
         <v>12</v>
       </c>
       <c r="AB3" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AC3" t="str" cm="1">
         <f t="array" ref="AC3:AD3">_xlfn.TEXTSPLIT(AB3,"&gt;",)</f>
@@ -4826,31 +4795,31 @@
         <v>4</v>
       </c>
       <c r="D4" s="20" t="str">
-        <f>VLOOKUP($B4,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Commercial</v>
       </c>
       <c r="E4" s="20">
-        <f>G4*SUMIFS($K:$K,$I:$I,C4,$J:$J,D4)/F4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F4" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D4,$C$2:$C$1000,C4)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G4" s="10">
         <v>10</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4">
         <v>25</v>
       </c>
-      <c r="L4" s="29">
-        <f t="shared" ref="L4:L38" si="0">SUMIF($I:$I,I4,$K:$K)</f>
+      <c r="L4" s="19">
+        <f t="shared" ref="L4:L38" si="5">SUMIF($I:$I,I4,$K:$K)</f>
         <v>100</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -4863,18 +4832,18 @@
         <v>Commercial</v>
       </c>
       <c r="S4" s="4">
-        <f>SUMIF($D:$D,R4,$E:$E)</f>
+        <f t="shared" si="3"/>
         <v>184.99999999999997</v>
       </c>
       <c r="U4" s="20" t="str">
         <v>CSI</v>
       </c>
       <c r="V4" s="4">
-        <f>SUMIF($B:$B,U4,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>16.652406417112299</v>
       </c>
       <c r="W4" s="20" t="str">
-        <f t="shared" ref="W4:W44" si="1">VLOOKUP(U4,$Y:$Z,2,FALSE)</f>
+        <f t="shared" ref="W4:W44" si="6">VLOOKUP(U4,$Y:$Z,2,FALSE)</f>
         <v>Commercial</v>
       </c>
       <c r="Y4" t="s">
@@ -4884,7 +4853,7 @@
         <v>5</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC4" t="str" cm="1">
         <f t="array" ref="AC4:AD4">_xlfn.TEXTSPLIT(AB4,"&gt;",)</f>
@@ -4902,31 +4871,31 @@
         <v>4</v>
       </c>
       <c r="D5" s="20" t="str">
-        <f>VLOOKUP($B5,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Commercial</v>
       </c>
       <c r="E5" s="20">
-        <f>G5*SUMIFS($K:$K,$I:$I,C5,$J:$J,D5)/F5</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F5" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D5,$C$2:$C$1000,C5)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G5" s="10">
         <v>10</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5">
         <v>20</v>
       </c>
-      <c r="L5" s="29">
-        <f t="shared" si="0"/>
+      <c r="L5" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -4939,18 +4908,18 @@
         <v>Corporate</v>
       </c>
       <c r="S5" s="4">
-        <f>SUMIF($D:$D,R5,$E:$E)</f>
+        <f t="shared" si="3"/>
         <v>135.00000000000006</v>
       </c>
       <c r="U5" s="20" t="str">
         <v>CTTE</v>
       </c>
       <c r="V5" s="4">
-        <f>SUMIF($B:$B,U5,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>16.652406417112299</v>
       </c>
       <c r="W5" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="Y5" t="s">
@@ -4960,7 +4929,7 @@
         <v>5</v>
       </c>
       <c r="AB5" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC5" t="str" cm="1">
         <f t="array" ref="AC5:AD5">_xlfn.TEXTSPLIT(AB5,"&gt;",)</f>
@@ -4978,31 +4947,31 @@
         <v>4</v>
       </c>
       <c r="D6" s="20" t="str">
-        <f>VLOOKUP($B6,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Commercial</v>
       </c>
       <c r="E6" s="20">
-        <f>G6*SUMIFS($K:$K,$I:$I,C6,$J:$J,D6)/F6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F6" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D6,$C$2:$C$1000,C6)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G6" s="10">
         <v>10</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6">
         <v>25</v>
       </c>
-      <c r="L6" s="29">
-        <f t="shared" si="0"/>
+      <c r="L6" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -5015,18 +4984,18 @@
         <v>Operations</v>
       </c>
       <c r="S6" s="4">
-        <f>SUMIF($D:$D,R6,$E:$E)</f>
+        <f t="shared" si="3"/>
         <v>104.99999999999997</v>
       </c>
       <c r="U6" s="20" t="str">
         <v>DNI</v>
       </c>
       <c r="V6" s="4">
-        <f>SUMIF($B:$B,U6,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>16.652406417112299</v>
       </c>
       <c r="W6" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="Y6" t="s">
@@ -5036,7 +5005,7 @@
         <v>5</v>
       </c>
       <c r="AB6" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC6" t="str" cm="1">
         <f t="array" ref="AC6:AD6">_xlfn.TEXTSPLIT(AB6,"&gt;",)</f>
@@ -5054,31 +5023,31 @@
         <v>4</v>
       </c>
       <c r="D7" s="20" t="str">
-        <f>VLOOKUP($B7,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Commercial</v>
       </c>
       <c r="E7" s="20">
-        <f>G7*SUMIFS($K:$K,$I:$I,C7,$J:$J,D7)/F7</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F7" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D7,$C$2:$C$1000,C7)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G7" s="10">
         <v>10</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7">
         <v>15</v>
       </c>
-      <c r="L7" s="29">
-        <f t="shared" si="0"/>
+      <c r="L7" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -5091,18 +5060,18 @@
         <v>Technology</v>
       </c>
       <c r="S7" s="4">
-        <f>SUMIF($D:$D,R7,$E:$E)</f>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="U7" s="20" t="str">
         <v>ECM</v>
       </c>
       <c r="V7" s="4">
-        <f>SUMIF($B:$B,U7,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>16.652406417112299</v>
       </c>
       <c r="W7" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="Y7" t="s">
@@ -5112,7 +5081,7 @@
         <v>5</v>
       </c>
       <c r="AB7" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC7" t="str" cm="1">
         <f t="array" ref="AC7:AD7">_xlfn.TEXTSPLIT(AB7,"&gt;",)</f>
@@ -5130,31 +5099,31 @@
         <v>4</v>
       </c>
       <c r="D8" s="20" t="str">
-        <f>VLOOKUP($B8,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Commercial</v>
       </c>
       <c r="E8" s="20">
-        <f>G8*SUMIFS($K:$K,$I:$I,C8,$J:$J,D8)/F8</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F8" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D8,$C$2:$C$1000,C8)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G8" s="10">
         <v>20</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="27">
-        <v>10</v>
-      </c>
-      <c r="L8" s="29">
-        <f t="shared" si="0"/>
+      <c r="K8" s="26">
+        <v>10</v>
+      </c>
+      <c r="L8" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -5167,18 +5136,18 @@
         <v>Data &amp; AI</v>
       </c>
       <c r="S8" s="4">
-        <f>SUMIF($D:$D,R8,$E:$E)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="U8" s="20" t="str">
         <v>GP B2B</v>
       </c>
       <c r="V8" s="4">
-        <f>SUMIF($B:$B,U8,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>23.379679144385026</v>
       </c>
       <c r="W8" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="Y8" t="s">
@@ -5188,7 +5157,7 @@
         <v>5</v>
       </c>
       <c r="AB8" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC8" t="str" cm="1">
         <f t="array" ref="AC8:AD8">_xlfn.TEXTSPLIT(AB8,"&gt;",)</f>
@@ -5206,57 +5175,55 @@
         <v>4</v>
       </c>
       <c r="D9" s="20" t="str">
-        <f>VLOOKUP($B9,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Commercial</v>
       </c>
       <c r="E9" s="20">
-        <f>G9*SUMIFS($K:$K,$I:$I,C9,$J:$J,D9)/F9</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F9" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D9,$C$2:$C$1000,C9)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G9" s="10">
         <v>10</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9">
         <v>5</v>
       </c>
-      <c r="L9" s="29">
-        <f t="shared" si="0"/>
+      <c r="L9" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M9" s="26"/>
       <c r="N9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="O9" s="16">
         <v>0</v>
       </c>
-      <c r="P9" s="26"/>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9" s="4">
-        <f>SUMIF($D:$D,R9,$E:$E)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U9" s="20" t="str">
         <v>GP B2C</v>
       </c>
       <c r="V9" s="4">
-        <f>SUMIF($B:$B,U9,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>19.379679144385026</v>
       </c>
       <c r="W9" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="Y9" t="s">
@@ -5266,7 +5233,7 @@
         <v>5</v>
       </c>
       <c r="AB9" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC9" t="str" cm="1">
         <f t="array" ref="AC9:AD9">_xlfn.TEXTSPLIT(AB9,"&gt;",)</f>
@@ -5284,50 +5251,46 @@
         <v>4</v>
       </c>
       <c r="D10" s="20" t="str">
-        <f>VLOOKUP($B10,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Commercial</v>
       </c>
       <c r="E10" s="20">
-        <f>G10*SUMIFS($K:$K,$I:$I,C10,$J:$J,D10)/F10</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F10" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D10,$C$2:$C$1000,C10)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G10" s="10">
         <v>10</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10">
         <v>30</v>
       </c>
-      <c r="L10" s="29">
-        <f t="shared" si="0"/>
+      <c r="L10" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
       <c r="S10" s="4">
-        <f>SUMIF($D:$D,R10,$E:$E)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U10" s="20" t="str">
         <v>GP ECL</v>
       </c>
       <c r="V10" s="4">
-        <f>SUMIF($B:$B,U10,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>21.122994652406415</v>
       </c>
       <c r="W10" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="Y10" t="s">
@@ -5337,7 +5300,7 @@
         <v>5</v>
       </c>
       <c r="AB10" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC10" t="str" cm="1">
         <f t="array" ref="AC10:AD10">_xlfn.TEXTSPLIT(AB10,"&gt;",)</f>
@@ -5355,50 +5318,46 @@
         <v>4</v>
       </c>
       <c r="D11" s="20" t="str">
-        <f>VLOOKUP($B11,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Commercial</v>
       </c>
       <c r="E11" s="20">
-        <f>G11*SUMIFS($K:$K,$I:$I,C11,$J:$J,D11)/F11</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F11" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D11,$C$2:$C$1000,C11)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G11" s="10">
         <v>10</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11">
         <v>20</v>
       </c>
-      <c r="L11" s="29">
-        <f t="shared" si="0"/>
+      <c r="L11" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
       <c r="S11" s="4">
-        <f>SUMIF($D:$D,R11,$E:$E)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U11" s="20" t="str">
         <v>GPG</v>
       </c>
       <c r="V11" s="4">
-        <f>SUMIF($B:$B,U11,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>19.379679144385026</v>
       </c>
       <c r="W11" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="Y11" t="s">
@@ -5408,7 +5367,7 @@
         <v>5</v>
       </c>
       <c r="AB11" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC11" t="str" cm="1">
         <f t="array" ref="AC11:AD11">_xlfn.TEXTSPLIT(AB11,"&gt;",)</f>
@@ -5426,50 +5385,46 @@
         <v>4</v>
       </c>
       <c r="D12" s="20" t="str">
-        <f>VLOOKUP($B12,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Commercial</v>
       </c>
       <c r="E12" s="20">
-        <f>G12*SUMIFS($K:$K,$I:$I,C12,$J:$J,D12)/F12</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F12" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D12,$C$2:$C$1000,C12)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G12" s="10">
         <v>10</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12">
         <v>20</v>
       </c>
-      <c r="L12" s="29">
-        <f t="shared" si="0"/>
+      <c r="L12" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
       <c r="S12" s="4">
-        <f>SUMIF($D:$D,R12,$E:$E)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U12" s="20" t="str">
         <v>GS</v>
       </c>
       <c r="V12" s="4">
-        <f>SUMIF($B:$B,U12,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>26.304812834224595</v>
       </c>
       <c r="W12" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="Y12" t="s">
@@ -5487,50 +5442,46 @@
         <v>4</v>
       </c>
       <c r="D13" s="20" t="str">
-        <f>VLOOKUP($B13,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Corporate</v>
       </c>
       <c r="E13" s="20">
-        <f>G13*SUMIFS($K:$K,$I:$I,C13,$J:$J,D13)/F13</f>
+        <f t="shared" si="1"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F13" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D13,$C$2:$C$1000,C13)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G13" s="10">
         <v>10</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13">
         <v>20</v>
       </c>
-      <c r="L13" s="29">
-        <f t="shared" si="0"/>
+      <c r="L13" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
       <c r="S13" s="4">
-        <f>SUMIF($D:$D,R13,$E:$E)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U13" s="20" t="str">
         <v>ACR</v>
       </c>
       <c r="V13" s="4">
-        <f>SUMIF($B:$B,U13,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>9.1233766233766236</v>
       </c>
       <c r="W13" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y13" t="s">
@@ -5548,50 +5499,46 @@
         <v>4</v>
       </c>
       <c r="D14" s="20" t="str">
-        <f>VLOOKUP($B14,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Corporate</v>
       </c>
       <c r="E14" s="20">
-        <f>G14*SUMIFS($K:$K,$I:$I,C14,$J:$J,D14)/F14</f>
+        <f t="shared" si="1"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F14" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D14,$C$2:$C$1000,C14)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G14" s="10">
         <v>10</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="26">
         <v>5</v>
       </c>
-      <c r="L14" s="29">
-        <f t="shared" si="0"/>
+      <c r="L14" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
       <c r="S14" s="4">
-        <f>SUMIF($D:$D,R14,$E:$E)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14" s="20" t="str">
         <v>AVC</v>
       </c>
       <c r="V14" s="4">
-        <f>SUMIF($B:$B,U14,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>9.1233766233766236</v>
       </c>
       <c r="W14" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y14" t="s">
@@ -5609,47 +5556,43 @@
         <v>4</v>
       </c>
       <c r="D15" s="20" t="str">
-        <f>VLOOKUP($B15,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Corporate</v>
       </c>
       <c r="E15" s="20">
-        <f>G15*SUMIFS($K:$K,$I:$I,C15,$J:$J,D15)/F15</f>
+        <f t="shared" si="1"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="F15" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D15,$C$2:$C$1000,C15)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G15" s="10">
         <v>20</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="27">
         <v>5</v>
       </c>
-      <c r="L15" s="29">
-        <f t="shared" si="0"/>
+      <c r="L15" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
       <c r="S15" s="8"/>
       <c r="U15" s="20" t="str">
         <v>CF</v>
       </c>
       <c r="V15" s="4">
-        <f>SUMIF($B:$B,U15,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>18.246753246753247</v>
       </c>
       <c r="W15" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y15" t="s">
@@ -5667,47 +5610,43 @@
         <v>4</v>
       </c>
       <c r="D16" s="20" t="str">
-        <f>VLOOKUP($B16,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Corporate</v>
       </c>
       <c r="E16" s="20">
-        <f>G16*SUMIFS($K:$K,$I:$I,C16,$J:$J,D16)/F16</f>
+        <f t="shared" si="1"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F16" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D16,$C$2:$C$1000,C16)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G16" s="10">
         <v>10</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16">
         <v>40</v>
       </c>
-      <c r="L16" s="29">
-        <f t="shared" si="0"/>
+      <c r="L16" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
       <c r="S16" s="8"/>
       <c r="U16" s="20" t="str">
         <v>CL</v>
       </c>
       <c r="V16" s="4">
-        <f>SUMIF($B:$B,U16,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>9.1233766233766236</v>
       </c>
       <c r="W16" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y16" t="s">
@@ -5725,47 +5664,43 @@
         <v>4</v>
       </c>
       <c r="D17" s="20" t="str">
-        <f>VLOOKUP($B17,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Corporate</v>
       </c>
       <c r="E17" s="20">
-        <f>G17*SUMIFS($K:$K,$I:$I,C17,$J:$J,D17)/F17</f>
+        <f t="shared" si="1"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F17" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D17,$C$2:$C$1000,C17)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G17" s="10">
         <v>10</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17">
         <v>20</v>
       </c>
-      <c r="L17" s="29">
-        <f t="shared" si="0"/>
+      <c r="L17" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
       <c r="S17" s="8"/>
       <c r="U17" s="20" t="str">
         <v>CMP</v>
       </c>
       <c r="V17" s="4">
-        <f>SUMIF($B:$B,U17,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>9.1233766233766236</v>
       </c>
       <c r="W17" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y17" t="s">
@@ -5783,47 +5718,43 @@
         <v>4</v>
       </c>
       <c r="D18" s="20" t="str">
-        <f>VLOOKUP($B18,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Corporate</v>
       </c>
       <c r="E18" s="20">
-        <f>G18*SUMIFS($K:$K,$I:$I,C18,$J:$J,D18)/F18</f>
+        <f t="shared" si="1"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F18" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D18,$C$2:$C$1000,C18)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G18" s="10">
         <v>10</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="26">
-        <v>10</v>
-      </c>
-      <c r="L18" s="29">
-        <f t="shared" si="0"/>
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
       <c r="S18" s="8"/>
       <c r="U18" s="20" t="str">
         <v>DPO</v>
       </c>
       <c r="V18" s="4">
-        <f>SUMIF($B:$B,U18,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>9.1233766233766236</v>
       </c>
       <c r="W18" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y18" t="s">
@@ -5841,47 +5772,43 @@
         <v>4</v>
       </c>
       <c r="D19" s="20" t="str">
-        <f>VLOOKUP($B19,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Corporate</v>
       </c>
       <c r="E19" s="20">
-        <f>G19*SUMIFS($K:$K,$I:$I,C19,$J:$J,D19)/F19</f>
+        <f t="shared" si="1"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F19" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D19,$C$2:$C$1000,C19)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G19" s="10">
         <v>10</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19">
         <v>20</v>
       </c>
-      <c r="L19" s="29">
-        <f t="shared" si="0"/>
+      <c r="L19" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
       <c r="S19" s="8"/>
       <c r="U19" s="20" t="str">
         <v>FL</v>
       </c>
       <c r="V19" s="4">
-        <f>SUMIF($B:$B,U19,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>9.1233766233766236</v>
       </c>
       <c r="W19" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y19" t="s">
@@ -5899,47 +5826,43 @@
         <v>4</v>
       </c>
       <c r="D20" s="20" t="str">
-        <f>VLOOKUP($B20,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Corporate</v>
       </c>
       <c r="E20" s="20">
-        <f>G20*SUMIFS($K:$K,$I:$I,C20,$J:$J,D20)/F20</f>
+        <f t="shared" si="1"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F20" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D20,$C$2:$C$1000,C20)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G20" s="10">
         <v>10</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="26">
         <v>5</v>
       </c>
-      <c r="L20" s="29">
-        <f t="shared" si="0"/>
+      <c r="L20" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
       <c r="S20" s="8"/>
       <c r="U20" s="20" t="str">
         <v>GRH</v>
       </c>
       <c r="V20" s="4">
-        <f>SUMIF($B:$B,U20,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>9.1233766233766236</v>
       </c>
       <c r="W20" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y20" t="s">
@@ -5957,47 +5880,43 @@
         <v>4</v>
       </c>
       <c r="D21" s="20" t="str">
-        <f>VLOOKUP($B21,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Corporate</v>
       </c>
       <c r="E21" s="20">
-        <f>G21*SUMIFS($K:$K,$I:$I,C21,$J:$J,D21)/F21</f>
+        <f t="shared" si="1"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F21" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D21,$C$2:$C$1000,C21)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G21" s="10">
         <v>10</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="27">
         <v>5</v>
       </c>
-      <c r="L21" s="29">
-        <f t="shared" si="0"/>
+      <c r="L21" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
       <c r="S21" s="8"/>
       <c r="U21" s="20" t="str">
         <v>GT</v>
       </c>
       <c r="V21" s="4">
-        <f>SUMIF($B:$B,U21,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>9.1233766233766236</v>
       </c>
       <c r="W21" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y21" t="s">
@@ -6015,47 +5934,43 @@
         <v>4</v>
       </c>
       <c r="D22" s="20" t="str">
-        <f>VLOOKUP($B22,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Corporate</v>
       </c>
       <c r="E22" s="20">
-        <f>G22*SUMIFS($K:$K,$I:$I,C22,$J:$J,D22)/F22</f>
+        <f t="shared" si="1"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F22" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D22,$C$2:$C$1000,C22)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G22" s="10">
         <v>10</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22">
         <v>30</v>
       </c>
-      <c r="L22" s="29">
-        <f t="shared" si="0"/>
+      <c r="L22" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
       <c r="S22" s="8"/>
       <c r="U22" s="20" t="str">
         <v>PC</v>
       </c>
       <c r="V22" s="4">
-        <f>SUMIF($B:$B,U22,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>10.032467532467532</v>
       </c>
       <c r="W22" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y22" t="s">
@@ -6073,47 +5988,43 @@
         <v>4</v>
       </c>
       <c r="D23" s="20" t="str">
-        <f>VLOOKUP($B23,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Corporate</v>
       </c>
       <c r="E23" s="20">
-        <f>G23*SUMIFS($K:$K,$I:$I,C23,$J:$J,D23)/F23</f>
+        <f t="shared" si="1"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F23" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D23,$C$2:$C$1000,C23)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G23" s="10">
         <v>10</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23">
         <v>30</v>
       </c>
-      <c r="L23" s="29">
-        <f t="shared" si="0"/>
+      <c r="L23" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
       <c r="S23" s="8"/>
       <c r="U23" s="20" t="str">
         <v>RS</v>
       </c>
       <c r="V23" s="4">
-        <f>SUMIF($B:$B,U23,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>9.1233766233766236</v>
       </c>
       <c r="W23" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y23" t="s">
@@ -6131,47 +6042,43 @@
         <v>4</v>
       </c>
       <c r="D24" s="20" t="str">
-        <f>VLOOKUP($B24,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Corporate</v>
       </c>
       <c r="E24" s="20">
-        <f>G24*SUMIFS($K:$K,$I:$I,C24,$J:$J,D24)/F24</f>
+        <f t="shared" si="1"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F24" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D24,$C$2:$C$1000,C24)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G24" s="10">
         <v>10</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="26">
-        <v>10</v>
-      </c>
-      <c r="L24" s="29">
-        <f t="shared" si="0"/>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
       <c r="S24" s="8"/>
       <c r="U24" s="20" t="str">
         <v>ST</v>
       </c>
       <c r="V24" s="4">
-        <f>SUMIF($B:$B,U24,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>9.1233766233766236</v>
       </c>
       <c r="W24" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y24" t="s">
@@ -6189,47 +6096,43 @@
         <v>4</v>
       </c>
       <c r="D25" s="20" t="str">
-        <f>VLOOKUP($B25,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Corporate</v>
       </c>
       <c r="E25" s="20">
-        <f>G25*SUMIFS($K:$K,$I:$I,C25,$J:$J,D25)/F25</f>
+        <f t="shared" si="1"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F25" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D25,$C$2:$C$1000,C25)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G25" s="10">
         <v>10</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25">
         <v>20</v>
       </c>
-      <c r="L25" s="29">
-        <f t="shared" si="0"/>
+      <c r="L25" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
       <c r="S25" s="8"/>
       <c r="U25" s="20" t="str">
         <v>TF</v>
       </c>
       <c r="V25" s="4">
-        <f>SUMIF($B:$B,U25,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>9.1233766233766236</v>
       </c>
       <c r="W25" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y25" t="s">
@@ -6247,47 +6150,43 @@
         <v>4</v>
       </c>
       <c r="D26" s="20" t="str">
-        <f>VLOOKUP($B26,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Operations</v>
       </c>
       <c r="E26" s="20">
-        <f>G26*SUMIFS($K:$K,$I:$I,C26,$J:$J,D26)/F26</f>
+        <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F26" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D26,$C$2:$C$1000,C26)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="G26" s="10">
         <v>10</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="26">
         <v>5</v>
       </c>
-      <c r="L26" s="29">
-        <f t="shared" si="0"/>
+      <c r="L26" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
       <c r="S26" s="8"/>
       <c r="U26" s="20" t="str">
         <v>EDO</v>
       </c>
       <c r="V26" s="4">
-        <f>SUMIF($B:$B,U26,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>36.333333333333336</v>
       </c>
       <c r="W26" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Operations</v>
       </c>
       <c r="Y26" t="s">
@@ -6305,47 +6204,43 @@
         <v>4</v>
       </c>
       <c r="D27" s="20" t="str">
-        <f>VLOOKUP($B27,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Operations</v>
       </c>
       <c r="E27" s="20">
-        <f>G27*SUMIFS($K:$K,$I:$I,C27,$J:$J,D27)/F27</f>
+        <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F27" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D27,$C$2:$C$1000,C27)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="G27" s="10">
         <v>10</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="27">
         <v>5</v>
       </c>
-      <c r="L27" s="29">
-        <f t="shared" si="0"/>
+      <c r="L27" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
       <c r="S27" s="8"/>
       <c r="U27" s="20" t="str">
         <v>EM</v>
       </c>
       <c r="V27" s="4">
-        <f>SUMIF($B:$B,U27,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>28.166666666666664</v>
       </c>
       <c r="W27" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Operations</v>
       </c>
       <c r="Y27" t="s">
@@ -6363,47 +6258,43 @@
         <v>4</v>
       </c>
       <c r="D28" s="20" t="str">
-        <f>VLOOKUP($B28,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Operations</v>
       </c>
       <c r="E28" s="20">
-        <f>G28*SUMIFS($K:$K,$I:$I,C28,$J:$J,D28)/F28</f>
+        <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F28" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D28,$C$2:$C$1000,C28)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="G28" s="10">
         <v>10</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28">
         <v>30</v>
       </c>
-      <c r="L28" s="29">
-        <f t="shared" si="0"/>
+      <c r="L28" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
       <c r="S28" s="8"/>
       <c r="U28" s="20" t="str">
         <v>SEO</v>
       </c>
       <c r="V28" s="4">
-        <f>SUMIF($B:$B,U28,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>32.166666666666664</v>
       </c>
       <c r="W28" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Operations</v>
       </c>
       <c r="Y28" t="s">
@@ -6421,47 +6312,43 @@
         <v>4</v>
       </c>
       <c r="D29" s="20" t="str">
-        <f>VLOOKUP($B29,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Technology</v>
       </c>
       <c r="E29" s="20">
-        <f>G29*SUMIFS($K:$K,$I:$I,C29,$J:$J,D29)/F29</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F29" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D29,$C$2:$C$1000,C29)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="G29" s="10">
         <v>10</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29">
         <v>25</v>
       </c>
-      <c r="L29" s="29">
-        <f t="shared" si="0"/>
+      <c r="L29" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
       <c r="S29" s="8"/>
       <c r="U29" s="20" t="str">
         <v>BCTT</v>
       </c>
       <c r="V29" s="4">
-        <f>SUMIF($B:$B,U29,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>18.375</v>
       </c>
       <c r="W29" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Technology</v>
       </c>
       <c r="Y29" t="s">
@@ -6479,47 +6366,43 @@
         <v>4</v>
       </c>
       <c r="D30" s="20" t="str">
-        <f>VLOOKUP($B30,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Technology</v>
       </c>
       <c r="E30" s="20">
-        <f>G30*SUMIFS($K:$K,$I:$I,C30,$J:$J,D30)/F30</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F30" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D30,$C$2:$C$1000,C30)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="G30" s="10">
         <v>10</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="26">
-        <v>10</v>
-      </c>
-      <c r="L30" s="29">
-        <f t="shared" si="0"/>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
       <c r="S30" s="8"/>
       <c r="U30" s="20" t="str">
         <v>SI</v>
       </c>
       <c r="V30" s="4">
-        <f>SUMIF($B:$B,U30,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>32.75</v>
       </c>
       <c r="W30" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Technology</v>
       </c>
       <c r="Y30" t="s">
@@ -6537,47 +6420,43 @@
         <v>4</v>
       </c>
       <c r="D31" s="20" t="str">
-        <f>VLOOKUP($B31,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Technology</v>
       </c>
       <c r="E31" s="20">
-        <f>G31*SUMIFS($K:$K,$I:$I,C31,$J:$J,D31)/F31</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F31" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D31,$C$2:$C$1000,C31)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="G31" s="10">
         <v>10</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31">
         <v>25</v>
       </c>
-      <c r="L31" s="29">
-        <f t="shared" si="0"/>
+      <c r="L31" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
       <c r="S31" s="8"/>
       <c r="U31" s="20" t="str">
         <v>SI-CRP</v>
       </c>
       <c r="V31" s="4">
-        <f>SUMIF($B:$B,U31,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>18.375</v>
       </c>
       <c r="W31" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Technology</v>
       </c>
       <c r="Y31" t="s">
@@ -6595,47 +6474,43 @@
         <v>4</v>
       </c>
       <c r="D32" s="20" t="str">
-        <f>VLOOKUP($B32,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Technology</v>
       </c>
       <c r="E32" s="20">
-        <f>G32*SUMIFS($K:$K,$I:$I,C32,$J:$J,D32)/F32</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F32" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D32,$C$2:$C$1000,C32)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="G32" s="10">
         <v>10</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="27" t="s">
+      <c r="J32" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K32" s="26">
         <v>5</v>
       </c>
-      <c r="L32" s="29">
-        <f t="shared" si="0"/>
+      <c r="L32" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
       <c r="S32" s="8"/>
       <c r="U32" s="20" t="str">
         <v>SI-OPS</v>
       </c>
       <c r="V32" s="4">
-        <f>SUMIF($B:$B,U32,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>18.375</v>
       </c>
       <c r="W32" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Technology</v>
       </c>
       <c r="Y32" t="s">
@@ -6653,47 +6528,43 @@
         <v>4</v>
       </c>
       <c r="D33" s="20" t="str">
-        <f>VLOOKUP($B33,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Technology</v>
       </c>
       <c r="E33" s="20">
-        <f>G33*SUMIFS($K:$K,$I:$I,C33,$J:$J,D33)/F33</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F33" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D33,$C$2:$C$1000,C33)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="G33" s="10">
         <v>10</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="I33" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="28" t="s">
+      <c r="J33" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33" s="27">
         <v>5</v>
       </c>
-      <c r="L33" s="29">
-        <f t="shared" si="0"/>
+      <c r="L33" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
       <c r="S33" s="8"/>
       <c r="U33" s="20" t="str">
         <v>SI-PRD</v>
       </c>
       <c r="V33" s="4">
-        <f>SUMIF($B:$B,U33,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>18.375</v>
       </c>
       <c r="W33" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Technology</v>
       </c>
       <c r="Y33" t="s">
@@ -6711,47 +6582,43 @@
         <v>11</v>
       </c>
       <c r="D34" s="20" t="str">
-        <f>VLOOKUP($B34,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>CISO</v>
       </c>
       <c r="E34" s="20">
-        <f>G34*SUMIFS($K:$K,$I:$I,C34,$J:$J,D34)/F34</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F34" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D34,$C$2:$C$1000,C34)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G34" s="10">
         <v>10</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" t="s">
         <v>5</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34">
         <v>30</v>
       </c>
-      <c r="L34" s="29">
-        <f t="shared" si="0"/>
+      <c r="L34" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
       <c r="S34" s="8"/>
       <c r="U34" s="20" t="str">
         <v>CCO</v>
       </c>
       <c r="V34" s="4">
-        <f>SUMIF($B:$B,U34,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="W34" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="Y34" t="s">
@@ -6769,47 +6636,43 @@
         <v>11</v>
       </c>
       <c r="D35" s="20" t="str">
-        <f>VLOOKUP($B35,$Y:$Z,2,FALSE)</f>
+        <f t="shared" ref="D35:D66" si="7">VLOOKUP($B35,$Y:$Z,2,FALSE)</f>
         <v>Commercial</v>
       </c>
       <c r="E35" s="20">
-        <f>G35*SUMIFS($K:$K,$I:$I,C35,$J:$J,D35)/F35</f>
+        <f t="shared" si="1"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F35" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D35,$C$2:$C$1000,C35)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="G35" s="10">
         <v>20</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="26">
+      <c r="K35">
         <v>20</v>
       </c>
-      <c r="L35" s="29">
-        <f t="shared" si="0"/>
+      <c r="L35" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
       <c r="S35" s="8"/>
       <c r="U35" s="20" t="str">
         <v>CMO</v>
       </c>
       <c r="V35" s="4">
-        <f>SUMIF($B:$B,U35,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="W35" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="Y35" t="s">
@@ -6827,31 +6690,31 @@
         <v>11</v>
       </c>
       <c r="D36" s="20" t="str">
-        <f>VLOOKUP($B36,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Commercial</v>
       </c>
       <c r="E36" s="20">
-        <f>G36*SUMIFS($K:$K,$I:$I,C36,$J:$J,D36)/F36</f>
+        <f t="shared" si="1"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F36" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D36,$C$2:$C$1000,C36)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="G36" s="10">
         <v>20</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="I36" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="26" t="s">
+      <c r="J36" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36">
         <v>30</v>
       </c>
-      <c r="L36" s="29">
-        <f t="shared" si="0"/>
+      <c r="L36" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="S36" s="8"/>
@@ -6859,11 +6722,11 @@
         <v>IDC</v>
       </c>
       <c r="V36" s="4">
-        <f>SUMIF($B:$B,U36,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="W36" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Commercial</v>
       </c>
       <c r="Y36" t="s">
@@ -6881,31 +6744,31 @@
         <v>11</v>
       </c>
       <c r="D37" s="20" t="str">
-        <f>VLOOKUP($B37,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Commercial</v>
       </c>
       <c r="E37" s="20">
-        <f>G37*SUMIFS($K:$K,$I:$I,C37,$J:$J,D37)/F37</f>
+        <f t="shared" si="1"/>
         <v>1.4705882352941178</v>
       </c>
       <c r="F37" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D37,$C$2:$C$1000,C37)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="G37" s="10">
         <v>10</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="I37" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="26" t="s">
+      <c r="J37" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="26">
-        <v>10</v>
-      </c>
-      <c r="L37" s="29">
-        <f t="shared" si="0"/>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="S37" s="8"/>
@@ -6913,11 +6776,11 @@
         <v>ATC</v>
       </c>
       <c r="V37" s="4">
-        <f>SUMIF($B:$B,U37,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>1.8181818181818181</v>
       </c>
       <c r="W37" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y37" t="s">
@@ -6935,31 +6798,31 @@
         <v>11</v>
       </c>
       <c r="D38" s="20" t="str">
-        <f>VLOOKUP($B38,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Commercial</v>
       </c>
       <c r="E38" s="20">
-        <f>G38*SUMIFS($K:$K,$I:$I,C38,$J:$J,D38)/F38</f>
+        <f t="shared" si="1"/>
         <v>1.4705882352941178</v>
       </c>
       <c r="F38" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D38,$C$2:$C$1000,C38)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="G38" s="10">
         <v>10</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="I38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="J38" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K38" s="26">
         <v>5</v>
       </c>
-      <c r="L38" s="29">
-        <f t="shared" si="0"/>
+      <c r="L38" s="19">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="S38" s="8"/>
@@ -6967,11 +6830,11 @@
         <v>CFO</v>
       </c>
       <c r="V38" s="4">
-        <f>SUMIF($B:$B,U38,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>1.8181818181818181</v>
       </c>
       <c r="W38" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y38" t="s">
@@ -6989,15 +6852,15 @@
         <v>11</v>
       </c>
       <c r="D39" s="20" t="str">
-        <f>VLOOKUP($B39,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Commercial</v>
       </c>
       <c r="E39" s="20">
-        <f>G39*SUMIFS($K:$K,$I:$I,C39,$J:$J,D39)/F39</f>
+        <f t="shared" si="1"/>
         <v>1.4705882352941178</v>
       </c>
       <c r="F39" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D39,$C$2:$C$1000,C39)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="G39" s="10">
@@ -7008,11 +6871,11 @@
         <v>CHR</v>
       </c>
       <c r="V39" s="4">
-        <f>SUMIF($B:$B,U39,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="W39" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y39" t="s">
@@ -7030,15 +6893,15 @@
         <v>11</v>
       </c>
       <c r="D40" s="20" t="str">
-        <f>VLOOKUP($B40,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Commercial</v>
       </c>
       <c r="E40" s="20">
-        <f>G40*SUMIFS($K:$K,$I:$I,C40,$J:$J,D40)/F40</f>
+        <f t="shared" si="1"/>
         <v>1.4705882352941178</v>
       </c>
       <c r="F40" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D40,$C$2:$C$1000,C40)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="G40" s="10">
@@ -7049,11 +6912,11 @@
         <v>COM</v>
       </c>
       <c r="V40" s="4">
-        <f>SUMIF($B:$B,U40,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="W40" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y40" t="s">
@@ -7071,15 +6934,15 @@
         <v>11</v>
       </c>
       <c r="D41" s="20" t="str">
-        <f>VLOOKUP($B41,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Commercial</v>
       </c>
       <c r="E41" s="20">
-        <f>G41*SUMIFS($K:$K,$I:$I,C41,$J:$J,D41)/F41</f>
+        <f t="shared" si="1"/>
         <v>1.4705882352941178</v>
       </c>
       <c r="F41" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D41,$C$2:$C$1000,C41)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="G41" s="10">
@@ -7090,11 +6953,11 @@
         <v>PRO</v>
       </c>
       <c r="V41" s="4">
-        <f>SUMIF($B:$B,U41,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="W41" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Corporate</v>
       </c>
       <c r="Y41" t="s">
@@ -7112,15 +6975,15 @@
         <v>11</v>
       </c>
       <c r="D42" s="20" t="str">
-        <f>VLOOKUP($B42,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Commercial</v>
       </c>
       <c r="E42" s="20">
-        <f>G42*SUMIFS($K:$K,$I:$I,C42,$J:$J,D42)/F42</f>
+        <f t="shared" si="1"/>
         <v>1.4705882352941178</v>
       </c>
       <c r="F42" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D42,$C$2:$C$1000,C42)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="G42" s="10">
@@ -7131,11 +6994,11 @@
         <v>COO</v>
       </c>
       <c r="V42" s="4">
-        <f>SUMIF($B:$B,U42,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="W42" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Operations</v>
       </c>
       <c r="Y42" t="s">
@@ -7153,15 +7016,15 @@
         <v>11</v>
       </c>
       <c r="D43" s="20" t="str">
-        <f>VLOOKUP($B43,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Commercial</v>
       </c>
       <c r="E43" s="20">
-        <f>G43*SUMIFS($K:$K,$I:$I,C43,$J:$J,D43)/F43</f>
+        <f t="shared" si="1"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F43" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D43,$C$2:$C$1000,C43)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="G43" s="10">
@@ -7172,11 +7035,11 @@
         <v>CIO</v>
       </c>
       <c r="V43" s="4">
-        <f>SUMIF($B:$B,U43,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>3.75</v>
       </c>
       <c r="W43" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Technology</v>
       </c>
       <c r="Y43" t="s">
@@ -7194,15 +7057,15 @@
         <v>11</v>
       </c>
       <c r="D44" s="20" t="str">
-        <f>VLOOKUP($B44,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Commercial</v>
       </c>
       <c r="E44" s="20">
-        <f>G44*SUMIFS($K:$K,$I:$I,C44,$J:$J,D44)/F44</f>
+        <f t="shared" si="1"/>
         <v>1.4705882352941178</v>
       </c>
       <c r="F44" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D44,$C$2:$C$1000,C44)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="G44" s="10">
@@ -7213,11 +7076,11 @@
         <v>IAD</v>
       </c>
       <c r="V44" s="4">
-        <f>SUMIF($B:$B,U44,$E:$E)</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="W44" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Data &amp; AI</v>
       </c>
       <c r="Y44" t="s">
@@ -7235,15 +7098,15 @@
         <v>11</v>
       </c>
       <c r="D45" s="20" t="str">
-        <f>VLOOKUP($B45,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Commercial</v>
       </c>
       <c r="E45" s="20">
-        <f>G45*SUMIFS($K:$K,$I:$I,C45,$J:$J,D45)/F45</f>
+        <f t="shared" si="1"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F45" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D45,$C$2:$C$1000,C45)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="G45" s="10">
@@ -7255,7 +7118,7 @@
       </c>
       <c r="V45" s="8"/>
       <c r="Y45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z45" t="s">
         <v>117</v>
@@ -7269,15 +7132,15 @@
         <v>11</v>
       </c>
       <c r="D46" s="20" t="str">
-        <f>VLOOKUP($B46,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Commercial</v>
       </c>
       <c r="E46" s="20">
-        <f>G46*SUMIFS($K:$K,$I:$I,C46,$J:$J,D46)/F46</f>
+        <f t="shared" si="1"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="F46" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D46,$C$2:$C$1000,C46)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="G46" s="10">
@@ -7294,15 +7157,15 @@
         <v>11</v>
       </c>
       <c r="D47" s="20" t="str">
-        <f>VLOOKUP($B47,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E47" s="20">
-        <f>G47*SUMIFS($K:$K,$I:$I,C47,$J:$J,D47)/F47</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F47" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D47,$C$2:$C$1000,C47)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G47" s="10">
@@ -7319,15 +7182,15 @@
         <v>11</v>
       </c>
       <c r="D48" s="20" t="str">
-        <f>VLOOKUP($B48,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E48" s="20">
-        <f>G48*SUMIFS($K:$K,$I:$I,C48,$J:$J,D48)/F48</f>
+        <f t="shared" si="1"/>
         <v>1.8181818181818181</v>
       </c>
       <c r="F48" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D48,$C$2:$C$1000,C48)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G48" s="10">
@@ -7344,15 +7207,15 @@
         <v>11</v>
       </c>
       <c r="D49" s="20" t="str">
-        <f>VLOOKUP($B49,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E49" s="20">
-        <f>G49*SUMIFS($K:$K,$I:$I,C49,$J:$J,D49)/F49</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F49" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D49,$C$2:$C$1000,C49)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G49" s="10">
@@ -7369,15 +7232,15 @@
         <v>11</v>
       </c>
       <c r="D50" s="20" t="str">
-        <f>VLOOKUP($B50,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E50" s="20">
-        <f>G50*SUMIFS($K:$K,$I:$I,C50,$J:$J,D50)/F50</f>
+        <f t="shared" si="1"/>
         <v>1.8181818181818181</v>
       </c>
       <c r="F50" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D50,$C$2:$C$1000,C50)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G50" s="10">
@@ -7394,15 +7257,15 @@
         <v>11</v>
       </c>
       <c r="D51" s="20" t="str">
-        <f>VLOOKUP($B51,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E51" s="20">
-        <f>G51*SUMIFS($K:$K,$I:$I,C51,$J:$J,D51)/F51</f>
+        <f t="shared" si="1"/>
         <v>1.8181818181818181</v>
       </c>
       <c r="F51" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D51,$C$2:$C$1000,C51)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G51" s="10">
@@ -7419,15 +7282,15 @@
         <v>11</v>
       </c>
       <c r="D52" s="20" t="str">
-        <f>VLOOKUP($B52,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E52" s="20">
-        <f>G52*SUMIFS($K:$K,$I:$I,C52,$J:$J,D52)/F52</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F52" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D52,$C$2:$C$1000,C52)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G52" s="10">
@@ -7444,15 +7307,15 @@
         <v>11</v>
       </c>
       <c r="D53" s="20" t="str">
-        <f>VLOOKUP($B53,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E53" s="20">
-        <f>G53*SUMIFS($K:$K,$I:$I,C53,$J:$J,D53)/F53</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F53" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D53,$C$2:$C$1000,C53)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G53" s="10">
@@ -7469,15 +7332,15 @@
         <v>11</v>
       </c>
       <c r="D54" s="20" t="str">
-        <f>VLOOKUP($B54,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E54" s="20">
-        <f>G54*SUMIFS($K:$K,$I:$I,C54,$J:$J,D54)/F54</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F54" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D54,$C$2:$C$1000,C54)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G54" s="10">
@@ -7494,15 +7357,15 @@
         <v>11</v>
       </c>
       <c r="D55" s="20" t="str">
-        <f>VLOOKUP($B55,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E55" s="20">
-        <f>G55*SUMIFS($K:$K,$I:$I,C55,$J:$J,D55)/F55</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F55" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D55,$C$2:$C$1000,C55)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G55" s="10">
@@ -7519,15 +7382,15 @@
         <v>11</v>
       </c>
       <c r="D56" s="20" t="str">
-        <f>VLOOKUP($B56,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E56" s="20">
-        <f>G56*SUMIFS($K:$K,$I:$I,C56,$J:$J,D56)/F56</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F56" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D56,$C$2:$C$1000,C56)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G56" s="10">
@@ -7544,15 +7407,15 @@
         <v>11</v>
       </c>
       <c r="D57" s="20" t="str">
-        <f>VLOOKUP($B57,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E57" s="20">
-        <f>G57*SUMIFS($K:$K,$I:$I,C57,$J:$J,D57)/F57</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F57" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D57,$C$2:$C$1000,C57)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G57" s="10">
@@ -7569,15 +7432,15 @@
         <v>11</v>
       </c>
       <c r="D58" s="20" t="str">
-        <f>VLOOKUP($B58,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E58" s="20">
-        <f>G58*SUMIFS($K:$K,$I:$I,C58,$J:$J,D58)/F58</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F58" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D58,$C$2:$C$1000,C58)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G58" s="10">
@@ -7594,15 +7457,15 @@
         <v>11</v>
       </c>
       <c r="D59" s="20" t="str">
-        <f>VLOOKUP($B59,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E59" s="20">
-        <f>G59*SUMIFS($K:$K,$I:$I,C59,$J:$J,D59)/F59</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F59" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D59,$C$2:$C$1000,C59)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G59" s="10">
@@ -7619,15 +7482,15 @@
         <v>11</v>
       </c>
       <c r="D60" s="20" t="str">
-        <f>VLOOKUP($B60,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E60" s="20">
-        <f>G60*SUMIFS($K:$K,$I:$I,C60,$J:$J,D60)/F60</f>
+        <f t="shared" si="1"/>
         <v>1.8181818181818181</v>
       </c>
       <c r="F60" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D60,$C$2:$C$1000,C60)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G60" s="10">
@@ -7644,15 +7507,15 @@
         <v>11</v>
       </c>
       <c r="D61" s="20" t="str">
-        <f>VLOOKUP($B61,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E61" s="20">
-        <f>G61*SUMIFS($K:$K,$I:$I,C61,$J:$J,D61)/F61</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F61" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D61,$C$2:$C$1000,C61)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G61" s="10">
@@ -7669,15 +7532,15 @@
         <v>11</v>
       </c>
       <c r="D62" s="20" t="str">
-        <f>VLOOKUP($B62,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E62" s="20">
-        <f>G62*SUMIFS($K:$K,$I:$I,C62,$J:$J,D62)/F62</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F62" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D62,$C$2:$C$1000,C62)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G62" s="10">
@@ -7694,15 +7557,15 @@
         <v>11</v>
       </c>
       <c r="D63" s="20" t="str">
-        <f>VLOOKUP($B63,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E63" s="20">
-        <f>G63*SUMIFS($K:$K,$I:$I,C63,$J:$J,D63)/F63</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F63" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D63,$C$2:$C$1000,C63)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G63" s="10">
@@ -7719,15 +7582,15 @@
         <v>11</v>
       </c>
       <c r="D64" s="20" t="str">
-        <f>VLOOKUP($B64,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Corporate</v>
       </c>
       <c r="E64" s="20">
-        <f>G64*SUMIFS($K:$K,$I:$I,C64,$J:$J,D64)/F64</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F64" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D64,$C$2:$C$1000,C64)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G64" s="10">
@@ -7744,15 +7607,15 @@
         <v>11</v>
       </c>
       <c r="D65" s="20" t="str">
-        <f>VLOOKUP($B65,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Operations</v>
       </c>
       <c r="E65" s="20">
-        <f>G65*SUMIFS($K:$K,$I:$I,C65,$J:$J,D65)/F65</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="F65" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D65,$C$2:$C$1000,C65)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="G65" s="10">
@@ -7769,15 +7632,15 @@
         <v>11</v>
       </c>
       <c r="D66" s="20" t="str">
-        <f>VLOOKUP($B66,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Operations</v>
       </c>
       <c r="E66" s="20">
-        <f>G66*SUMIFS($K:$K,$I:$I,C66,$J:$J,D66)/F66</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="F66" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D66,$C$2:$C$1000,C66)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="G66" s="10">
@@ -7794,15 +7657,15 @@
         <v>11</v>
       </c>
       <c r="D67" s="20" t="str">
-        <f>VLOOKUP($B67,$Y:$Z,2,FALSE)</f>
+        <f t="shared" ref="D67:D98" si="8">VLOOKUP($B67,$Y:$Z,2,FALSE)</f>
         <v>Operations</v>
       </c>
       <c r="E67" s="20">
-        <f>G67*SUMIFS($K:$K,$I:$I,C67,$J:$J,D67)/F67</f>
+        <f t="shared" ref="E67:E130" si="9">G67*SUMIFS($K:$K,$I:$I,C67,$J:$J,D67)/F67</f>
         <v>4.166666666666667</v>
       </c>
       <c r="F67" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D67,$C$2:$C$1000,C67)</f>
+        <f t="shared" ref="F67:F130" si="10">SUMIFS($G$2:$G$1000,$D$2:$D$1000,D67,$C$2:$C$1000,C67)</f>
         <v>60</v>
       </c>
       <c r="G67" s="10">
@@ -7819,15 +7682,15 @@
         <v>11</v>
       </c>
       <c r="D68" s="20" t="str">
-        <f>VLOOKUP($B68,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Operations</v>
       </c>
       <c r="E68" s="20">
-        <f>G68*SUMIFS($K:$K,$I:$I,C68,$J:$J,D68)/F68</f>
+        <f t="shared" si="9"/>
         <v>4.166666666666667</v>
       </c>
       <c r="F68" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D68,$C$2:$C$1000,C68)</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="G68" s="10">
@@ -7844,15 +7707,15 @@
         <v>11</v>
       </c>
       <c r="D69" s="20" t="str">
-        <f>VLOOKUP($B69,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Technology</v>
       </c>
       <c r="E69" s="20">
-        <f>G69*SUMIFS($K:$K,$I:$I,C69,$J:$J,D69)/F69</f>
+        <f t="shared" si="9"/>
         <v>1.875</v>
       </c>
       <c r="F69" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D69,$C$2:$C$1000,C69)</f>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="G69" s="10">
@@ -7869,15 +7732,15 @@
         <v>11</v>
       </c>
       <c r="D70" s="20" t="str">
-        <f>VLOOKUP($B70,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Technology</v>
       </c>
       <c r="E70" s="20">
-        <f>G70*SUMIFS($K:$K,$I:$I,C70,$J:$J,D70)/F70</f>
+        <f t="shared" si="9"/>
         <v>3.75</v>
       </c>
       <c r="F70" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D70,$C$2:$C$1000,C70)</f>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="G70" s="10">
@@ -7894,15 +7757,15 @@
         <v>11</v>
       </c>
       <c r="D71" s="20" t="str">
-        <f>VLOOKUP($B71,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Technology</v>
       </c>
       <c r="E71" s="20">
-        <f>G71*SUMIFS($K:$K,$I:$I,C71,$J:$J,D71)/F71</f>
+        <f t="shared" si="9"/>
         <v>3.75</v>
       </c>
       <c r="F71" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D71,$C$2:$C$1000,C71)</f>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="G71" s="10">
@@ -7919,15 +7782,15 @@
         <v>11</v>
       </c>
       <c r="D72" s="20" t="str">
-        <f>VLOOKUP($B72,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Technology</v>
       </c>
       <c r="E72" s="20">
-        <f>G72*SUMIFS($K:$K,$I:$I,C72,$J:$J,D72)/F72</f>
+        <f t="shared" si="9"/>
         <v>1.875</v>
       </c>
       <c r="F72" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D72,$C$2:$C$1000,C72)</f>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="G72" s="10">
@@ -7944,15 +7807,15 @@
         <v>11</v>
       </c>
       <c r="D73" s="20" t="str">
-        <f>VLOOKUP($B73,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Technology</v>
       </c>
       <c r="E73" s="20">
-        <f>G73*SUMIFS($K:$K,$I:$I,C73,$J:$J,D73)/F73</f>
+        <f t="shared" si="9"/>
         <v>1.875</v>
       </c>
       <c r="F73" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D73,$C$2:$C$1000,C73)</f>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="G73" s="10">
@@ -7969,15 +7832,15 @@
         <v>11</v>
       </c>
       <c r="D74" s="20" t="str">
-        <f>VLOOKUP($B74,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Technology</v>
       </c>
       <c r="E74" s="20">
-        <f>G74*SUMIFS($K:$K,$I:$I,C74,$J:$J,D74)/F74</f>
+        <f t="shared" si="9"/>
         <v>1.875</v>
       </c>
       <c r="F74" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D74,$C$2:$C$1000,C74)</f>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="G74" s="10">
@@ -7994,15 +7857,15 @@
         <v>15</v>
       </c>
       <c r="D75" s="20" t="str">
-        <f>VLOOKUP($B75,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>CISO</v>
       </c>
       <c r="E75" s="20">
-        <f>G75*SUMIFS($K:$K,$I:$I,C75,$J:$J,D75)/F75</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="F75" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D75,$C$2:$C$1000,C75)</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="G75" s="10">
@@ -8019,15 +7882,15 @@
         <v>15</v>
       </c>
       <c r="D76" s="20" t="str">
-        <f>VLOOKUP($B76,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Commercial</v>
       </c>
       <c r="E76" s="20">
-        <f>G76*SUMIFS($K:$K,$I:$I,C76,$J:$J,D76)/F76</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="F76" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D76,$C$2:$C$1000,C76)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="G76" s="10">
@@ -8044,15 +7907,15 @@
         <v>15</v>
       </c>
       <c r="D77" s="20" t="str">
-        <f>VLOOKUP($B77,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Commercial</v>
       </c>
       <c r="E77" s="20">
-        <f>G77*SUMIFS($K:$K,$I:$I,C77,$J:$J,D77)/F77</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="F77" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D77,$C$2:$C$1000,C77)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="G77" s="10">
@@ -8069,15 +7932,15 @@
         <v>15</v>
       </c>
       <c r="D78" s="20" t="str">
-        <f>VLOOKUP($B78,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Commercial</v>
       </c>
       <c r="E78" s="20">
-        <f>G78*SUMIFS($K:$K,$I:$I,C78,$J:$J,D78)/F78</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="F78" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D78,$C$2:$C$1000,C78)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="G78" s="10">
@@ -8094,15 +7957,15 @@
         <v>15</v>
       </c>
       <c r="D79" s="20" t="str">
-        <f>VLOOKUP($B79,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Commercial</v>
       </c>
       <c r="E79" s="20">
-        <f>G79*SUMIFS($K:$K,$I:$I,C79,$J:$J,D79)/F79</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="F79" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D79,$C$2:$C$1000,C79)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="G79" s="10">
@@ -8119,15 +7982,15 @@
         <v>15</v>
       </c>
       <c r="D80" s="20" t="str">
-        <f>VLOOKUP($B80,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Commercial</v>
       </c>
       <c r="E80" s="20">
-        <f>G80*SUMIFS($K:$K,$I:$I,C80,$J:$J,D80)/F80</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="F80" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D80,$C$2:$C$1000,C80)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="G80" s="10">
@@ -8144,15 +8007,15 @@
         <v>15</v>
       </c>
       <c r="D81" s="20" t="str">
-        <f>VLOOKUP($B81,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Commercial</v>
       </c>
       <c r="E81" s="20">
-        <f>G81*SUMIFS($K:$K,$I:$I,C81,$J:$J,D81)/F81</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="F81" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D81,$C$2:$C$1000,C81)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="G81" s="10">
@@ -8169,15 +8032,15 @@
         <v>15</v>
       </c>
       <c r="D82" s="20" t="str">
-        <f>VLOOKUP($B82,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Commercial</v>
       </c>
       <c r="E82" s="20">
-        <f>G82*SUMIFS($K:$K,$I:$I,C82,$J:$J,D82)/F82</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="F82" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D82,$C$2:$C$1000,C82)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="G82" s="10">
@@ -8194,15 +8057,15 @@
         <v>15</v>
       </c>
       <c r="D83" s="20" t="str">
-        <f>VLOOKUP($B83,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Commercial</v>
       </c>
       <c r="E83" s="20">
-        <f>G83*SUMIFS($K:$K,$I:$I,C83,$J:$J,D83)/F83</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="F83" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D83,$C$2:$C$1000,C83)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="G83" s="10">
@@ -8219,15 +8082,15 @@
         <v>15</v>
       </c>
       <c r="D84" s="20" t="str">
-        <f>VLOOKUP($B84,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Commercial</v>
       </c>
       <c r="E84" s="20">
-        <f>G84*SUMIFS($K:$K,$I:$I,C84,$J:$J,D84)/F84</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="F84" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D84,$C$2:$C$1000,C84)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="G84" s="10">
@@ -8244,15 +8107,15 @@
         <v>15</v>
       </c>
       <c r="D85" s="20" t="str">
-        <f>VLOOKUP($B85,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Corporate</v>
       </c>
       <c r="E85" s="20">
-        <f>G85*SUMIFS($K:$K,$I:$I,C85,$J:$J,D85)/F85</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F85" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D85,$C$2:$C$1000,C85)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G85" s="10">
@@ -8269,15 +8132,15 @@
         <v>15</v>
       </c>
       <c r="D86" s="20" t="str">
-        <f>VLOOKUP($B86,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Corporate</v>
       </c>
       <c r="E86" s="20">
-        <f>G86*SUMIFS($K:$K,$I:$I,C86,$J:$J,D86)/F86</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F86" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D86,$C$2:$C$1000,C86)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G86" s="10">
@@ -8294,15 +8157,15 @@
         <v>15</v>
       </c>
       <c r="D87" s="20" t="str">
-        <f>VLOOKUP($B87,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Corporate</v>
       </c>
       <c r="E87" s="20">
-        <f>G87*SUMIFS($K:$K,$I:$I,C87,$J:$J,D87)/F87</f>
+        <f t="shared" si="9"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="F87" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D87,$C$2:$C$1000,C87)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G87" s="10">
@@ -8319,15 +8182,15 @@
         <v>15</v>
       </c>
       <c r="D88" s="20" t="str">
-        <f>VLOOKUP($B88,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Corporate</v>
       </c>
       <c r="E88" s="20">
-        <f>G88*SUMIFS($K:$K,$I:$I,C88,$J:$J,D88)/F88</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F88" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D88,$C$2:$C$1000,C88)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G88" s="10">
@@ -8344,15 +8207,15 @@
         <v>15</v>
       </c>
       <c r="D89" s="20" t="str">
-        <f>VLOOKUP($B89,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Corporate</v>
       </c>
       <c r="E89" s="20">
-        <f>G89*SUMIFS($K:$K,$I:$I,C89,$J:$J,D89)/F89</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F89" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D89,$C$2:$C$1000,C89)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G89" s="10">
@@ -8369,15 +8232,15 @@
         <v>15</v>
       </c>
       <c r="D90" s="20" t="str">
-        <f>VLOOKUP($B90,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Corporate</v>
       </c>
       <c r="E90" s="20">
-        <f>G90*SUMIFS($K:$K,$I:$I,C90,$J:$J,D90)/F90</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F90" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D90,$C$2:$C$1000,C90)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G90" s="10">
@@ -8394,15 +8257,15 @@
         <v>15</v>
       </c>
       <c r="D91" s="20" t="str">
-        <f>VLOOKUP($B91,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Corporate</v>
       </c>
       <c r="E91" s="20">
-        <f>G91*SUMIFS($K:$K,$I:$I,C91,$J:$J,D91)/F91</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F91" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D91,$C$2:$C$1000,C91)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G91" s="10">
@@ -8419,15 +8282,15 @@
         <v>15</v>
       </c>
       <c r="D92" s="20" t="str">
-        <f>VLOOKUP($B92,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Corporate</v>
       </c>
       <c r="E92" s="20">
-        <f>G92*SUMIFS($K:$K,$I:$I,C92,$J:$J,D92)/F92</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F92" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D92,$C$2:$C$1000,C92)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G92" s="10">
@@ -8444,15 +8307,15 @@
         <v>15</v>
       </c>
       <c r="D93" s="20" t="str">
-        <f>VLOOKUP($B93,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Corporate</v>
       </c>
       <c r="E93" s="20">
-        <f>G93*SUMIFS($K:$K,$I:$I,C93,$J:$J,D93)/F93</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F93" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D93,$C$2:$C$1000,C93)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G93" s="10">
@@ -8469,15 +8332,15 @@
         <v>15</v>
       </c>
       <c r="D94" s="20" t="str">
-        <f>VLOOKUP($B94,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Corporate</v>
       </c>
       <c r="E94" s="20">
-        <f>G94*SUMIFS($K:$K,$I:$I,C94,$J:$J,D94)/F94</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F94" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D94,$C$2:$C$1000,C94)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G94" s="10">
@@ -8494,15 +8357,15 @@
         <v>15</v>
       </c>
       <c r="D95" s="20" t="str">
-        <f>VLOOKUP($B95,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Corporate</v>
       </c>
       <c r="E95" s="20">
-        <f>G95*SUMIFS($K:$K,$I:$I,C95,$J:$J,D95)/F95</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F95" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D95,$C$2:$C$1000,C95)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G95" s="10">
@@ -8519,15 +8382,15 @@
         <v>15</v>
       </c>
       <c r="D96" s="20" t="str">
-        <f>VLOOKUP($B96,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Corporate</v>
       </c>
       <c r="E96" s="20">
-        <f>G96*SUMIFS($K:$K,$I:$I,C96,$J:$J,D96)/F96</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F96" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D96,$C$2:$C$1000,C96)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G96" s="10">
@@ -8544,15 +8407,15 @@
         <v>15</v>
       </c>
       <c r="D97" s="20" t="str">
-        <f>VLOOKUP($B97,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Corporate</v>
       </c>
       <c r="E97" s="20">
-        <f>G97*SUMIFS($K:$K,$I:$I,C97,$J:$J,D97)/F97</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F97" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D97,$C$2:$C$1000,C97)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G97" s="10">
@@ -8569,15 +8432,15 @@
         <v>15</v>
       </c>
       <c r="D98" s="20" t="str">
-        <f>VLOOKUP($B98,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Operations</v>
       </c>
       <c r="E98" s="20">
-        <f>G98*SUMIFS($K:$K,$I:$I,C98,$J:$J,D98)/F98</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="F98" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D98,$C$2:$C$1000,C98)</f>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="G98" s="10">
@@ -8594,15 +8457,15 @@
         <v>15</v>
       </c>
       <c r="D99" s="20" t="str">
-        <f>VLOOKUP($B99,$Y:$Z,2,FALSE)</f>
+        <f t="shared" ref="D99:D130" si="11">VLOOKUP($B99,$Y:$Z,2,FALSE)</f>
         <v>Operations</v>
       </c>
       <c r="E99" s="20">
-        <f>G99*SUMIFS($K:$K,$I:$I,C99,$J:$J,D99)/F99</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="F99" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D99,$C$2:$C$1000,C99)</f>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="G99" s="10">
@@ -8619,15 +8482,15 @@
         <v>15</v>
       </c>
       <c r="D100" s="20" t="str">
-        <f>VLOOKUP($B100,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Operations</v>
       </c>
       <c r="E100" s="20">
-        <f>G100*SUMIFS($K:$K,$I:$I,C100,$J:$J,D100)/F100</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="F100" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D100,$C$2:$C$1000,C100)</f>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="G100" s="10">
@@ -8644,15 +8507,15 @@
         <v>15</v>
       </c>
       <c r="D101" s="20" t="str">
-        <f>VLOOKUP($B101,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Technology</v>
       </c>
       <c r="E101" s="20">
-        <f>G101*SUMIFS($K:$K,$I:$I,C101,$J:$J,D101)/F101</f>
+        <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="F101" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D101,$C$2:$C$1000,C101)</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="G101" s="10">
@@ -8669,15 +8532,15 @@
         <v>15</v>
       </c>
       <c r="D102" s="20" t="str">
-        <f>VLOOKUP($B102,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Technology</v>
       </c>
       <c r="E102" s="20">
-        <f>G102*SUMIFS($K:$K,$I:$I,C102,$J:$J,D102)/F102</f>
+        <f t="shared" si="9"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F102" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D102,$C$2:$C$1000,C102)</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="G102" s="10">
@@ -8694,15 +8557,15 @@
         <v>15</v>
       </c>
       <c r="D103" s="20" t="str">
-        <f>VLOOKUP($B103,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Technology</v>
       </c>
       <c r="E103" s="20">
-        <f>G103*SUMIFS($K:$K,$I:$I,C103,$J:$J,D103)/F103</f>
+        <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="F103" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D103,$C$2:$C$1000,C103)</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="G103" s="10">
@@ -8719,15 +8582,15 @@
         <v>15</v>
       </c>
       <c r="D104" s="20" t="str">
-        <f>VLOOKUP($B104,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Technology</v>
       </c>
       <c r="E104" s="20">
-        <f>G104*SUMIFS($K:$K,$I:$I,C104,$J:$J,D104)/F104</f>
+        <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="F104" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D104,$C$2:$C$1000,C104)</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="G104" s="10">
@@ -8744,15 +8607,15 @@
         <v>15</v>
       </c>
       <c r="D105" s="20" t="str">
-        <f>VLOOKUP($B105,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Technology</v>
       </c>
       <c r="E105" s="20">
-        <f>G105*SUMIFS($K:$K,$I:$I,C105,$J:$J,D105)/F105</f>
+        <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="F105" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D105,$C$2:$C$1000,C105)</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="G105" s="10">
@@ -8769,15 +8632,15 @@
         <v>16</v>
       </c>
       <c r="D106" s="20" t="str">
-        <f>VLOOKUP($B106,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>CISO</v>
       </c>
       <c r="E106" s="20">
-        <f>G106*SUMIFS($K:$K,$I:$I,C106,$J:$J,D106)/F106</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="F106" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D106,$C$2:$C$1000,C106)</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="G106" s="10">
@@ -8794,15 +8657,15 @@
         <v>16</v>
       </c>
       <c r="D107" s="20" t="str">
-        <f>VLOOKUP($B107,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Commercial</v>
       </c>
       <c r="E107" s="20">
-        <f>G107*SUMIFS($K:$K,$I:$I,C107,$J:$J,D107)/F107</f>
+        <f t="shared" si="9"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F107" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D107,$C$2:$C$1000,C107)</f>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="G107" s="10">
@@ -8819,15 +8682,15 @@
         <v>16</v>
       </c>
       <c r="D108" s="20" t="str">
-        <f>VLOOKUP($B108,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Commercial</v>
       </c>
       <c r="E108" s="20">
-        <f>G108*SUMIFS($K:$K,$I:$I,C108,$J:$J,D108)/F108</f>
+        <f t="shared" si="9"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F108" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D108,$C$2:$C$1000,C108)</f>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="G108" s="10">
@@ -8844,15 +8707,15 @@
         <v>16</v>
       </c>
       <c r="D109" s="20" t="str">
-        <f>VLOOKUP($B109,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Commercial</v>
       </c>
       <c r="E109" s="20">
-        <f>G109*SUMIFS($K:$K,$I:$I,C109,$J:$J,D109)/F109</f>
+        <f t="shared" si="9"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F109" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D109,$C$2:$C$1000,C109)</f>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="G109" s="10">
@@ -8869,15 +8732,15 @@
         <v>16</v>
       </c>
       <c r="D110" s="20" t="str">
-        <f>VLOOKUP($B110,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Commercial</v>
       </c>
       <c r="E110" s="20">
-        <f>G110*SUMIFS($K:$K,$I:$I,C110,$J:$J,D110)/F110</f>
+        <f t="shared" si="9"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F110" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D110,$C$2:$C$1000,C110)</f>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="G110" s="10">
@@ -8894,15 +8757,15 @@
         <v>16</v>
       </c>
       <c r="D111" s="20" t="str">
-        <f>VLOOKUP($B111,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Commercial</v>
       </c>
       <c r="E111" s="20">
-        <f>G111*SUMIFS($K:$K,$I:$I,C111,$J:$J,D111)/F111</f>
+        <f t="shared" si="9"/>
         <v>5.4545454545454541</v>
       </c>
       <c r="F111" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D111,$C$2:$C$1000,C111)</f>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="G111" s="10">
@@ -8919,15 +8782,15 @@
         <v>16</v>
       </c>
       <c r="D112" s="20" t="str">
-        <f>VLOOKUP($B112,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Commercial</v>
       </c>
       <c r="E112" s="20">
-        <f>G112*SUMIFS($K:$K,$I:$I,C112,$J:$J,D112)/F112</f>
+        <f t="shared" si="9"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F112" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D112,$C$2:$C$1000,C112)</f>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="G112" s="10">
@@ -8944,15 +8807,15 @@
         <v>16</v>
       </c>
       <c r="D113" s="20" t="str">
-        <f>VLOOKUP($B113,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Commercial</v>
       </c>
       <c r="E113" s="20">
-        <f>G113*SUMIFS($K:$K,$I:$I,C113,$J:$J,D113)/F113</f>
+        <f t="shared" si="9"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F113" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D113,$C$2:$C$1000,C113)</f>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="G113" s="10">
@@ -8969,15 +8832,15 @@
         <v>16</v>
       </c>
       <c r="D114" s="20" t="str">
-        <f>VLOOKUP($B114,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Commercial</v>
       </c>
       <c r="E114" s="20">
-        <f>G114*SUMIFS($K:$K,$I:$I,C114,$J:$J,D114)/F114</f>
+        <f t="shared" si="9"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F114" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D114,$C$2:$C$1000,C114)</f>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="G114" s="10">
@@ -8994,15 +8857,15 @@
         <v>16</v>
       </c>
       <c r="D115" s="20" t="str">
-        <f>VLOOKUP($B115,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Commercial</v>
       </c>
       <c r="E115" s="20">
-        <f>G115*SUMIFS($K:$K,$I:$I,C115,$J:$J,D115)/F115</f>
+        <f t="shared" si="9"/>
         <v>5.4545454545454541</v>
       </c>
       <c r="F115" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D115,$C$2:$C$1000,C115)</f>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="G115" s="10">
@@ -9019,15 +8882,15 @@
         <v>16</v>
       </c>
       <c r="D116" s="20" t="str">
-        <f>VLOOKUP($B116,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Corporate</v>
       </c>
       <c r="E116" s="20">
-        <f>G116*SUMIFS($K:$K,$I:$I,C116,$J:$J,D116)/F116</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F116" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D116,$C$2:$C$1000,C116)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G116" s="10">
@@ -9044,15 +8907,15 @@
         <v>16</v>
       </c>
       <c r="D117" s="20" t="str">
-        <f>VLOOKUP($B117,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Corporate</v>
       </c>
       <c r="E117" s="20">
-        <f>G117*SUMIFS($K:$K,$I:$I,C117,$J:$J,D117)/F117</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F117" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D117,$C$2:$C$1000,C117)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G117" s="10">
@@ -9069,15 +8932,15 @@
         <v>16</v>
       </c>
       <c r="D118" s="20" t="str">
-        <f>VLOOKUP($B118,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Corporate</v>
       </c>
       <c r="E118" s="20">
-        <f>G118*SUMIFS($K:$K,$I:$I,C118,$J:$J,D118)/F118</f>
+        <f t="shared" si="9"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="F118" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D118,$C$2:$C$1000,C118)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G118" s="10">
@@ -9094,15 +8957,15 @@
         <v>16</v>
       </c>
       <c r="D119" s="20" t="str">
-        <f>VLOOKUP($B119,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Corporate</v>
       </c>
       <c r="E119" s="20">
-        <f>G119*SUMIFS($K:$K,$I:$I,C119,$J:$J,D119)/F119</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F119" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D119,$C$2:$C$1000,C119)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G119" s="10">
@@ -9119,15 +8982,15 @@
         <v>16</v>
       </c>
       <c r="D120" s="20" t="str">
-        <f>VLOOKUP($B120,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Corporate</v>
       </c>
       <c r="E120" s="20">
-        <f>G120*SUMIFS($K:$K,$I:$I,C120,$J:$J,D120)/F120</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F120" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D120,$C$2:$C$1000,C120)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G120" s="10">
@@ -9144,15 +9007,15 @@
         <v>16</v>
       </c>
       <c r="D121" s="20" t="str">
-        <f>VLOOKUP($B121,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Corporate</v>
       </c>
       <c r="E121" s="20">
-        <f>G121*SUMIFS($K:$K,$I:$I,C121,$J:$J,D121)/F121</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F121" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D121,$C$2:$C$1000,C121)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G121" s="10">
@@ -9169,15 +9032,15 @@
         <v>16</v>
       </c>
       <c r="D122" s="20" t="str">
-        <f>VLOOKUP($B122,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Corporate</v>
       </c>
       <c r="E122" s="20">
-        <f>G122*SUMIFS($K:$K,$I:$I,C122,$J:$J,D122)/F122</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F122" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D122,$C$2:$C$1000,C122)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G122" s="10">
@@ -9194,15 +9057,15 @@
         <v>16</v>
       </c>
       <c r="D123" s="20" t="str">
-        <f>VLOOKUP($B123,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Corporate</v>
       </c>
       <c r="E123" s="20">
-        <f>G123*SUMIFS($K:$K,$I:$I,C123,$J:$J,D123)/F123</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F123" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D123,$C$2:$C$1000,C123)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G123" s="10">
@@ -9219,15 +9082,15 @@
         <v>16</v>
       </c>
       <c r="D124" s="20" t="str">
-        <f>VLOOKUP($B124,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Corporate</v>
       </c>
       <c r="E124" s="20">
-        <f>G124*SUMIFS($K:$K,$I:$I,C124,$J:$J,D124)/F124</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F124" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D124,$C$2:$C$1000,C124)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G124" s="10">
@@ -9244,15 +9107,15 @@
         <v>16</v>
       </c>
       <c r="D125" s="20" t="str">
-        <f>VLOOKUP($B125,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Corporate</v>
       </c>
       <c r="E125" s="20">
-        <f>G125*SUMIFS($K:$K,$I:$I,C125,$J:$J,D125)/F125</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F125" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D125,$C$2:$C$1000,C125)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G125" s="10">
@@ -9269,15 +9132,15 @@
         <v>16</v>
       </c>
       <c r="D126" s="20" t="str">
-        <f>VLOOKUP($B126,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Corporate</v>
       </c>
       <c r="E126" s="20">
-        <f>G126*SUMIFS($K:$K,$I:$I,C126,$J:$J,D126)/F126</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F126" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D126,$C$2:$C$1000,C126)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G126" s="10">
@@ -9294,15 +9157,15 @@
         <v>16</v>
       </c>
       <c r="D127" s="20" t="str">
-        <f>VLOOKUP($B127,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Corporate</v>
       </c>
       <c r="E127" s="20">
-        <f>G127*SUMIFS($K:$K,$I:$I,C127,$J:$J,D127)/F127</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F127" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D127,$C$2:$C$1000,C127)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G127" s="10">
@@ -9319,15 +9182,15 @@
         <v>16</v>
       </c>
       <c r="D128" s="20" t="str">
-        <f>VLOOKUP($B128,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Corporate</v>
       </c>
       <c r="E128" s="20">
-        <f>G128*SUMIFS($K:$K,$I:$I,C128,$J:$J,D128)/F128</f>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F128" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D128,$C$2:$C$1000,C128)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G128" s="10">
@@ -9344,15 +9207,15 @@
         <v>16</v>
       </c>
       <c r="D129" s="20" t="str">
-        <f>VLOOKUP($B129,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Operations</v>
       </c>
       <c r="E129" s="20">
-        <f>G129*SUMIFS($K:$K,$I:$I,C129,$J:$J,D129)/F129</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="F129" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D129,$C$2:$C$1000,C129)</f>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="G129" s="10">
@@ -9369,15 +9232,15 @@
         <v>16</v>
       </c>
       <c r="D130" s="20" t="str">
-        <f>VLOOKUP($B130,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Operations</v>
       </c>
       <c r="E130" s="20">
-        <f>G130*SUMIFS($K:$K,$I:$I,C130,$J:$J,D130)/F130</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="F130" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D130,$C$2:$C$1000,C130)</f>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="G130" s="10">
@@ -9394,15 +9257,15 @@
         <v>16</v>
       </c>
       <c r="D131" s="20" t="str">
-        <f>VLOOKUP($B131,$Y:$Z,2,FALSE)</f>
+        <f t="shared" ref="D131:D162" si="12">VLOOKUP($B131,$Y:$Z,2,FALSE)</f>
         <v>Operations</v>
       </c>
       <c r="E131" s="20">
-        <f>G131*SUMIFS($K:$K,$I:$I,C131,$J:$J,D131)/F131</f>
+        <f t="shared" ref="E131:E194" si="13">G131*SUMIFS($K:$K,$I:$I,C131,$J:$J,D131)/F131</f>
         <v>8</v>
       </c>
       <c r="F131" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D131,$C$2:$C$1000,C131)</f>
+        <f t="shared" ref="F131:F194" si="14">SUMIFS($G$2:$G$1000,$D$2:$D$1000,D131,$C$2:$C$1000,C131)</f>
         <v>50</v>
       </c>
       <c r="G131" s="10">
@@ -9419,15 +9282,15 @@
         <v>16</v>
       </c>
       <c r="D132" s="20" t="str">
-        <f>VLOOKUP($B132,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="E132" s="20">
-        <f>G132*SUMIFS($K:$K,$I:$I,C132,$J:$J,D132)/F132</f>
+        <f t="shared" si="13"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F132" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D132,$C$2:$C$1000,C132)</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="G132" s="10">
@@ -9444,15 +9307,15 @@
         <v>16</v>
       </c>
       <c r="D133" s="20" t="str">
-        <f>VLOOKUP($B133,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="E133" s="20">
-        <f>G133*SUMIFS($K:$K,$I:$I,C133,$J:$J,D133)/F133</f>
+        <f t="shared" si="13"/>
         <v>6.666666666666667</v>
       </c>
       <c r="F133" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D133,$C$2:$C$1000,C133)</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="G133" s="10">
@@ -9469,15 +9332,15 @@
         <v>16</v>
       </c>
       <c r="D134" s="20" t="str">
-        <f>VLOOKUP($B134,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="E134" s="20">
-        <f>G134*SUMIFS($K:$K,$I:$I,C134,$J:$J,D134)/F134</f>
+        <f t="shared" si="13"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F134" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D134,$C$2:$C$1000,C134)</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="G134" s="10">
@@ -9494,15 +9357,15 @@
         <v>16</v>
       </c>
       <c r="D135" s="20" t="str">
-        <f>VLOOKUP($B135,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="E135" s="20">
-        <f>G135*SUMIFS($K:$K,$I:$I,C135,$J:$J,D135)/F135</f>
+        <f t="shared" si="13"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F135" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D135,$C$2:$C$1000,C135)</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="G135" s="10">
@@ -9519,15 +9382,15 @@
         <v>16</v>
       </c>
       <c r="D136" s="20" t="str">
-        <f>VLOOKUP($B136,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Technology</v>
       </c>
       <c r="E136" s="20">
-        <f>G136*SUMIFS($K:$K,$I:$I,C136,$J:$J,D136)/F136</f>
+        <f t="shared" si="13"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F136" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D136,$C$2:$C$1000,C136)</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="G136" s="10">
@@ -9544,15 +9407,15 @@
         <v>17</v>
       </c>
       <c r="D137" s="20" t="str">
-        <f>VLOOKUP($B137,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>CISO</v>
       </c>
       <c r="E137" s="20">
-        <f>G137*SUMIFS($K:$K,$I:$I,C137,$J:$J,D137)/F137</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="F137" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D137,$C$2:$C$1000,C137)</f>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="G137" s="10">
@@ -9569,15 +9432,15 @@
         <v>17</v>
       </c>
       <c r="D138" s="20" t="str">
-        <f>VLOOKUP($B138,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="E138" s="20">
-        <f>G138*SUMIFS($K:$K,$I:$I,C138,$J:$J,D138)/F138</f>
+        <f t="shared" si="13"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F138" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D138,$C$2:$C$1000,C138)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G138" s="10">
@@ -9594,15 +9457,15 @@
         <v>17</v>
       </c>
       <c r="D139" s="20" t="str">
-        <f>VLOOKUP($B139,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="E139" s="20">
-        <f>G139*SUMIFS($K:$K,$I:$I,C139,$J:$J,D139)/F139</f>
+        <f t="shared" si="13"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F139" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D139,$C$2:$C$1000,C139)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G139" s="10">
@@ -9619,15 +9482,15 @@
         <v>17</v>
       </c>
       <c r="D140" s="20" t="str">
-        <f>VLOOKUP($B140,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="E140" s="20">
-        <f>G140*SUMIFS($K:$K,$I:$I,C140,$J:$J,D140)/F140</f>
+        <f t="shared" si="13"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F140" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D140,$C$2:$C$1000,C140)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G140" s="10">
@@ -9644,15 +9507,15 @@
         <v>17</v>
       </c>
       <c r="D141" s="20" t="str">
-        <f>VLOOKUP($B141,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="E141" s="20">
-        <f>G141*SUMIFS($K:$K,$I:$I,C141,$J:$J,D141)/F141</f>
+        <f t="shared" si="13"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F141" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D141,$C$2:$C$1000,C141)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G141" s="10">
@@ -9669,15 +9532,15 @@
         <v>17</v>
       </c>
       <c r="D142" s="20" t="str">
-        <f>VLOOKUP($B142,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="E142" s="20">
-        <f>G142*SUMIFS($K:$K,$I:$I,C142,$J:$J,D142)/F142</f>
+        <f t="shared" si="13"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F142" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D142,$C$2:$C$1000,C142)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G142" s="10">
@@ -9694,15 +9557,15 @@
         <v>17</v>
       </c>
       <c r="D143" s="20" t="str">
-        <f>VLOOKUP($B143,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="E143" s="20">
-        <f>G143*SUMIFS($K:$K,$I:$I,C143,$J:$J,D143)/F143</f>
+        <f t="shared" si="13"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F143" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D143,$C$2:$C$1000,C143)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G143" s="10">
@@ -9719,15 +9582,15 @@
         <v>17</v>
       </c>
       <c r="D144" s="20" t="str">
-        <f>VLOOKUP($B144,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="E144" s="20">
-        <f>G144*SUMIFS($K:$K,$I:$I,C144,$J:$J,D144)/F144</f>
+        <f t="shared" si="13"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F144" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D144,$C$2:$C$1000,C144)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G144" s="10">
@@ -9744,15 +9607,15 @@
         <v>17</v>
       </c>
       <c r="D145" s="20" t="str">
-        <f>VLOOKUP($B145,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="E145" s="20">
-        <f>G145*SUMIFS($K:$K,$I:$I,C145,$J:$J,D145)/F145</f>
+        <f t="shared" si="13"/>
         <v>5.4545454545454541</v>
       </c>
       <c r="F145" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D145,$C$2:$C$1000,C145)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G145" s="10">
@@ -9769,15 +9632,15 @@
         <v>17</v>
       </c>
       <c r="D146" s="20" t="str">
-        <f>VLOOKUP($B146,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Commercial</v>
       </c>
       <c r="E146" s="20">
-        <f>G146*SUMIFS($K:$K,$I:$I,C146,$J:$J,D146)/F146</f>
+        <f t="shared" si="13"/>
         <v>5.4545454545454541</v>
       </c>
       <c r="F146" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D146,$C$2:$C$1000,C146)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G146" s="10">
@@ -9794,15 +9657,15 @@
         <v>17</v>
       </c>
       <c r="D147" s="20" t="str">
-        <f>VLOOKUP($B147,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="E147" s="20">
-        <f>G147*SUMIFS($K:$K,$I:$I,C147,$J:$J,D147)/F147</f>
+        <f t="shared" si="13"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="F147" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D147,$C$2:$C$1000,C147)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G147" s="10">
@@ -9819,15 +9682,15 @@
         <v>17</v>
       </c>
       <c r="D148" s="20" t="str">
-        <f>VLOOKUP($B148,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="E148" s="20">
-        <f>G148*SUMIFS($K:$K,$I:$I,C148,$J:$J,D148)/F148</f>
+        <f t="shared" si="13"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="F148" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D148,$C$2:$C$1000,C148)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G148" s="10">
@@ -9844,15 +9707,15 @@
         <v>17</v>
       </c>
       <c r="D149" s="20" t="str">
-        <f>VLOOKUP($B149,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="E149" s="20">
-        <f>G149*SUMIFS($K:$K,$I:$I,C149,$J:$J,D149)/F149</f>
+        <f t="shared" si="13"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="F149" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D149,$C$2:$C$1000,C149)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G149" s="10">
@@ -9869,15 +9732,15 @@
         <v>17</v>
       </c>
       <c r="D150" s="20" t="str">
-        <f>VLOOKUP($B150,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="E150" s="20">
-        <f>G150*SUMIFS($K:$K,$I:$I,C150,$J:$J,D150)/F150</f>
+        <f t="shared" si="13"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="F150" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D150,$C$2:$C$1000,C150)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G150" s="10">
@@ -9894,15 +9757,15 @@
         <v>17</v>
       </c>
       <c r="D151" s="20" t="str">
-        <f>VLOOKUP($B151,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="E151" s="20">
-        <f>G151*SUMIFS($K:$K,$I:$I,C151,$J:$J,D151)/F151</f>
+        <f t="shared" si="13"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="F151" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D151,$C$2:$C$1000,C151)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G151" s="10">
@@ -9919,15 +9782,15 @@
         <v>17</v>
       </c>
       <c r="D152" s="20" t="str">
-        <f>VLOOKUP($B152,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="E152" s="20">
-        <f>G152*SUMIFS($K:$K,$I:$I,C152,$J:$J,D152)/F152</f>
+        <f t="shared" si="13"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="F152" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D152,$C$2:$C$1000,C152)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G152" s="10">
@@ -9944,15 +9807,15 @@
         <v>17</v>
       </c>
       <c r="D153" s="20" t="str">
-        <f>VLOOKUP($B153,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="E153" s="20">
-        <f>G153*SUMIFS($K:$K,$I:$I,C153,$J:$J,D153)/F153</f>
+        <f t="shared" si="13"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="F153" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D153,$C$2:$C$1000,C153)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G153" s="10">
@@ -9969,15 +9832,15 @@
         <v>17</v>
       </c>
       <c r="D154" s="20" t="str">
-        <f>VLOOKUP($B154,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="E154" s="20">
-        <f>G154*SUMIFS($K:$K,$I:$I,C154,$J:$J,D154)/F154</f>
+        <f t="shared" si="13"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="F154" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D154,$C$2:$C$1000,C154)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G154" s="10">
@@ -9994,15 +9857,15 @@
         <v>17</v>
       </c>
       <c r="D155" s="20" t="str">
-        <f>VLOOKUP($B155,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="E155" s="20">
-        <f>G155*SUMIFS($K:$K,$I:$I,C155,$J:$J,D155)/F155</f>
+        <f t="shared" si="13"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="F155" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D155,$C$2:$C$1000,C155)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G155" s="10">
@@ -10019,15 +9882,15 @@
         <v>17</v>
       </c>
       <c r="D156" s="20" t="str">
-        <f>VLOOKUP($B156,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="E156" s="20">
-        <f>G156*SUMIFS($K:$K,$I:$I,C156,$J:$J,D156)/F156</f>
+        <f t="shared" si="13"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="F156" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D156,$C$2:$C$1000,C156)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G156" s="10">
@@ -10044,15 +9907,15 @@
         <v>17</v>
       </c>
       <c r="D157" s="20" t="str">
-        <f>VLOOKUP($B157,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="E157" s="20">
-        <f>G157*SUMIFS($K:$K,$I:$I,C157,$J:$J,D157)/F157</f>
+        <f t="shared" si="13"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="F157" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D157,$C$2:$C$1000,C157)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G157" s="10">
@@ -10069,15 +9932,15 @@
         <v>17</v>
       </c>
       <c r="D158" s="20" t="str">
-        <f>VLOOKUP($B158,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="E158" s="20">
-        <f>G158*SUMIFS($K:$K,$I:$I,C158,$J:$J,D158)/F158</f>
+        <f t="shared" si="13"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="F158" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D158,$C$2:$C$1000,C158)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G158" s="10">
@@ -10094,15 +9957,15 @@
         <v>17</v>
       </c>
       <c r="D159" s="20" t="str">
-        <f>VLOOKUP($B159,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Corporate</v>
       </c>
       <c r="E159" s="20">
-        <f>G159*SUMIFS($K:$K,$I:$I,C159,$J:$J,D159)/F159</f>
+        <f t="shared" si="13"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="F159" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D159,$C$2:$C$1000,C159)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G159" s="10">
@@ -10119,15 +9982,15 @@
         <v>17</v>
       </c>
       <c r="D160" s="20" t="str">
-        <f>VLOOKUP($B160,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Operations</v>
       </c>
       <c r="E160" s="20">
-        <f>G160*SUMIFS($K:$K,$I:$I,C160,$J:$J,D160)/F160</f>
+        <f t="shared" si="13"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F160" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D160,$C$2:$C$1000,C160)</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="G160" s="10">
@@ -10144,15 +10007,15 @@
         <v>17</v>
       </c>
       <c r="D161" s="20" t="str">
-        <f>VLOOKUP($B161,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Operations</v>
       </c>
       <c r="E161" s="20">
-        <f>G161*SUMIFS($K:$K,$I:$I,C161,$J:$J,D161)/F161</f>
+        <f t="shared" si="13"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F161" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D161,$C$2:$C$1000,C161)</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="G161" s="10">
@@ -10169,15 +10032,15 @@
         <v>17</v>
       </c>
       <c r="D162" s="20" t="str">
-        <f>VLOOKUP($B162,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Operations</v>
       </c>
       <c r="E162" s="20">
-        <f>G162*SUMIFS($K:$K,$I:$I,C162,$J:$J,D162)/F162</f>
+        <f t="shared" si="13"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F162" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D162,$C$2:$C$1000,C162)</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="G162" s="10">
@@ -10194,15 +10057,15 @@
         <v>17</v>
       </c>
       <c r="D163" s="20" t="str">
-        <f>VLOOKUP($B163,$Y:$Z,2,FALSE)</f>
+        <f t="shared" ref="D163:D198" si="15">VLOOKUP($B163,$Y:$Z,2,FALSE)</f>
         <v>Technology</v>
       </c>
       <c r="E163" s="20">
-        <f>G163*SUMIFS($K:$K,$I:$I,C163,$J:$J,D163)/F163</f>
+        <f t="shared" si="13"/>
         <v>4.166666666666667</v>
       </c>
       <c r="F163" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D163,$C$2:$C$1000,C163)</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="G163" s="10">
@@ -10219,15 +10082,15 @@
         <v>17</v>
       </c>
       <c r="D164" s="20" t="str">
-        <f>VLOOKUP($B164,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Technology</v>
       </c>
       <c r="E164" s="20">
-        <f>G164*SUMIFS($K:$K,$I:$I,C164,$J:$J,D164)/F164</f>
+        <f t="shared" si="13"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="F164" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D164,$C$2:$C$1000,C164)</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="G164" s="10">
@@ -10244,15 +10107,15 @@
         <v>17</v>
       </c>
       <c r="D165" s="20" t="str">
-        <f>VLOOKUP($B165,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Technology</v>
       </c>
       <c r="E165" s="20">
-        <f>G165*SUMIFS($K:$K,$I:$I,C165,$J:$J,D165)/F165</f>
+        <f t="shared" si="13"/>
         <v>4.166666666666667</v>
       </c>
       <c r="F165" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D165,$C$2:$C$1000,C165)</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="G165" s="10">
@@ -10269,15 +10132,15 @@
         <v>17</v>
       </c>
       <c r="D166" s="20" t="str">
-        <f>VLOOKUP($B166,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Technology</v>
       </c>
       <c r="E166" s="20">
-        <f>G166*SUMIFS($K:$K,$I:$I,C166,$J:$J,D166)/F166</f>
+        <f t="shared" si="13"/>
         <v>4.166666666666667</v>
       </c>
       <c r="F166" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D166,$C$2:$C$1000,C166)</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="G166" s="10">
@@ -10294,15 +10157,15 @@
         <v>17</v>
       </c>
       <c r="D167" s="20" t="str">
-        <f>VLOOKUP($B167,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Technology</v>
       </c>
       <c r="E167" s="20">
-        <f>G167*SUMIFS($K:$K,$I:$I,C167,$J:$J,D167)/F167</f>
+        <f t="shared" si="13"/>
         <v>4.166666666666667</v>
       </c>
       <c r="F167" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D167,$C$2:$C$1000,C167)</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="G167" s="10">
@@ -10319,15 +10182,15 @@
         <v>18</v>
       </c>
       <c r="D168" s="20" t="str">
-        <f>VLOOKUP($B168,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>CISO</v>
       </c>
       <c r="E168" s="20">
-        <f>G168*SUMIFS($K:$K,$I:$I,C168,$J:$J,D168)/F168</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="F168" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D168,$C$2:$C$1000,C168)</f>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="G168" s="10">
@@ -10344,15 +10207,15 @@
         <v>18</v>
       </c>
       <c r="D169" s="20" t="str">
-        <f>VLOOKUP($B169,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Commercial</v>
       </c>
       <c r="E169" s="20">
-        <f>G169*SUMIFS($K:$K,$I:$I,C169,$J:$J,D169)/F169</f>
+        <f t="shared" si="13"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F169" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D169,$C$2:$C$1000,C169)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G169" s="10">
@@ -10369,15 +10232,15 @@
         <v>18</v>
       </c>
       <c r="D170" s="20" t="str">
-        <f>VLOOKUP($B170,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Commercial</v>
       </c>
       <c r="E170" s="20">
-        <f>G170*SUMIFS($K:$K,$I:$I,C170,$J:$J,D170)/F170</f>
+        <f t="shared" si="13"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F170" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D170,$C$2:$C$1000,C170)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G170" s="10">
@@ -10394,15 +10257,15 @@
         <v>18</v>
       </c>
       <c r="D171" s="20" t="str">
-        <f>VLOOKUP($B171,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Commercial</v>
       </c>
       <c r="E171" s="20">
-        <f>G171*SUMIFS($K:$K,$I:$I,C171,$J:$J,D171)/F171</f>
+        <f t="shared" si="13"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F171" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D171,$C$2:$C$1000,C171)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G171" s="10">
@@ -10419,15 +10282,15 @@
         <v>18</v>
       </c>
       <c r="D172" s="20" t="str">
-        <f>VLOOKUP($B172,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Commercial</v>
       </c>
       <c r="E172" s="20">
-        <f>G172*SUMIFS($K:$K,$I:$I,C172,$J:$J,D172)/F172</f>
+        <f t="shared" si="13"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F172" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D172,$C$2:$C$1000,C172)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G172" s="10">
@@ -10444,15 +10307,15 @@
         <v>18</v>
       </c>
       <c r="D173" s="20" t="str">
-        <f>VLOOKUP($B173,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Commercial</v>
       </c>
       <c r="E173" s="20">
-        <f>G173*SUMIFS($K:$K,$I:$I,C173,$J:$J,D173)/F173</f>
+        <f t="shared" si="13"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F173" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D173,$C$2:$C$1000,C173)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G173" s="10">
@@ -10469,15 +10332,15 @@
         <v>18</v>
       </c>
       <c r="D174" s="20" t="str">
-        <f>VLOOKUP($B174,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Commercial</v>
       </c>
       <c r="E174" s="20">
-        <f>G174*SUMIFS($K:$K,$I:$I,C174,$J:$J,D174)/F174</f>
+        <f t="shared" si="13"/>
         <v>5.4545454545454541</v>
       </c>
       <c r="F174" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D174,$C$2:$C$1000,C174)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G174" s="10">
@@ -10494,15 +10357,15 @@
         <v>18</v>
       </c>
       <c r="D175" s="20" t="str">
-        <f>VLOOKUP($B175,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Commercial</v>
       </c>
       <c r="E175" s="20">
-        <f>G175*SUMIFS($K:$K,$I:$I,C175,$J:$J,D175)/F175</f>
+        <f t="shared" si="13"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F175" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D175,$C$2:$C$1000,C175)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G175" s="10">
@@ -10519,15 +10382,15 @@
         <v>18</v>
       </c>
       <c r="D176" s="20" t="str">
-        <f>VLOOKUP($B176,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Commercial</v>
       </c>
       <c r="E176" s="20">
-        <f>G176*SUMIFS($K:$K,$I:$I,C176,$J:$J,D176)/F176</f>
+        <f t="shared" si="13"/>
         <v>2.7272727272727271</v>
       </c>
       <c r="F176" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D176,$C$2:$C$1000,C176)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G176" s="10">
@@ -10544,15 +10407,15 @@
         <v>18</v>
       </c>
       <c r="D177" s="20" t="str">
-        <f>VLOOKUP($B177,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Commercial</v>
       </c>
       <c r="E177" s="20">
-        <f>G177*SUMIFS($K:$K,$I:$I,C177,$J:$J,D177)/F177</f>
+        <f t="shared" si="13"/>
         <v>5.4545454545454541</v>
       </c>
       <c r="F177" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D177,$C$2:$C$1000,C177)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="G177" s="10">
@@ -10569,15 +10432,15 @@
         <v>18</v>
       </c>
       <c r="D178" s="20" t="str">
-        <f>VLOOKUP($B178,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Corporate</v>
       </c>
       <c r="E178" s="20">
-        <f>G178*SUMIFS($K:$K,$I:$I,C178,$J:$J,D178)/F178</f>
+        <f t="shared" si="13"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="F178" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D178,$C$2:$C$1000,C178)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G178" s="10">
@@ -10594,15 +10457,15 @@
         <v>18</v>
       </c>
       <c r="D179" s="20" t="str">
-        <f>VLOOKUP($B179,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Corporate</v>
       </c>
       <c r="E179" s="20">
-        <f>G179*SUMIFS($K:$K,$I:$I,C179,$J:$J,D179)/F179</f>
+        <f t="shared" si="13"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="F179" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D179,$C$2:$C$1000,C179)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G179" s="10">
@@ -10619,15 +10482,15 @@
         <v>18</v>
       </c>
       <c r="D180" s="20" t="str">
-        <f>VLOOKUP($B180,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Corporate</v>
       </c>
       <c r="E180" s="20">
-        <f>G180*SUMIFS($K:$K,$I:$I,C180,$J:$J,D180)/F180</f>
+        <f t="shared" si="13"/>
         <v>4.2857142857142856</v>
       </c>
       <c r="F180" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D180,$C$2:$C$1000,C180)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G180" s="10">
@@ -10644,15 +10507,15 @@
         <v>18</v>
       </c>
       <c r="D181" s="20" t="str">
-        <f>VLOOKUP($B181,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Corporate</v>
       </c>
       <c r="E181" s="20">
-        <f>G181*SUMIFS($K:$K,$I:$I,C181,$J:$J,D181)/F181</f>
+        <f t="shared" si="13"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="F181" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D181,$C$2:$C$1000,C181)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G181" s="10">
@@ -10669,15 +10532,15 @@
         <v>18</v>
       </c>
       <c r="D182" s="20" t="str">
-        <f>VLOOKUP($B182,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Corporate</v>
       </c>
       <c r="E182" s="20">
-        <f>G182*SUMIFS($K:$K,$I:$I,C182,$J:$J,D182)/F182</f>
+        <f t="shared" si="13"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="F182" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D182,$C$2:$C$1000,C182)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G182" s="10">
@@ -10694,15 +10557,15 @@
         <v>18</v>
       </c>
       <c r="D183" s="20" t="str">
-        <f>VLOOKUP($B183,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Corporate</v>
       </c>
       <c r="E183" s="20">
-        <f>G183*SUMIFS($K:$K,$I:$I,C183,$J:$J,D183)/F183</f>
+        <f t="shared" si="13"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="F183" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D183,$C$2:$C$1000,C183)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G183" s="10">
@@ -10719,15 +10582,15 @@
         <v>18</v>
       </c>
       <c r="D184" s="20" t="str">
-        <f>VLOOKUP($B184,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Corporate</v>
       </c>
       <c r="E184" s="20">
-        <f>G184*SUMIFS($K:$K,$I:$I,C184,$J:$J,D184)/F184</f>
+        <f t="shared" si="13"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="F184" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D184,$C$2:$C$1000,C184)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G184" s="10">
@@ -10744,15 +10607,15 @@
         <v>18</v>
       </c>
       <c r="D185" s="20" t="str">
-        <f>VLOOKUP($B185,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Corporate</v>
       </c>
       <c r="E185" s="20">
-        <f>G185*SUMIFS($K:$K,$I:$I,C185,$J:$J,D185)/F185</f>
+        <f t="shared" si="13"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="F185" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D185,$C$2:$C$1000,C185)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G185" s="10">
@@ -10769,15 +10632,15 @@
         <v>18</v>
       </c>
       <c r="D186" s="20" t="str">
-        <f>VLOOKUP($B186,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Corporate</v>
       </c>
       <c r="E186" s="20">
-        <f>G186*SUMIFS($K:$K,$I:$I,C186,$J:$J,D186)/F186</f>
+        <f t="shared" si="13"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="F186" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D186,$C$2:$C$1000,C186)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G186" s="10">
@@ -10794,15 +10657,15 @@
         <v>18</v>
       </c>
       <c r="D187" s="20" t="str">
-        <f>VLOOKUP($B187,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Corporate</v>
       </c>
       <c r="E187" s="20">
-        <f>G187*SUMIFS($K:$K,$I:$I,C187,$J:$J,D187)/F187</f>
+        <f t="shared" si="13"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="F187" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D187,$C$2:$C$1000,C187)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G187" s="10">
@@ -10819,15 +10682,15 @@
         <v>18</v>
       </c>
       <c r="D188" s="20" t="str">
-        <f>VLOOKUP($B188,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Corporate</v>
       </c>
       <c r="E188" s="20">
-        <f>G188*SUMIFS($K:$K,$I:$I,C188,$J:$J,D188)/F188</f>
+        <f t="shared" si="13"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="F188" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D188,$C$2:$C$1000,C188)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G188" s="10">
@@ -10844,15 +10707,15 @@
         <v>18</v>
       </c>
       <c r="D189" s="20" t="str">
-        <f>VLOOKUP($B189,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Corporate</v>
       </c>
       <c r="E189" s="20">
-        <f>G189*SUMIFS($K:$K,$I:$I,C189,$J:$J,D189)/F189</f>
+        <f t="shared" si="13"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="F189" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D189,$C$2:$C$1000,C189)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G189" s="10">
@@ -10869,15 +10732,15 @@
         <v>18</v>
       </c>
       <c r="D190" s="20" t="str">
-        <f>VLOOKUP($B190,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Corporate</v>
       </c>
       <c r="E190" s="20">
-        <f>G190*SUMIFS($K:$K,$I:$I,C190,$J:$J,D190)/F190</f>
+        <f t="shared" si="13"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="F190" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D190,$C$2:$C$1000,C190)</f>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="G190" s="10">
@@ -10894,15 +10757,15 @@
         <v>18</v>
       </c>
       <c r="D191" s="20" t="str">
-        <f>VLOOKUP($B191,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Operations</v>
       </c>
       <c r="E191" s="20">
-        <f>G191*SUMIFS($K:$K,$I:$I,C191,$J:$J,D191)/F191</f>
+        <f t="shared" si="13"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F191" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D191,$C$2:$C$1000,C191)</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="G191" s="10">
@@ -10919,15 +10782,15 @@
         <v>18</v>
       </c>
       <c r="D192" s="20" t="str">
-        <f>VLOOKUP($B192,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Operations</v>
       </c>
       <c r="E192" s="20">
-        <f>G192*SUMIFS($K:$K,$I:$I,C192,$J:$J,D192)/F192</f>
+        <f t="shared" si="13"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F192" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D192,$C$2:$C$1000,C192)</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="G192" s="10">
@@ -10944,15 +10807,15 @@
         <v>18</v>
       </c>
       <c r="D193" s="20" t="str">
-        <f>VLOOKUP($B193,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Operations</v>
       </c>
       <c r="E193" s="20">
-        <f>G193*SUMIFS($K:$K,$I:$I,C193,$J:$J,D193)/F193</f>
+        <f t="shared" si="13"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F193" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D193,$C$2:$C$1000,C193)</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="G193" s="10">
@@ -10969,15 +10832,15 @@
         <v>18</v>
       </c>
       <c r="D194" s="20" t="str">
-        <f>VLOOKUP($B194,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Technology</v>
       </c>
       <c r="E194" s="20">
-        <f>G194*SUMIFS($K:$K,$I:$I,C194,$J:$J,D194)/F194</f>
+        <f t="shared" si="13"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F194" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D194,$C$2:$C$1000,C194)</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="G194" s="10">
@@ -10994,15 +10857,15 @@
         <v>18</v>
       </c>
       <c r="D195" s="20" t="str">
-        <f>VLOOKUP($B195,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Technology</v>
       </c>
       <c r="E195" s="20">
-        <f>G195*SUMIFS($K:$K,$I:$I,C195,$J:$J,D195)/F195</f>
+        <f t="shared" ref="E195:E258" si="16">G195*SUMIFS($K:$K,$I:$I,C195,$J:$J,D195)/F195</f>
         <v>6.666666666666667</v>
       </c>
       <c r="F195" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D195,$C$2:$C$1000,C195)</f>
+        <f t="shared" ref="F195:F204" si="17">SUMIFS($G$2:$G$1000,$D$2:$D$1000,D195,$C$2:$C$1000,C195)</f>
         <v>60</v>
       </c>
       <c r="G195" s="10">
@@ -11019,15 +10882,15 @@
         <v>18</v>
       </c>
       <c r="D196" s="20" t="str">
-        <f>VLOOKUP($B196,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Technology</v>
       </c>
       <c r="E196" s="20">
-        <f>G196*SUMIFS($K:$K,$I:$I,C196,$J:$J,D196)/F196</f>
+        <f t="shared" si="16"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F196" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D196,$C$2:$C$1000,C196)</f>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="G196" s="10">
@@ -11044,15 +10907,15 @@
         <v>18</v>
       </c>
       <c r="D197" s="20" t="str">
-        <f>VLOOKUP($B197,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Technology</v>
       </c>
       <c r="E197" s="20">
-        <f>G197*SUMIFS($K:$K,$I:$I,C197,$J:$J,D197)/F197</f>
+        <f t="shared" si="16"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F197" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D197,$C$2:$C$1000,C197)</f>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="G197" s="10">
@@ -11069,15 +10932,15 @@
         <v>18</v>
       </c>
       <c r="D198" s="20" t="str">
-        <f>VLOOKUP($B198,$Y:$Z,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Technology</v>
       </c>
       <c r="E198" s="20">
-        <f>G198*SUMIFS($K:$K,$I:$I,C198,$J:$J,D198)/F198</f>
+        <f t="shared" si="16"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F198" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D198,$C$2:$C$1000,C198)</f>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="G198" s="10">
@@ -11088,7 +10951,7 @@
     </row>
     <row r="199" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C199" t="s">
         <v>4</v>
@@ -11097,11 +10960,11 @@
         <v>117</v>
       </c>
       <c r="E199" s="20">
-        <f>G199*SUMIFS($K:$K,$I:$I,C199,$J:$J,D199)/F199</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="F199" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D199,$C$2:$C$1000,C199)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G199" s="10">
@@ -11112,7 +10975,7 @@
     </row>
     <row r="200" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C200" t="s">
         <v>11</v>
@@ -11121,11 +10984,11 @@
         <v>117</v>
       </c>
       <c r="E200" s="20">
-        <f>G200*SUMIFS($K:$K,$I:$I,C200,$J:$J,D200)/F200</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F200" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D200,$C$2:$C$1000,C200)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G200" s="10">
@@ -11136,7 +10999,7 @@
     </row>
     <row r="201" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C201" t="s">
         <v>15</v>
@@ -11145,11 +11008,11 @@
         <v>117</v>
       </c>
       <c r="E201" s="20">
-        <f>G201*SUMIFS($K:$K,$I:$I,C201,$J:$J,D201)/F201</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="F201" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D201,$C$2:$C$1000,C201)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G201" s="10">
@@ -11160,7 +11023,7 @@
     </row>
     <row r="202" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C202" t="s">
         <v>16</v>
@@ -11169,11 +11032,11 @@
         <v>117</v>
       </c>
       <c r="E202" s="20">
-        <f>G202*SUMIFS($K:$K,$I:$I,C202,$J:$J,D202)/F202</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="F202" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D202,$C$2:$C$1000,C202)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G202" s="10">
@@ -11184,7 +11047,7 @@
     </row>
     <row r="203" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C203" t="s">
         <v>17</v>
@@ -11193,11 +11056,11 @@
         <v>117</v>
       </c>
       <c r="E203" s="20">
-        <f>G203*SUMIFS($K:$K,$I:$I,C203,$J:$J,D203)/F203</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="F203" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D203,$C$2:$C$1000,C203)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G203" s="10">
@@ -11208,7 +11071,7 @@
     </row>
     <row r="204" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C204" t="s">
         <v>18</v>
@@ -11217,11 +11080,11 @@
         <v>117</v>
       </c>
       <c r="E204" s="20">
-        <f>G204*SUMIFS($K:$K,$I:$I,C204,$J:$J,D204)/F204</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="F204" s="20">
-        <f>SUMIFS($G$2:$G$1000,$D$2:$D$1000,D204,$C$2:$C$1000,C204)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G204" s="10">
@@ -11260,6 +11123,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K38">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L38">
+    <cfRule type="notContainsText" dxfId="5" priority="1" operator="notContains" text="100">
+      <formula>ISERROR(SEARCH("100",L3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3">
+    <cfRule type="notContainsText" dxfId="4" priority="2" operator="notContains" text="100">
+      <formula>ISERROR(SEARCH("100",P3))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="S3:S14">
     <cfRule type="colorScale" priority="13">
       <colorScale>
@@ -11269,7 +11152,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11282,28 +11165,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K38">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="100">
-      <formula>ISERROR(SEARCH("100",P3))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L38">
-    <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="100">
-      <formula>ISERROR(SEARCH("100",L3))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12319,12 +12182,12 @@
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="N1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ALERT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"ALERT"</formula>
     </cfRule>
   </conditionalFormatting>
